--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="13460"/>
+    <workbookView windowWidth="28800" windowHeight="11440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298">
   <si>
     <t>色块说明</t>
   </si>
@@ -441,9 +441,6 @@
     <t>用户编号</t>
   </si>
   <si>
-    <t>customer_id</t>
-  </si>
-  <si>
     <t>bigint(16)</t>
   </si>
   <si>
@@ -507,54 +504,57 @@
     <t>contacter</t>
   </si>
   <si>
+    <t>商品数量</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>结算价格</t>
+  </si>
+  <si>
+    <t>settlement_price</t>
+  </si>
+  <si>
+    <t>购买时单价</t>
+  </si>
+  <si>
+    <t>pay_price</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
     <t>商品状态</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>结算价格</t>
-  </si>
-  <si>
-    <t>settlement_price</t>
-  </si>
-  <si>
-    <t>购买时单价</t>
-  </si>
-  <si>
-    <t>pay_price</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>contact_phone</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>当前商品单价</t>
+  </si>
+  <si>
+    <t>current_price</t>
+  </si>
+  <si>
+    <t>商户状态</t>
   </si>
   <si>
     <t>所属商户</t>
   </si>
   <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>当前商品单价</t>
-  </si>
-  <si>
-    <t>current_price</t>
-  </si>
-  <si>
-    <t>商户状态</t>
-  </si>
-  <si>
     <t>cdt</t>
   </si>
   <si>
@@ -582,268 +582,271 @@
     <t>finish_time</t>
   </si>
   <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <t>Merchant_Detail 商户详情信息（mongo）</t>
+  </si>
+  <si>
     <t>Goods_Detail 商品详情(mongo)</t>
   </si>
   <si>
-    <t>订单状态</t>
-  </si>
-  <si>
-    <t>Merchant_Detail 商户详情信息（mongo）</t>
-  </si>
-  <si>
     <t>收货地址信息(address)</t>
   </si>
   <si>
     <t>id （id）bigint 64 primary key</t>
   </si>
   <si>
+    <t>用户id （user_account）bigint 64</t>
+  </si>
+  <si>
+    <t>地址编号 (addr_id) bigint 64</t>
+  </si>
+  <si>
+    <t>商户描述</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>商品简介</t>
+  </si>
+  <si>
+    <t>省行政编号 (province_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>Order_Logistics  订单物流信息表(mongo)</t>
+  </si>
+  <si>
+    <t>商户logo</t>
+  </si>
+  <si>
+    <t>logo_url</t>
+  </si>
+  <si>
+    <t>主要成分</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>省名 (province_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>Order_Detail  订单详情(mongo)</t>
+  </si>
+  <si>
+    <t>商户广告</t>
+  </si>
+  <si>
+    <t>advertisements</t>
+  </si>
+  <si>
+    <t>advertisement 集合</t>
+  </si>
+  <si>
+    <t>适用场景</t>
+  </si>
+  <si>
+    <t>scenes</t>
+  </si>
+  <si>
+    <t>市行政编号(city_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>商品详情</t>
+  </si>
+  <si>
+    <t>市名 (city_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>多媒体</t>
+  </si>
+  <si>
+    <t>medias</t>
+  </si>
+  <si>
+    <t>media[]</t>
+  </si>
+  <si>
+    <t>区行政编号(distrc_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>区名 (distrc_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>收货联系人</t>
+  </si>
+  <si>
+    <t>recevier_name</t>
+  </si>
+  <si>
+    <t>是否默认 (default)varchar 8</t>
+  </si>
+  <si>
+    <t>联系人电话</t>
+  </si>
+  <si>
+    <t>recevier_phone</t>
+  </si>
+  <si>
+    <t>物流公司编号</t>
+  </si>
+  <si>
+    <t>logistics_id</t>
+  </si>
+  <si>
+    <t>收货地址 (addr_detail) varchar 512</t>
+  </si>
+  <si>
+    <t>收货地址</t>
+  </si>
+  <si>
+    <t>receive_addr</t>
+  </si>
+  <si>
+    <t>物流信息编号</t>
+  </si>
+  <si>
+    <t>logistics_biz_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 数据字典表（mongo）</t>
+  </si>
+  <si>
+    <t>Media 多媒体信息(mongo)</t>
+  </si>
+  <si>
+    <t>收货手机号码 (connector_mobile)varchar 64</t>
+  </si>
+  <si>
+    <t>支付流水号</t>
+  </si>
+  <si>
+    <t>pay_trans_no</t>
+  </si>
+  <si>
+    <t>快递单号</t>
+  </si>
+  <si>
+    <t>tracking_no</t>
+  </si>
+  <si>
+    <t>收货人姓名 (connector_name)varchar 32</t>
+  </si>
+  <si>
+    <t>支付状态</t>
+  </si>
+  <si>
+    <t>pay_status</t>
+  </si>
+  <si>
+    <t>发货时间</t>
+  </si>
+  <si>
+    <t>sendout_time</t>
+  </si>
+  <si>
+    <t>创建时间（cdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>收货时间</t>
+  </si>
+  <si>
+    <t>receive_time</t>
+  </si>
+  <si>
+    <t>数据组</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>多媒体编号</t>
+  </si>
+  <si>
+    <t>media_id</t>
+  </si>
+  <si>
+    <t>修改时间（cdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>多媒体名</t>
+  </si>
+  <si>
+    <t>键名</t>
+  </si>
+  <si>
+    <t>key_name</t>
+  </si>
+  <si>
+    <t>作用域</t>
+  </si>
+  <si>
+    <t>scpoe</t>
+  </si>
+  <si>
+    <t>stirng</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>Order_Tracking  订单物流追踪表(mongo)</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>存储路径</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>物流信息遍号</t>
+  </si>
+  <si>
+    <t>追踪详情</t>
+  </si>
+  <si>
+    <t>tracking_remark</t>
+  </si>
+  <si>
+    <t>json-string</t>
+  </si>
+  <si>
+    <t>体征信息（customer_body_info）</t>
+  </si>
+  <si>
+    <t>id (id)</t>
+  </si>
+  <si>
     <t>用户id （customer_id）bigint 64</t>
-  </si>
-  <si>
-    <t>商品简介</t>
-  </si>
-  <si>
-    <t>地址编号 (addr_id) bigint 64</t>
-  </si>
-  <si>
-    <t>商户描述</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>主要成分</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>省行政编号 (province_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>Order_Logistics  订单物流信息表(mongo)</t>
-  </si>
-  <si>
-    <t>商户logo</t>
-  </si>
-  <si>
-    <t>logo_url</t>
-  </si>
-  <si>
-    <t>适用场景</t>
-  </si>
-  <si>
-    <t>scenes</t>
-  </si>
-  <si>
-    <t>省名 (province_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>Order_Detail  订单详情(mongo)</t>
-  </si>
-  <si>
-    <t>商户广告</t>
-  </si>
-  <si>
-    <t>advertisements</t>
-  </si>
-  <si>
-    <t>advertisement 集合</t>
-  </si>
-  <si>
-    <t>商品详情</t>
-  </si>
-  <si>
-    <t>市行政编号(city_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>多媒体</t>
-  </si>
-  <si>
-    <t>medias</t>
-  </si>
-  <si>
-    <t>media[]</t>
-  </si>
-  <si>
-    <t>市名 (city_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>区行政编号(distrc_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>区名 (distrc_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>收货联系人</t>
-  </si>
-  <si>
-    <t>recevier_name</t>
-  </si>
-  <si>
-    <t>是否默认 (default)varchar 8</t>
-  </si>
-  <si>
-    <t>联系人电话</t>
-  </si>
-  <si>
-    <t>recevier_phone</t>
-  </si>
-  <si>
-    <t>物流公司编号</t>
-  </si>
-  <si>
-    <t>logistics_id</t>
-  </si>
-  <si>
-    <t>收货地址 (addr_detail) varchar 512</t>
-  </si>
-  <si>
-    <t>收货地址</t>
-  </si>
-  <si>
-    <t>receive_addr</t>
-  </si>
-  <si>
-    <t>物流信息编号</t>
-  </si>
-  <si>
-    <t>logistics_biz_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 数据字典表（mongo）</t>
-  </si>
-  <si>
-    <t>Media 多媒体信息(mongo)</t>
-  </si>
-  <si>
-    <t>收货手机号码 (connector_mobile)varchar 64</t>
-  </si>
-  <si>
-    <t>支付流水号</t>
-  </si>
-  <si>
-    <t>pay_trans_no</t>
-  </si>
-  <si>
-    <t>快递单号</t>
-  </si>
-  <si>
-    <t>tracking_no</t>
-  </si>
-  <si>
-    <t>收货人姓名 (connector_name)varchar 32</t>
-  </si>
-  <si>
-    <t>支付状态</t>
-  </si>
-  <si>
-    <t>pay_status</t>
-  </si>
-  <si>
-    <t>发货时间</t>
-  </si>
-  <si>
-    <t>sendout_time</t>
-  </si>
-  <si>
-    <t>创建时间（cdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>收货时间</t>
-  </si>
-  <si>
-    <t>receive_time</t>
-  </si>
-  <si>
-    <t>数据组</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>多媒体编号</t>
-  </si>
-  <si>
-    <t>media_id</t>
-  </si>
-  <si>
-    <t>修改时间（cdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>键</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>多媒体名</t>
-  </si>
-  <si>
-    <t>键名</t>
-  </si>
-  <si>
-    <t>key_name</t>
-  </si>
-  <si>
-    <t>作用域</t>
-  </si>
-  <si>
-    <t>scpoe</t>
-  </si>
-  <si>
-    <t>stirng</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
-  </si>
-  <si>
-    <t>Order_Tracking  订单物流追踪表(mongo)</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>存储路径</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>物流信息遍号</t>
-  </si>
-  <si>
-    <t>追踪详情</t>
-  </si>
-  <si>
-    <t>tracking_remark</t>
-  </si>
-  <si>
-    <t>json-string</t>
-  </si>
-  <si>
-    <t>体征信息（customer_body_info）</t>
-  </si>
-  <si>
-    <t>id (id)</t>
   </si>
   <si>
     <t>记录编号 (record_id) varchar(64)</t>
@@ -915,9 +918,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -965,13 +968,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -984,6 +980,27 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1003,11 +1020,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1028,21 +1045,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1051,23 +1053,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,21 +1074,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1147,25 +1150,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,7 +1186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,19 +1198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,7 +1228,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,19 +1294,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,67 +1318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,6 +1460,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1510,15 +1516,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1532,152 +1529,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1723,6 +1720,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1750,9 +1750,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1786,23 +1783,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2154,8 +2136,8 @@
   <sheetPr/>
   <dimension ref="A2:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2172,7 +2154,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24"/>
@@ -2180,10 +2162,10 @@
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2200,10 +2182,10 @@
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2218,10 +2200,10 @@
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2229,10 +2211,10 @@
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2240,10 +2222,10 @@
       <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2257,10 +2239,10 @@
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2271,14 +2253,13 @@
       <c r="B8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C8"/>
       <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2289,14 +2270,13 @@
       <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9"/>
       <c r="F9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2311,15 +2291,15 @@
       <c r="F10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="36"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="34" t="s">
         <v>39</v>
       </c>
@@ -2327,15 +2307,15 @@
       <c r="F11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="37"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="31" t="s">
@@ -2344,29 +2324,29 @@
       <c r="B13" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="35"/>
       <c r="F13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="38"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="32" t="s">
         <v>45</v>
       </c>
@@ -2376,44 +2356,44 @@
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="17" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="36" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2421,19 +2401,19 @@
       <c r="F16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2441,19 +2421,19 @@
       <c r="F17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2461,19 +2441,19 @@
       <c r="F18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2481,19 +2461,19 @@
       <c r="F19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2501,19 +2481,19 @@
       <c r="F20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="41" t="s">
+      <c r="L20" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2521,19 +2501,19 @@
       <c r="F21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="36" t="s">
+      <c r="L21" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2541,19 +2521,19 @@
       <c r="F22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="7" t="s">
         <v>63</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2561,19 +2541,19 @@
       <c r="F23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="17" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2581,10 +2561,10 @@
       <c r="F24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J24" s="4"/>
@@ -2593,10 +2573,10 @@
       <c r="F25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J25" s="4"/>
@@ -2608,19 +2588,19 @@
       <c r="F27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="7" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="K27" s="40" t="s">
+      <c r="K27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="36" t="s">
+      <c r="L27" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2628,19 +2608,19 @@
       <c r="F28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="17" t="s">
         <v>9</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2648,37 +2628,37 @@
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="36"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="6:12">
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="41" t="s">
+      <c r="L30" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2686,53 +2666,53 @@
       <c r="F31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K31" s="36" t="s">
+      <c r="K31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="6:12">
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G32" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="6:12">
       <c r="F33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="K33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="L33" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2740,19 +2720,19 @@
       <c r="F34" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="36" t="s">
+      <c r="K34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2760,19 +2740,19 @@
       <c r="F35" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="36" t="s">
+      <c r="J35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L35" s="41" t="s">
+      <c r="L35" s="17" t="s">
         <v>14</v>
       </c>
       <c r="M35" t="s">
@@ -2783,19 +2763,19 @@
       <c r="F36" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G36" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L36" s="36" t="s">
+      <c r="L36" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2803,19 +2783,19 @@
       <c r="F37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="36" t="s">
+      <c r="L37" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2823,19 +2803,19 @@
       <c r="F38" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="G38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="L38" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2843,10 +2823,10 @@
       <c r="J39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="K39" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="L39" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2854,19 +2834,19 @@
       <c r="F40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="36" t="s">
+      <c r="H40" s="7" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="36" t="s">
+      <c r="K40" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L40" s="36" t="s">
+      <c r="L40" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2874,19 +2854,19 @@
       <c r="F41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="36" t="s">
+      <c r="G41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="36" t="s">
+      <c r="J41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K41" s="36" t="s">
+      <c r="K41" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L41" s="36" t="s">
+      <c r="L41" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2894,39 +2874,39 @@
       <c r="F42" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G42" s="36" t="s">
+      <c r="G42" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L42" s="41" t="s">
+      <c r="L42" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="6:12">
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="41" t="s">
+      <c r="L43" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2934,10 +2914,10 @@
       <c r="F44" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2945,10 +2925,10 @@
       <c r="F45" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2956,21 +2936,21 @@
       <c r="F46" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" spans="6:8">
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2978,10 +2958,10 @@
       <c r="F48" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G48" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2989,10 +2969,10 @@
       <c r="F49" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="H49" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3000,10 +2980,10 @@
       <c r="F50" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G50" s="36" t="s">
+      <c r="G50" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3011,10 +2991,10 @@
       <c r="F52" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="G52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="36" t="s">
+      <c r="H52" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3022,10 +3002,10 @@
       <c r="F53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="36" t="s">
+      <c r="G53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="41" t="s">
+      <c r="H53" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3033,51 +3013,51 @@
       <c r="F54" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="36" t="s">
+      <c r="G54" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="6:8">
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="41"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="7"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="41"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="7"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="41"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="6:8">
       <c r="F58" s="7"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="41"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="6:8">
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="41"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" spans="6:8">
       <c r="F60" s="7"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="41"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" spans="6:8">
       <c r="F61" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G61" s="36" t="s">
+      <c r="G61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H61" s="41" t="s">
+      <c r="H61" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3085,10 +3065,10 @@
       <c r="F62" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="36" t="s">
+      <c r="G62" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H62" s="41" t="s">
+      <c r="H62" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3096,10 +3076,10 @@
       <c r="F65" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G65" s="40" t="s">
+      <c r="G65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H65" s="36" t="s">
+      <c r="H65" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3107,10 +3087,10 @@
       <c r="F66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="36" t="s">
+      <c r="G66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="41" t="s">
+      <c r="H66" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3118,51 +3098,51 @@
       <c r="F67" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G67" s="36" t="s">
+      <c r="G67" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H67" s="41" t="s">
+      <c r="H67" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="6:8">
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="41"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="6:8">
       <c r="F69" s="7"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="41"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="6:8">
       <c r="F70" s="7"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="41"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" spans="6:8">
       <c r="F71" s="7"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="41"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="6:8">
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="41"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="6:8">
       <c r="F73" s="7"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="41"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="6:8">
       <c r="F74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G74" s="36" t="s">
+      <c r="G74" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H74" s="41" t="s">
+      <c r="H74" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3170,10 +3150,10 @@
       <c r="F75" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G75" s="36" t="s">
+      <c r="G75" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H75" s="41" t="s">
+      <c r="H75" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3192,8 +3172,8 @@
   <sheetPr/>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3255,13 +3235,11 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3"/>
       <c r="M3" s="5" t="s">
         <v>119</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3"/>
       <c r="Q3" s="5" t="s">
         <v>120</v>
       </c>
@@ -3298,7 +3276,6 @@
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4"/>
       <c r="M4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3308,7 +3285,6 @@
       <c r="O4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P4"/>
       <c r="Q4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3349,7 +3325,6 @@
       <c r="K5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L5"/>
       <c r="M5" s="5" t="s">
         <v>122</v>
       </c>
@@ -3359,14 +3334,13 @@
       <c r="O5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P5"/>
       <c r="Q5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3398,7 +3372,6 @@
         <v>130</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6"/>
       <c r="M6" s="5" t="s">
         <v>131</v>
       </c>
@@ -3408,14 +3381,13 @@
       <c r="O6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P6"/>
       <c r="Q6" s="5" t="s">
         <v>134</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="17" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3442,35 +3414,33 @@
         <v>140</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="L7"/>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P7"/>
       <c r="Q7" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:19">
       <c r="A8" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>139</v>
@@ -3480,10 +3450,10 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>126</v>
@@ -3498,22 +3468,20 @@
       <c r="K8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L8"/>
       <c r="M8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P8"/>
       <c r="Q8" s="5" t="s">
         <v>138</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>133</v>
@@ -3521,50 +3489,48 @@
     </row>
     <row r="9" customFormat="1" spans="1:19">
       <c r="A9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L9"/>
       <c r="M9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="P9"/>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>133</v>
@@ -3572,50 +3538,48 @@
     </row>
     <row r="10" customFormat="1" spans="1:19">
       <c r="A10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L10"/>
       <c r="M10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="R10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="P10"/>
-      <c r="Q10" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>133</v>
@@ -3623,103 +3587,99 @@
     </row>
     <row r="11" customFormat="1" spans="1:19">
       <c r="A11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L11"/>
       <c r="M11" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P11"/>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="R11" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="R11" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="S11" s="22" t="s">
+      <c r="S11" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:19">
       <c r="A12" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="L12"/>
       <c r="M12" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="P12"/>
       <c r="Q12" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="S12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="S12" s="17" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3735,10 +3695,10 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>180</v>
@@ -3747,30 +3707,28 @@
       <c r="I13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="L13"/>
       <c r="M13" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="P13"/>
       <c r="Q13" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="R13" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="17" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3785,106 +3743,97 @@
         <v>180</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14"/>
       <c r="M14" s="5" t="s">
         <v>186</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="P14"/>
       <c r="Q14" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="R14" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="R14" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="S14" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="4:19">
       <c r="D15" s="4"/>
-      <c r="E15" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15"/>
       <c r="M15" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P15"/>
       <c r="Q15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="16" t="s">
+      <c r="R15" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="S15" s="16" t="s">
+      <c r="S15" s="17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:19">
       <c r="A16" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="18" t="s">
         <v>191</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16"/>
       <c r="M16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="P16"/>
       <c r="Q16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="R16" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="S16" s="16" t="s">
+      <c r="S16" s="17" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3900,26 +3849,27 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="19" t="s">
         <v>192</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17"/>
       <c r="M17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="17" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3935,16 +3885,14 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="19" t="s">
         <v>193</v>
       </c>
       <c r="J18" s="4"/>
@@ -3962,91 +3910,84 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>133</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="19" t="s">
-        <v>195</v>
+      <c r="I19" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="1:19">
       <c r="A20" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="20" t="s">
         <v>198</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="19" t="s">
-        <v>201</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
       <c r="Q20" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" customFormat="1" spans="1:19">
       <c r="A21" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="20" t="s">
         <v>205</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="19" t="s">
-        <v>207</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21"/>
       <c r="M21" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21"/>
       <c r="Q21" s="5" t="s">
         <v>2</v>
       </c>
@@ -4059,31 +4000,30 @@
     </row>
     <row r="22" customFormat="1" spans="1:19">
       <c r="A22" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="20" t="s">
         <v>212</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22"/>
       <c r="M22" s="5" t="s">
         <v>2</v>
       </c>
@@ -4093,7 +4033,6 @@
       <c r="O22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P22"/>
       <c r="Q22" s="5" t="s">
         <v>122</v>
       </c>
@@ -4116,21 +4055,20 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="20" t="s">
         <v>214</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23"/>
       <c r="M23" s="5" t="s">
         <v>122</v>
       </c>
@@ -4140,7 +4078,6 @@
       <c r="O23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P23"/>
       <c r="Q23" s="5" t="s">
         <v>131</v>
       </c>
@@ -4163,21 +4100,20 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="20" t="s">
         <v>218</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24"/>
       <c r="M24" s="5" t="s">
         <v>131</v>
       </c>
@@ -4187,35 +4123,33 @@
       <c r="O24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P24"/>
       <c r="Q24" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="R24" s="16" t="s">
+      <c r="R24" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="S24" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="4:19">
       <c r="D25" s="4"/>
       <c r="E25" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>180</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="20" t="s">
         <v>219</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25"/>
       <c r="M25" s="5" t="s">
         <v>220</v>
       </c>
@@ -4225,9 +4159,8 @@
       <c r="O25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P25"/>
       <c r="Q25" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>125</v>
@@ -4238,16 +4171,21 @@
     </row>
     <row r="26" customFormat="1" spans="4:19">
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="19" t="s">
         <v>222</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26"/>
       <c r="M26" s="5" t="s">
         <v>223</v>
       </c>
@@ -4257,7 +4195,6 @@
       <c r="O26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P26"/>
       <c r="Q26" s="5" t="s">
         <v>225</v>
       </c>
@@ -4274,12 +4211,11 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="19" t="s">
         <v>227</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27"/>
       <c r="M27" s="5" t="s">
         <v>228</v>
       </c>
@@ -4289,7 +4225,6 @@
       <c r="O27" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P27"/>
       <c r="Q27" s="5" t="s">
         <v>230</v>
       </c>
@@ -4313,12 +4248,11 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="19" t="s">
         <v>234</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28"/>
       <c r="M28" s="5" t="s">
         <v>235</v>
       </c>
@@ -4328,7 +4262,6 @@
       <c r="O28" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P28"/>
       <c r="Q28" s="5" t="s">
         <v>237</v>
       </c>
@@ -4360,12 +4293,11 @@
         <v>3</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="21" t="s">
         <v>239</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29"/>
       <c r="M29" s="5" t="s">
         <v>240</v>
       </c>
@@ -4375,14 +4307,13 @@
       <c r="O29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P29"/>
       <c r="Q29" s="5" t="s">
         <v>242</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="S29" s="16" t="s">
+      <c r="S29" s="17" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4397,39 +4328,37 @@
         <v>123</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="16" t="s">
         <v>123</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="19" t="s">
         <v>244</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30"/>
       <c r="M30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="N30" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O30" s="16" t="s">
+      <c r="O30" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="P30"/>
       <c r="Q30" s="5" t="s">
         <v>245</v>
       </c>
       <c r="R30" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="S30" s="16" t="s">
+      <c r="S30" s="17" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4444,39 +4373,37 @@
         <v>133</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="16" t="s">
         <v>133</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="21" t="s">
         <v>251</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31"/>
       <c r="M31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="O31" s="16" t="s">
+      <c r="O31" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="P31"/>
       <c r="Q31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R31" s="16" t="s">
+      <c r="R31" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="S31" s="16" t="s">
+      <c r="S31" s="17" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4491,31 +4418,26 @@
         <v>133</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="16" t="s">
         <v>133</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
       <c r="Q32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R32" s="16" t="s">
+      <c r="R32" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="S32" s="16" t="s">
+      <c r="S32" s="17" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4530,13 +4452,13 @@
         <v>133</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="16" t="s">
         <v>259</v>
       </c>
       <c r="H33" s="4"/>
@@ -4555,24 +4477,19 @@
         <v>133</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>263</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
       <c r="Q34" s="5" t="s">
         <v>264</v>
       </c>
@@ -4590,24 +4507,19 @@
         <v>267</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="16" t="s">
         <v>133</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
       <c r="Q35" s="5" t="s">
         <v>2</v>
       </c>
@@ -4620,33 +4532,28 @@
     </row>
     <row r="36" customFormat="1" spans="1:19">
       <c r="A36" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="16" t="s">
         <v>180</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
       <c r="Q36" s="5" t="s">
         <v>122</v>
       </c>
@@ -4668,24 +4575,19 @@
         <v>180</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="16" t="s">
         <v>180</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
       <c r="Q37" s="5" t="s">
         <v>131</v>
       </c>
@@ -4707,31 +4609,26 @@
         <v>180</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="16" t="s">
         <v>180</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
       <c r="Q38" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="R38" s="16" t="s">
+      <c r="R38" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="S38" s="16" t="s">
+      <c r="S38" s="17" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4744,11 +4641,6 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
       <c r="Q39" s="5" t="s">
         <v>270</v>
       </c>
@@ -4768,11 +4660,6 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
       <c r="Q40" s="5" t="s">
         <v>237</v>
       </c>
@@ -4792,11 +4679,6 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
       <c r="Q41" s="5" t="s">
         <v>271</v>
       </c>
@@ -4816,18 +4698,13 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
       <c r="Q42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R42" s="16" t="s">
+      <c r="R42" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="S42" s="16" t="s">
+      <c r="S42" s="17" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4840,18 +4717,13 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
       <c r="Q43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R43" s="16" t="s">
+      <c r="R43" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="S43" s="16" t="s">
+      <c r="S43" s="17" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4862,8 +4734,8 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="E15:G15"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="A28:C28"/>
@@ -4903,105 +4775,105 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -5011,7 +4883,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:1">

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25900" windowHeight="11880" activeTab="3"/>
+    <workbookView windowWidth="31100" windowHeight="16200"/>
   </bookViews>
   <sheets>
-    <sheet name="用户系统" sheetId="1" r:id="rId1"/>
-    <sheet name="商城系统" sheetId="2" r:id="rId2"/>
-    <sheet name="支付系统" sheetId="4" r:id="rId3"/>
-    <sheet name="finess" sheetId="3" r:id="rId4"/>
+    <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
+    <sheet name="用户系统" sheetId="1" r:id="rId2"/>
+    <sheet name="商城系统" sheetId="2" r:id="rId3"/>
+    <sheet name="支付系统" sheetId="4" r:id="rId4"/>
+    <sheet name="finess" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366">
   <si>
     <t>色块说明</t>
   </si>
@@ -952,9 +953,24 @@
     <t>课程管理</t>
   </si>
   <si>
+    <t>新增/编辑课程</t>
+  </si>
+  <si>
+    <t>查看课程</t>
+  </si>
+  <si>
+    <t>发布课程</t>
+  </si>
+  <si>
+    <t>购买课程</t>
+  </si>
+  <si>
     <t>体征信息（customer_body_info）</t>
   </si>
   <si>
+    <t>修改课程发布计划</t>
+  </si>
+  <si>
     <t>id (id)</t>
   </si>
   <si>
@@ -979,73 +995,127 @@
     <t xml:space="preserve">身高 cm  (height) varchar(8) </t>
   </si>
   <si>
+    <t>后台预约</t>
+  </si>
+  <si>
     <t>取消预约</t>
   </si>
   <si>
     <t>体重 kg (weight) varchar(8)</t>
   </si>
   <si>
+    <t>后台取消</t>
+  </si>
+  <si>
     <t>课程评价</t>
   </si>
   <si>
     <t xml:space="preserve">胸围 cm (chest) varchar(8) </t>
   </si>
   <si>
+    <t>分享课程</t>
+  </si>
+  <si>
     <t xml:space="preserve">腰围 cm (waistline) varchar(8) </t>
   </si>
   <si>
+    <t>查看预约记录</t>
+  </si>
+  <si>
     <t xml:space="preserve">臀围 cm (hipline) varchar(8) </t>
   </si>
   <si>
+    <t xml:space="preserve">腰臀比 (waist_hip_ratio)  varchar(8) </t>
+  </si>
+  <si>
     <t>视频管理</t>
   </si>
   <si>
-    <t xml:space="preserve">腰臀比 (waist_hip_ratio)  varchar(8) </t>
+    <t>上传视频</t>
+  </si>
+  <si>
+    <t>查看视频</t>
   </si>
   <si>
     <t>左大臂围  cm (left_arm_circumference) varchar(8)</t>
   </si>
   <si>
+    <t>编辑视频说明</t>
+  </si>
+  <si>
     <t>右大臂围  cm (right_arm_circumference) varchar(8)</t>
   </si>
   <si>
+    <t>删除视频</t>
+  </si>
+  <si>
     <t>左大腿围  cm (left_thigh_circumference) varchar(8)</t>
   </si>
   <si>
+    <t>右大腿围   cm (right_thigh_circumference) varchar(8)</t>
+  </si>
+  <si>
     <t>打卡挑战</t>
   </si>
   <si>
-    <t>右大腿围   cm (right_thigh_circumference) varchar(8)</t>
+    <t>发起挑战</t>
   </si>
   <si>
     <t xml:space="preserve">体脂率 % (fat percentage) varchar(8) </t>
   </si>
   <si>
+    <t>查询挑战计划</t>
+  </si>
+  <si>
     <t>心率  次/分 (heart_rate) varchar(8)</t>
   </si>
   <si>
+    <t>管理挑战计划</t>
+  </si>
+  <si>
+    <t>参与挑战</t>
+  </si>
+  <si>
     <t>血压(收缩压)  mm/Hg (sdp) varchar(8)</t>
   </si>
   <si>
+    <t>挑战统计</t>
+  </si>
+  <si>
+    <t>打卡记录</t>
+  </si>
+  <si>
+    <t>血压(舒张压) mm/Hg (dbp) varchar(8)</t>
+  </si>
+  <si>
+    <t>脂肪含量 kg (fat_content) varchar(8)</t>
+  </si>
+  <si>
+    <t>骨骼肌含量 kg (muscle_content) varchar(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 体质指数 (bmi) varchar(8)</t>
+  </si>
+  <si>
+    <t>身高/体重的（二次幂）</t>
+  </si>
+  <si>
     <t>个人中心</t>
   </si>
   <si>
-    <t>血压(舒张压) mm/Hg (dbp) varchar(8)</t>
-  </si>
-  <si>
-    <t>脂肪含量 kg (fat_content) varchar(8)</t>
-  </si>
-  <si>
-    <t>骨骼肌含量 kg (muscle_content) varchar(8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 体质指数 (bmi) varchar(8)</t>
-  </si>
-  <si>
-    <t>身高/体重的（二次幂）</t>
+    <t>新增体征信息</t>
+  </si>
+  <si>
+    <t>查询历史体征信息</t>
   </si>
   <si>
     <t>修改时间（mdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>查询训练数据</t>
+  </si>
+  <si>
+    <t>管理个人训练计划</t>
   </si>
 </sst>
 </file>
@@ -1053,11 +1123,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1097,16 +1167,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1120,68 +1251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,6 +1259,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,24 +1287,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1232,8 +1301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,19 +1368,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,13 +1410,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,7 +1446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,7 +1458,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,79 +1518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,13 +1530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,23 +1642,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1604,6 +1668,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1626,23 +1705,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,11 +1722,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1671,148 +1741,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1987,6 +2057,5865 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>337185</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>211455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="矩形 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11309985" y="1278255"/>
+          <a:ext cx="2720340" cy="5634355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370205</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>118745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>366395</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>203835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="矩形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5247005" y="1185545"/>
+          <a:ext cx="3653790" cy="5632450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>278765</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="组合 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6880225" y="1449705"/>
+          <a:ext cx="1932940" cy="1060450"/>
+          <a:chOff x="5569" y="1046"/>
+          <a:chExt cx="3064" cy="1656"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="圆角矩形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5569" y="1046"/>
+            <a:ext cx="3065" cy="1656"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="t"/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>用户系统</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="黑体" charset="0"/>
+              <a:ea typeface="黑体" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="圆角矩形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5916" y="1308"/>
+            <a:ext cx="1740" cy="448"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>node_0</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="圆角矩形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5916" y="2003"/>
+            <a:ext cx="1740" cy="450"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>node_*</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173990</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="组合 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6879590" y="2796540"/>
+          <a:ext cx="1932940" cy="1061085"/>
+          <a:chOff x="5599" y="3127"/>
+          <a:chExt cx="3064" cy="1656"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="圆角矩形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5599" y="3127"/>
+            <a:ext cx="3065" cy="1656"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>订单系统</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="黑体" charset="0"/>
+              <a:ea typeface="黑体" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="圆角矩形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5949" y="3386"/>
+            <a:ext cx="1740" cy="451"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>node_0</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="圆角矩形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5949" y="4084"/>
+            <a:ext cx="1740" cy="450"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>node_*</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>278765</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="组合 22"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6880225" y="4142740"/>
+          <a:ext cx="1932940" cy="1061085"/>
+          <a:chOff x="5570" y="5259"/>
+          <a:chExt cx="3064" cy="1656"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="圆角矩形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5570" y="5259"/>
+            <a:ext cx="3065" cy="1656"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>支付系统</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="黑体" charset="0"/>
+              <a:ea typeface="黑体" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="圆角矩形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5932" y="5535"/>
+            <a:ext cx="1740" cy="451"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>node_0</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="圆角矩形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5932" y="6234"/>
+            <a:ext cx="1740" cy="448"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>node_*</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>278765</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="组合 23"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6880225" y="5488305"/>
+          <a:ext cx="1932940" cy="1059815"/>
+          <a:chOff x="5619" y="7371"/>
+          <a:chExt cx="3064" cy="1656"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="圆角矩形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5619" y="7371"/>
+            <a:ext cx="3065" cy="1656"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>通知系统</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="黑体" charset="0"/>
+              <a:ea typeface="黑体" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="圆角矩形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5965" y="7633"/>
+            <a:ext cx="1740" cy="448"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>node_0</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="圆角矩形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5965" y="8330"/>
+            <a:ext cx="1740" cy="448"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>node_*</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="组合 33"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5885180" y="1463675"/>
+          <a:ext cx="861060" cy="1031875"/>
+          <a:chOff x="9417" y="2334"/>
+          <a:chExt cx="1370" cy="1614"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="流程图: 磁盘 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9746" y="2334"/>
+            <a:ext cx="763" cy="806"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>DB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="云形 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9417" y="3346"/>
+            <a:ext cx="1371" cy="603"/>
+          </a:xfrm>
+          <a:prstGeom prst="cloud">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>cache</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="组合 34"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5885180" y="2809875"/>
+          <a:ext cx="861060" cy="1031875"/>
+          <a:chOff x="9417" y="4383"/>
+          <a:chExt cx="1370" cy="1614"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="流程图: 磁盘 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9746" y="4383"/>
+            <a:ext cx="763" cy="806"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>DB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="云形 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9417" y="5395"/>
+            <a:ext cx="1371" cy="603"/>
+          </a:xfrm>
+          <a:prstGeom prst="cloud">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>cache</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="组合 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5885180" y="4156710"/>
+          <a:ext cx="861060" cy="1032510"/>
+          <a:chOff x="9367" y="6481"/>
+          <a:chExt cx="1370" cy="1613"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="流程图: 磁盘 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9712" y="6481"/>
+            <a:ext cx="763" cy="806"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>DB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="云形 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9367" y="7494"/>
+            <a:ext cx="1371" cy="600"/>
+          </a:xfrm>
+          <a:prstGeom prst="cloud">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>cache</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="组合 36"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5885180" y="5501640"/>
+          <a:ext cx="861060" cy="1033145"/>
+          <a:chOff x="9317" y="8526"/>
+          <a:chExt cx="1370" cy="1614"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="流程图: 磁盘 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9685" y="8526"/>
+            <a:ext cx="763" cy="806"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>DB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="云形 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9317" y="9540"/>
+            <a:ext cx="1371" cy="600"/>
+          </a:xfrm>
+          <a:prstGeom prst="cloud">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>cache</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="同侧圆角矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6102985" y="398780"/>
+          <a:ext cx="7029450" cy="492125"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>service registeration</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="同侧圆角矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6102985" y="7059295"/>
+          <a:ext cx="6849110" cy="491490"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>config-repository</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>151765</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>202565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>181610</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="圆角矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9905365" y="1482725"/>
+          <a:ext cx="465455" cy="5099685"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="黑体" charset="0"/>
+              <a:ea typeface="黑体" charset="0"/>
+            </a:rPr>
+            <a:t>统一的请求网关系统</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="黑体" charset="0"/>
+            <a:ea typeface="黑体" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>379730</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>582295</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="上下箭头 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8914130" y="1586865"/>
+          <a:ext cx="812165" cy="4885690"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            </a:rPr>
+            <a:t>消息中间件</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="53" name="组合 52"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11361420" y="1525905"/>
+          <a:ext cx="1680210" cy="673735"/>
+          <a:chOff x="18001" y="2377"/>
+          <a:chExt cx="2666" cy="1053"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="剪去单角的矩形 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18001" y="2378"/>
+            <a:ext cx="2666" cy="1052"/>
+          </a:xfrm>
+          <a:prstGeom prst="snip1Rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="文本框 49"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18150" y="2717"/>
+            <a:ext cx="1008" cy="458"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+                <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              </a:rPr>
+              <a:t>客户端</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="文本框 50"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19473" y="2733"/>
+            <a:ext cx="1009" cy="458"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+                <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              </a:rPr>
+              <a:t>运营端</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="49" name="直接连接符 48"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="44" idx="3"/>
+            <a:endCxn id="44" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19327" y="2377"/>
+            <a:ext cx="0" cy="1052"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="组合 53"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11361420" y="2997835"/>
+          <a:ext cx="1680210" cy="673735"/>
+          <a:chOff x="18001" y="2377"/>
+          <a:chExt cx="2666" cy="1053"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="剪去单角的矩形 54"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18001" y="2378"/>
+            <a:ext cx="2666" cy="1052"/>
+          </a:xfrm>
+          <a:prstGeom prst="snip1Rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="文本框 55"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18150" y="2717"/>
+            <a:ext cx="1008" cy="458"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+                <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              </a:rPr>
+              <a:t>客户端</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="文本框 56"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19473" y="2733"/>
+            <a:ext cx="1009" cy="458"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+                <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              </a:rPr>
+              <a:t>运营端</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="58" name="直接连接符 57"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="55" idx="3"/>
+            <a:endCxn id="55" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19327" y="2377"/>
+            <a:ext cx="0" cy="1052"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>260985</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="59" name="组合 58"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11382375" y="4467225"/>
+          <a:ext cx="1680210" cy="674370"/>
+          <a:chOff x="18001" y="2377"/>
+          <a:chExt cx="2666" cy="1053"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="剪去单角的矩形 59"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18001" y="2378"/>
+            <a:ext cx="2666" cy="1052"/>
+          </a:xfrm>
+          <a:prstGeom prst="snip1Rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="文本框 60"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18150" y="2717"/>
+            <a:ext cx="1008" cy="458"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+                <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              </a:rPr>
+              <a:t>客户端</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="文本框 61"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19473" y="2733"/>
+            <a:ext cx="1009" cy="458"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+                <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              </a:rPr>
+              <a:t>运营端</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="直接连接符 62"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="60" idx="3"/>
+            <a:endCxn id="60" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19327" y="2377"/>
+            <a:ext cx="0" cy="1052"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>431165</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="64" name="组合 63"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11403965" y="5930265"/>
+          <a:ext cx="1680210" cy="673735"/>
+          <a:chOff x="18001" y="2377"/>
+          <a:chExt cx="2666" cy="1053"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="剪去单角的矩形 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18001" y="2378"/>
+            <a:ext cx="2666" cy="1052"/>
+          </a:xfrm>
+          <a:prstGeom prst="snip1Rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="文本框 65"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18150" y="2717"/>
+            <a:ext cx="1008" cy="458"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+                <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              </a:rPr>
+              <a:t>客户端</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="文本框 66"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19473" y="2733"/>
+            <a:ext cx="1009" cy="458"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+                <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              </a:rPr>
+              <a:t>运营端</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="68" name="直接连接符 67"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="65" idx="3"/>
+            <a:endCxn id="65" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19327" y="2377"/>
+            <a:ext cx="0" cy="1052"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>197485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="左右箭头 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10438765" y="1691005"/>
+          <a:ext cx="825500" cy="340360"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RPC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="左右箭头 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10438765" y="3163570"/>
+          <a:ext cx="825500" cy="340360"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RPC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="左右箭头 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10438765" y="4632960"/>
+          <a:ext cx="825500" cy="340360"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RPC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="左右箭头 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10438765" y="6096635"/>
+          <a:ext cx="825500" cy="340360"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RPC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>202565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>378460</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="文本框 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5359400" y="1482725"/>
+          <a:ext cx="505460" cy="276860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            </a:rPr>
+            <a:t>中台</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>334645</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>546735</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="文本框 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13136245" y="1477010"/>
+          <a:ext cx="821690" cy="276860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+              <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            </a:rPr>
+            <a:t>业务系统</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+            <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2276,10 +8205,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A2:M75"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3309,7 +9255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S45"/>
@@ -4899,7 +10845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:I30"/>
@@ -5356,20 +11302,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="14.9038461538462" customWidth="1"/>
-    <col min="3" max="4" width="11.8557692307692" customWidth="1"/>
+    <col min="2" max="2" width="19.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="19.5480769230769" customWidth="1"/>
+    <col min="4" max="4" width="11.8557692307692" customWidth="1"/>
     <col min="5" max="5" width="54.0769230769231" customWidth="1"/>
     <col min="6" max="6" width="26.0769230769231" customWidth="1"/>
   </cols>
@@ -5382,160 +11329,237 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="3" spans="5:5">
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" t="s">
+        <v>314</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>316</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>325</v>
+      </c>
       <c r="C9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>328</v>
+      </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>331</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" t="s">
+        <v>333</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>326</v>
-      </c>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
       <c r="E13" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" t="s">
+        <v>338</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>340</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>342</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>331</v>
-      </c>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" t="s">
+        <v>346</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>348</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C20" t="s">
+        <v>351</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>336</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" t="s">
+        <v>354</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="2" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="2" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="5:6">
       <c r="E24" s="2" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" t="s">
+        <v>361</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="3:5">
+      <c r="C26" t="s">
+        <v>362</v>
+      </c>
       <c r="E26" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" t="s">
+        <v>364</v>
+      </c>
       <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>365</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -8208,7 +8208,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31100" windowHeight="16200"/>
+    <workbookView windowHeight="23360" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="商城系统" sheetId="2" r:id="rId3"/>
     <sheet name="支付系统" sheetId="4" r:id="rId4"/>
     <sheet name="finess" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374">
+  <si>
+    <t>公网地址：</t>
+  </si>
   <si>
     <t>色块说明</t>
   </si>
@@ -224,6 +228,12 @@
     <t>trans_status</t>
   </si>
   <si>
+    <t>接口列表：</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
     <t>用户昵称</t>
   </si>
   <si>
@@ -236,6 +246,9 @@
     <t>agent_id</t>
   </si>
   <si>
+    <t>用户注册</t>
+  </si>
+  <si>
     <t>用户头像</t>
   </si>
   <si>
@@ -254,15 +267,27 @@
     <t>varchar 256</t>
   </si>
   <si>
+    <t>绑定手机号</t>
+  </si>
+  <si>
     <t xml:space="preserve">当前积分 </t>
   </si>
   <si>
     <t>score</t>
   </si>
   <si>
+    <t>用户信息编辑</t>
+  </si>
+  <si>
+    <t>前置条件：绑定手机号</t>
+  </si>
+  <si>
     <t>用户手机号</t>
   </si>
   <si>
+    <t>USER_AGENT</t>
+  </si>
+  <si>
     <t>登录信息（login_info)</t>
   </si>
   <si>
@@ -1097,25 +1122,25 @@
     <t xml:space="preserve"> 体质指数 (bmi) varchar(8)</t>
   </si>
   <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>新增体征信息</t>
+  </si>
+  <si>
+    <t>查询历史体征信息</t>
+  </si>
+  <si>
+    <t>修改时间（mdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>查询训练数据</t>
+  </si>
+  <si>
+    <t>管理个人训练计划</t>
+  </si>
+  <si>
     <t>身高/体重的（二次幂）</t>
-  </si>
-  <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>新增体征信息</t>
-  </si>
-  <si>
-    <t>查询历史体征信息</t>
-  </si>
-  <si>
-    <t>修改时间（mdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>查询训练数据</t>
-  </si>
-  <si>
-    <t>管理个人训练计划</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1150,8 @@
   <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1167,17 +1192,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1196,13 +1220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1210,16 +1227,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,11 +1275,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1249,23 +1290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1280,38 +1314,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1368,19 +1393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,7 +1411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,19 +1423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,31 +1441,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,13 +1489,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,7 +1519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,25 +1531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,13 +1561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,8 +1667,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1672,21 +1697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1702,22 +1712,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1736,153 +1741,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7909,6 +7934,1561 @@
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
             <a:latin typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
             <a:ea typeface="黑体-简" panose="02000000000000000000" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>368935</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="同侧圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7480935" y="9969500"/>
+          <a:ext cx="4470400" cy="777875"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>阿里云 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>189230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正五边形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="10107930"/>
+          <a:ext cx="1117600" cy="535940"/>
+        </a:xfrm>
+        <a:prstGeom prst="pentagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FRPS</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>181610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="11489690"/>
+          <a:ext cx="4902200" cy="1579245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>imac</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="圆角矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7769225" y="11950065"/>
+          <a:ext cx="245110" cy="998855"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="圆角矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8455025" y="11958320"/>
+          <a:ext cx="245110" cy="998855"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>39370</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>203835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>284480</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="圆角矩形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9183370" y="11938635"/>
+          <a:ext cx="245110" cy="998855"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>351790</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="圆角矩形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9860280" y="11953875"/>
+          <a:ext cx="245110" cy="998855"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>368935</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>188595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="等腰三角形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7684135" y="8621395"/>
+          <a:ext cx="677545" cy="741680"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>208280</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="等腰三角形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9352280" y="8576945"/>
+          <a:ext cx="677545" cy="741680"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>547370</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="等腰三角形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10842625" y="8566785"/>
+          <a:ext cx="677545" cy="741680"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>242570</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正五边形 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10605770" y="11873865"/>
+          <a:ext cx="1117600" cy="535940"/>
+        </a:xfrm>
+        <a:prstGeom prst="pentagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FRPC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>572135</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>208915</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直接连接符 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="3"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9716135" y="9307830"/>
+          <a:ext cx="1465580" cy="661035"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>572135</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>191770</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接箭头连接符 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="69" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9716135" y="10747375"/>
+          <a:ext cx="1448435" cy="1125855"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123190</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537845</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="曲线连接符 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="7438390" y="8992235"/>
+          <a:ext cx="414655" cy="3286760"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57427"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>205105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正五边形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10885170" y="8952865"/>
+          <a:ext cx="655955" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="pentagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FRPC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -8205,14 +9785,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetData>
+    <row r="49" spans="21:21">
+      <c r="U49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8224,14 +9810,15 @@
   <sheetPr/>
   <dimension ref="A2:M75"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
-    <col min="2" max="4" width="15.1538461538462" customWidth="1"/>
+    <col min="2" max="3" width="15.1538461538462" customWidth="1"/>
+    <col min="4" max="4" width="24.8461538461538" customWidth="1"/>
     <col min="6" max="6" width="32.6923076923077" customWidth="1"/>
     <col min="7" max="7" width="13.0769230769231" customWidth="1"/>
     <col min="8" max="8" width="12.3076923076923" customWidth="1"/>
@@ -8243,163 +9830,163 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="F2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="30"/>
       <c r="F4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="6:8">
       <c r="F5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="6:8">
       <c r="F6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="35"/>
       <c r="F10" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="35"/>
       <c r="F11" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="4:4">
@@ -8407,265 +9994,286 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="35"/>
       <c r="F13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="L13" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7"/>
       <c r="B14" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="6:12">
       <c r="F16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="J16" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="6:12">
       <c r="F17" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="6:12">
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="6:12">
       <c r="F19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="6:12">
-      <c r="F20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="6:12">
-      <c r="F21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="6:12">
-      <c r="F22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="J22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="6:12">
-      <c r="F23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10">
-      <c r="F24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="6:10">
       <c r="F25" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J25" s="7"/>
     </row>
@@ -8674,111 +10282,111 @@
     </row>
     <row r="27" spans="6:12">
       <c r="F27" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="L27" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="6:12">
       <c r="F28" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="K28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="L28" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="6:12">
       <c r="F29" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="6:12">
       <c r="F30" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="L30" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="6:12">
       <c r="F31" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="6:12">
       <c r="F32" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -8786,326 +10394,326 @@
     </row>
     <row r="33" spans="6:12">
       <c r="F33" s="6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="6:12">
       <c r="F34" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="6:13">
       <c r="F35" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M35" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="6:12">
       <c r="F36" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="6:12">
       <c r="F37" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="6:12">
       <c r="F38" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="10:12">
       <c r="J39" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="6:12">
       <c r="F40" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="6:12">
       <c r="F41" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="6:12">
       <c r="F42" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="6:12">
       <c r="F43" s="6" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="6:8">
       <c r="F44" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="6:8">
       <c r="F45" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="6:8">
       <c r="F46" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="6:8">
       <c r="F47" s="6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="6:8">
       <c r="F48" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="6:8">
       <c r="F49" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="6:8">
       <c r="F50" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="6:8">
       <c r="F52" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="6:8">
       <c r="F53" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="6:8">
@@ -9140,57 +10748,57 @@
     </row>
     <row r="61" spans="6:8">
       <c r="F61" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="6:8">
       <c r="F62" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="6:8">
       <c r="F65" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="6:8">
       <c r="F66" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="6:8">
       <c r="F67" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="6:8">
@@ -9225,24 +10833,24 @@
     </row>
     <row r="74" spans="6:8">
       <c r="F74" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="6:8">
       <c r="F75" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -9260,8 +10868,8 @@
   <sheetPr/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -9307,1214 +10915,1214 @@
     </row>
     <row r="3" customFormat="1" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="7"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="7"/>
       <c r="I3" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="Q3" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
     <row r="4" customFormat="1" spans="1:19">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="N4" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="R4" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:19">
       <c r="A5" s="8" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:19">
       <c r="A6" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:19">
       <c r="A7" s="8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="Q7" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:19">
       <c r="A8" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="R8" s="6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:19">
       <c r="A9" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:19">
       <c r="A10" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:19">
       <c r="A11" s="8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="S11" s="23" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:19">
       <c r="A12" s="8" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:19">
       <c r="A13" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:19">
       <c r="A14" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="M14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="Q14" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="4:19">
       <c r="D15" s="7"/>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="M15" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:19">
       <c r="A16" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="18" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="M16" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:15">
       <c r="A17" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="19" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="M17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:15">
       <c r="A18" s="8" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="19" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="M18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="20" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" customFormat="1" spans="1:19">
       <c r="A20" s="8" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="20" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="Q20" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="1:19">
       <c r="A21" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="20" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="M21" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="Q21" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:19">
       <c r="A22" s="8" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="20" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="M22" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:19">
       <c r="A23" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
       <c r="I23" s="20" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="M23" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:19">
       <c r="A24" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="20" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="M24" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="4:19">
       <c r="D25" s="7"/>
       <c r="E25" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
       <c r="I25" s="20" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="M25" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="4:19">
       <c r="D26" s="7"/>
       <c r="E26" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="19" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="M26" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="4:19">
       <c r="D27" s="7"/>
       <c r="E27" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="19" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="M27" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:19">
       <c r="A28" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="19" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="M28" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:19">
       <c r="A29" s="12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="21" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="M29" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:19">
       <c r="A30" s="13" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="19" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="M30" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:19">
       <c r="A31" s="13" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="21" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="M31" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:19">
       <c r="A32" s="13" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="Q32" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:11">
       <c r="A33" s="13" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -10523,13 +12131,13 @@
     </row>
     <row r="34" customFormat="1" spans="1:19">
       <c r="A34" s="13" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -10540,24 +12148,24 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="Q34" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
     <row r="35" customFormat="1" spans="1:19">
       <c r="A35" s="14" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -10566,262 +12174,262 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="Q35" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:19">
       <c r="A36" s="13" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="Q36" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:19">
       <c r="A37" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="17" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="Q37" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:19">
       <c r="A38" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="17" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="Q38" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="4:19">
       <c r="D39" s="7"/>
       <c r="E39" s="17" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="Q39" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="4:19">
       <c r="D40" s="7"/>
       <c r="E40" s="17" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="Q40" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="4:19">
       <c r="D41" s="7"/>
       <c r="E41" s="17" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="Q41" s="4" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="4:19">
       <c r="D42" s="7"/>
       <c r="E42" s="17" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="Q42" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="4:19">
       <c r="D43" s="7"/>
       <c r="E43" s="17" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="Q43" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -10850,8 +12458,8 @@
   <sheetPr/>
   <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="116" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -10867,428 +12475,428 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="3:9">
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="6" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="6" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="6" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="5" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="5" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="5" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="6" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="5" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="6" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -11305,10 +12913,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -11323,242 +12931,244 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C18" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C20" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C21" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
       <c r="E24" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F24" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C25" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>365</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -11566,4 +13176,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23360" activeTab="4"/>
+    <workbookView windowHeight="23360" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="商城系统" sheetId="2" r:id="rId3"/>
     <sheet name="支付系统" sheetId="4" r:id="rId4"/>
     <sheet name="finess" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="订单系统" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1149,10 +1149,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1192,16 +1192,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1212,11 +1213,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1235,11 +1243,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1252,10 +1260,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1276,22 +1299,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,37 +1336,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,7 +1393,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,13 +1453,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,43 +1537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,97 +1561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,8 +1667,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1678,21 +1693,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1727,17 +1727,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1752,162 +1761,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10869,7 +10869,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -12459,7 +12459,7 @@
   <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -12915,8 +12915,8 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -13183,7 +13183,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412">
   <si>
     <t>公网地址：</t>
   </si>
@@ -960,7 +960,10 @@
     <t>退款渠道</t>
   </si>
   <si>
-    <t>退款机构</t>
+    <t>退款商户</t>
+  </si>
+  <si>
+    <t>merchent_id</t>
   </si>
   <si>
     <t>退款状态</t>
@@ -1141,6 +1144,117 @@
   </si>
   <si>
     <t>身高/体重的（二次幂）</t>
+  </si>
+  <si>
+    <t>订单操作日志 (order_operate_log)表</t>
+  </si>
+  <si>
+    <t>受理订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>订单包 (order_package)表</t>
+  </si>
+  <si>
+    <t>生成订单包</t>
+  </si>
+  <si>
+    <t>关闭订单</t>
+  </si>
+  <si>
+    <t>订单包号</t>
+  </si>
+  <si>
+    <t>order_package_id</t>
+  </si>
+  <si>
+    <t>操作者编号</t>
+  </si>
+  <si>
+    <t>operator_id</t>
+  </si>
+  <si>
+    <t>申请退货</t>
+  </si>
+  <si>
+    <t>订单退款（付款未发货）</t>
+  </si>
+  <si>
+    <t>操作者类型</t>
+  </si>
+  <si>
+    <t>operator_type</t>
+  </si>
+  <si>
+    <t>varchar（16）</t>
+  </si>
+  <si>
+    <t>订单退货（付款已发货）</t>
+  </si>
+  <si>
+    <t>执行动作</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>跟踪订单</t>
+  </si>
+  <si>
+    <t>跟踪发货信息</t>
+  </si>
+  <si>
+    <t>执行结果</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>跟踪退货信息</t>
+  </si>
+  <si>
+    <t>商品分类</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>订单类别</t>
+  </si>
+  <si>
+    <t>执行时间</t>
+  </si>
+  <si>
+    <t>分类查询订单</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>total_amount</t>
+  </si>
+  <si>
+    <t>应付总价</t>
+  </si>
+  <si>
+    <t>订单统计</t>
+  </si>
+  <si>
+    <t>支付时间</t>
+  </si>
+  <si>
+    <t>pay_time</t>
+  </si>
+  <si>
+    <t>记录订单的变化</t>
+  </si>
+  <si>
+    <t>order_detail  订单详情(mongo)</t>
+  </si>
+  <si>
+    <t>varchar（2056）</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1268,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1192,7 +1313,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1206,30 +1378,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1243,9 +1394,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,75 +1450,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,13 +1514,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,145 +1664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,12 +1687,42 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1606,21 +1757,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1667,6 +1803,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1690,24 +1844,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1727,15 +1868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1751,13 +1883,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1766,180 +1902,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1948,79 +2114,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9811,7 +9980,7 @@
   <dimension ref="A2:M75"/>
   <sheetViews>
     <sheetView zoomScale="109" zoomScaleNormal="109" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -9829,15 +9998,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -9845,13 +10014,13 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="38" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -9860,25 +10029,25 @@
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="41"/>
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9889,7 +10058,7 @@
       <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9900,15 +10069,15 @@
       <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="43" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -9917,15 +10086,15 @@
       <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="43" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -9934,15 +10103,15 @@
       <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="43" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -9951,69 +10120,69 @@
       <c r="G9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="46"/>
       <c r="F10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6"/>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="46"/>
       <c r="F11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="35"/>
+      <c r="D12" s="46"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="35"/>
-      <c r="F13" s="4" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="46"/>
+      <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -10021,11 +10190,11 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="45" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -10034,7 +10203,7 @@
       <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -10043,14 +10212,14 @@
       <c r="K14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="36" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="47" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -10059,7 +10228,7 @@
       <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -10079,7 +10248,7 @@
       <c r="G16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -10099,7 +10268,7 @@
       <c r="G17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -10119,7 +10288,7 @@
       <c r="G18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -10139,7 +10308,7 @@
       <c r="G19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>51</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -10165,7 +10334,7 @@
       <c r="G20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="6" t="s">
@@ -10174,7 +10343,7 @@
       <c r="K20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10220,7 +10389,7 @@
       <c r="K22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10237,7 +10406,7 @@
       <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="6" t="s">
@@ -10246,7 +10415,7 @@
       <c r="K23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10260,10 +10429,10 @@
       <c r="G24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="6:10">
       <c r="F25" s="6" t="s">
@@ -10272,28 +10441,28 @@
       <c r="G25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="7"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="6:12">
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="6" t="s">
@@ -10307,7 +10476,7 @@
       <c r="G28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="6" t="s">
@@ -10316,7 +10485,7 @@
       <c r="K28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10327,7 +10496,7 @@
       <c r="G29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J29" s="6" t="s">
@@ -10345,7 +10514,7 @@
       <c r="G30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J30" s="6" t="s">
@@ -10354,7 +10523,7 @@
       <c r="K30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10365,7 +10534,7 @@
       <c r="G31" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="7" t="s">
         <v>51</v>
       </c>
       <c r="J31" s="6" t="s">
@@ -10374,7 +10543,7 @@
       <c r="K31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10385,12 +10554,12 @@
       <c r="G32" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="6:12">
       <c r="F33" s="6" t="s">
@@ -10399,13 +10568,13 @@
       <c r="G33" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="6" t="s">
@@ -10419,7 +10588,7 @@
       <c r="G34" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J34" s="6" t="s">
@@ -10428,7 +10597,7 @@
       <c r="K34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10439,7 +10608,7 @@
       <c r="G35" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="7" t="s">
         <v>104</v>
       </c>
       <c r="J35" s="6" t="s">
@@ -10448,7 +10617,7 @@
       <c r="K35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M35" t="s">
@@ -10462,7 +10631,7 @@
       <c r="G36" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J36" s="6" t="s">
@@ -10482,7 +10651,7 @@
       <c r="G37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J37" s="6" t="s">
@@ -10502,7 +10671,7 @@
       <c r="G38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J38" s="6" t="s">
@@ -10527,10 +10696,10 @@
       </c>
     </row>
     <row r="40" spans="6:12">
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -10553,7 +10722,7 @@
       <c r="G41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J41" s="6" t="s">
@@ -10573,7 +10742,7 @@
       <c r="G42" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J42" s="6" t="s">
@@ -10582,7 +10751,7 @@
       <c r="K42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10593,7 +10762,7 @@
       <c r="G43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J43" s="6" t="s">
@@ -10602,7 +10771,7 @@
       <c r="K43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10613,7 +10782,7 @@
       <c r="G44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10624,7 +10793,7 @@
       <c r="G45" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10635,7 +10804,7 @@
       <c r="G46" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10646,7 +10815,7 @@
       <c r="G47" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10657,7 +10826,7 @@
       <c r="G48" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10668,7 +10837,7 @@
       <c r="G49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10679,15 +10848,15 @@
       <c r="G50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="6:8">
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H52" s="6" t="s">
@@ -10701,7 +10870,7 @@
       <c r="G53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10712,39 +10881,39 @@
       <c r="G54" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="5"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="5"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="5"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="6:8">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="5"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="6:8">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="5"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="6:8">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="5"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="6:8">
       <c r="F61" s="6" t="s">
@@ -10753,7 +10922,7 @@
       <c r="G61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10764,15 +10933,15 @@
       <c r="G62" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="65" spans="6:8">
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H65" s="6" t="s">
@@ -10786,7 +10955,7 @@
       <c r="G66" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10797,39 +10966,39 @@
       <c r="G67" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="6:8">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="5"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="6:8">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="5"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="6:8">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="5"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="6:8">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="5"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="6:8">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="5"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="6:8">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="5"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="6:8">
       <c r="F74" s="6" t="s">
@@ -10838,7 +11007,7 @@
       <c r="G74" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10849,7 +11018,7 @@
       <c r="G75" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10868,8 +11037,8 @@
   <sheetPr/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20:S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -10877,14 +11046,14 @@
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="35.6153846153846" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="11.6153846153846" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.7692307692308" style="7" customWidth="1"/>
-    <col min="7" max="7" width="28.9230769230769" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.8365384615385" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.1538461538462" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17" style="7" customWidth="1"/>
-    <col min="11" max="11" width="28.9230769230769" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="18"/>
+    <col min="5" max="5" width="11.6153846153846" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.7692307692308" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.9230769230769" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14.8365384615385" style="18" customWidth="1"/>
+    <col min="9" max="9" width="15.1538461538462" style="18" customWidth="1"/>
+    <col min="10" max="10" width="17" style="18" customWidth="1"/>
+    <col min="11" max="11" width="28.9230769230769" style="18" customWidth="1"/>
     <col min="13" max="13" width="15.1538461538462" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="28.9230769230769" customWidth="1"/>
@@ -10894,105 +11063,105 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="4:11">
-      <c r="D1" s="7"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" customFormat="1" spans="4:11">
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" customFormat="1" spans="1:19">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="M3" s="4" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="Q3" s="4" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" customFormat="1" spans="1:19">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:19">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -11001,8 +11170,8 @@
       <c r="C5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -11011,8 +11180,8 @@
       <c r="G5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="1" t="s">
         <v>130</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -11021,7 +11190,7 @@
       <c r="K5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>130</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -11030,18 +11199,18 @@
       <c r="O5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:19">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="19" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -11050,8 +11219,8 @@
       <c r="C6" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -11060,8 +11229,8 @@
       <c r="G6" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -11070,7 +11239,7 @@
       <c r="K6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="1" t="s">
         <v>140</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -11079,18 +11248,18 @@
       <c r="O6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="1" t="s">
         <v>143</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:19">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="19" t="s">
         <v>144</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -11099,16 +11268,16 @@
       <c r="C7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>148</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -11117,7 +11286,7 @@
       <c r="K7" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="1" t="s">
         <v>151</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -11126,18 +11295,18 @@
       <c r="O7" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:19">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -11146,8 +11315,8 @@
       <c r="C8" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -11156,8 +11325,8 @@
       <c r="G8" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -11166,7 +11335,7 @@
       <c r="K8" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="1" t="s">
         <v>155</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -11175,7 +11344,7 @@
       <c r="O8" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="1" t="s">
         <v>147</v>
       </c>
       <c r="R8" s="6" t="s">
@@ -11186,7 +11355,7 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:19">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -11195,8 +11364,8 @@
       <c r="C9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="1" t="s">
         <v>160</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -11205,8 +11374,8 @@
       <c r="G9" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -11215,16 +11384,16 @@
       <c r="K9" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="1" t="s">
         <v>167</v>
       </c>
       <c r="R9" s="6" t="s">
@@ -11235,7 +11404,7 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:19">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="19" t="s">
         <v>169</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -11244,8 +11413,8 @@
       <c r="C10" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="1" t="s">
         <v>171</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -11254,8 +11423,8 @@
       <c r="G10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -11264,16 +11433,16 @@
       <c r="K10" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="1" t="s">
         <v>176</v>
       </c>
       <c r="R10" s="6" t="s">
@@ -11284,7 +11453,7 @@
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:19">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="19" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -11293,8 +11462,8 @@
       <c r="C11" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="1" t="s">
         <v>181</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -11303,8 +11472,8 @@
       <c r="G11" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -11313,7 +11482,7 @@
       <c r="K11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="1" t="s">
         <v>149</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -11322,18 +11491,18 @@
       <c r="O11" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q11" s="22" t="s">
+      <c r="Q11" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="S11" s="34" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:19">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="19" t="s">
         <v>186</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11342,8 +11511,8 @@
       <c r="C12" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -11352,37 +11521,37 @@
       <c r="G12" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:19">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -11391,47 +11560,47 @@
       <c r="C13" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:19">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -11440,8 +11609,8 @@
       <c r="C14" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -11450,32 +11619,32 @@
       <c r="G14" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="M14" s="4" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="M14" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="4:19">
-      <c r="D15" s="7"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -11484,11 +11653,11 @@
       <c r="G15" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="M15" s="4" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="M15" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N15" s="6" t="s">
@@ -11497,30 +11666,30 @@
       <c r="O15" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:19">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="18" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="M16" s="4" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="M16" s="1" t="s">
         <v>137</v>
       </c>
       <c r="N16" s="6" t="s">
@@ -11529,45 +11698,45 @@
       <c r="O16" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="19" t="s">
+      <c r="D17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="M17" s="4" t="s">
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="M17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -11576,25 +11745,25 @@
       <c r="C18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="19" t="s">
+      <c r="D18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="M18" s="4" t="s">
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="M18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:11">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="19" t="s">
         <v>132</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -11603,16 +11772,16 @@
       <c r="C19" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="20" t="s">
+      <c r="D19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" customFormat="1" spans="1:19">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="19" t="s">
         <v>205</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -11621,21 +11790,21 @@
       <c r="C20" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="20" t="s">
+      <c r="D20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="Q20" s="4" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="Q20" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
     </row>
     <row r="21" customFormat="1" spans="1:19">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="19" t="s">
         <v>209</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -11644,30 +11813,30 @@
       <c r="C21" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="20" t="s">
+      <c r="D21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="M21" s="4" t="s">
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="M21" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="s">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="Q21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:19">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="19" t="s">
         <v>213</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -11676,23 +11845,23 @@
       <c r="C22" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="20" t="s">
+      <c r="D22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="M22" s="4" t="s">
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="M22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="1" t="s">
         <v>130</v>
       </c>
       <c r="R22" s="6" t="s">
@@ -11703,7 +11872,7 @@
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:19">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -11712,19 +11881,19 @@
       <c r="C23" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="20" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="M23" s="4" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="M23" s="1" t="s">
         <v>130</v>
       </c>
       <c r="N23" s="6" t="s">
@@ -11733,7 +11902,7 @@
       <c r="O23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="1" t="s">
         <v>140</v>
       </c>
       <c r="R23" s="6" t="s">
@@ -11744,7 +11913,7 @@
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:19">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -11753,23 +11922,23 @@
       <c r="C24" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="20" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="M24" s="4" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="M24" s="1" t="s">
         <v>140</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -11778,32 +11947,32 @@
       <c r="O24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="4:19">
-      <c r="D25" s="7"/>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="20" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="M25" s="4" t="s">
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="M25" s="1" t="s">
         <v>221</v>
       </c>
       <c r="N25" s="6" t="s">
@@ -11812,19 +11981,19 @@
       <c r="O25" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="R25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="S25" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="4:19">
-      <c r="D26" s="7"/>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -11833,13 +12002,13 @@
       <c r="G26" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="19" t="s">
+      <c r="H26" s="18"/>
+      <c r="I26" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="M26" s="4" t="s">
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="M26" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N26" s="6" t="s">
@@ -11848,7 +12017,7 @@
       <c r="O26" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="1" t="s">
         <v>226</v>
       </c>
       <c r="R26" s="6" t="s">
@@ -11859,8 +12028,8 @@
       </c>
     </row>
     <row r="27" customFormat="1" spans="4:19">
-      <c r="D27" s="7"/>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="1" t="s">
         <v>228</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -11869,13 +12038,13 @@
       <c r="G27" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="19" t="s">
+      <c r="H27" s="18"/>
+      <c r="I27" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="M27" s="4" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="M27" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N27" s="6" t="s">
@@ -11884,7 +12053,7 @@
       <c r="O27" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="1" t="s">
         <v>232</v>
       </c>
       <c r="R27" s="6" t="s">
@@ -11895,13 +12064,13 @@
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:19">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="4" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="1" t="s">
         <v>235</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -11910,13 +12079,13 @@
       <c r="G28" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="19" t="s">
+      <c r="H28" s="26"/>
+      <c r="I28" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="M28" s="4" t="s">
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="M28" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N28" s="6" t="s">
@@ -11925,7 +12094,7 @@
       <c r="O28" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="1" t="s">
         <v>241</v>
       </c>
       <c r="R28" s="6" t="s">
@@ -11936,17 +12105,17 @@
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:19">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -11955,13 +12124,13 @@
       <c r="G29" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="21" t="s">
+      <c r="H29" s="18"/>
+      <c r="I29" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="M29" s="4" t="s">
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="M29" s="1" t="s">
         <v>246</v>
       </c>
       <c r="N29" s="6" t="s">
@@ -11970,28 +12139,28 @@
       <c r="O29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R29" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:19">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="1" t="s">
         <v>250</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -12000,43 +12169,43 @@
       <c r="G30" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="19" t="s">
+      <c r="H30" s="18"/>
+      <c r="I30" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="M30" s="4" t="s">
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="M30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R30" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="S30" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:19">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="18"/>
+      <c r="E31" s="1" t="s">
         <v>256</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -12045,43 +12214,43 @@
       <c r="G31" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="21" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="M31" s="4" t="s">
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="M31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="S31" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:19">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -12090,32 +12259,32 @@
       <c r="G32" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="Q32" s="4" t="s">
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="Q32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="S32" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:11">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="18"/>
+      <c r="E33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -12124,90 +12293,90 @@
       <c r="G33" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
     </row>
     <row r="34" customFormat="1" spans="1:19">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="Q34" s="4" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="Q34" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
     </row>
     <row r="35" customFormat="1" spans="1:19">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="18"/>
+      <c r="E35" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="Q35" s="4" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="Q35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R35" s="4" t="s">
+      <c r="R35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S35" s="4" t="s">
+      <c r="S35" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:19">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="18"/>
+      <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="Q36" s="4" t="s">
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="Q36" s="1" t="s">
         <v>130</v>
       </c>
       <c r="R36" s="6" t="s">
@@ -12218,30 +12387,30 @@
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:19">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="17" t="s">
+      <c r="D37" s="18"/>
+      <c r="E37" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="Q37" s="4" t="s">
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="Q37" s="1" t="s">
         <v>140</v>
       </c>
       <c r="R37" s="6" t="s">
@@ -12252,55 +12421,55 @@
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:19">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="18"/>
+      <c r="E38" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="Q38" s="4" t="s">
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="Q38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="R38" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="S38" s="5" t="s">
+      <c r="S38" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="4:19">
-      <c r="D39" s="7"/>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="18"/>
+      <c r="E39" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="Q39" s="4" t="s">
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="Q39" s="1" t="s">
         <v>274</v>
       </c>
       <c r="R39" s="6" t="s">
@@ -12311,21 +12480,21 @@
       </c>
     </row>
     <row r="40" customFormat="1" spans="4:19">
-      <c r="D40" s="7"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="18"/>
+      <c r="E40" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="Q40" s="4" t="s">
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="Q40" s="1" t="s">
         <v>241</v>
       </c>
       <c r="R40" s="6" t="s">
@@ -12336,21 +12505,21 @@
       </c>
     </row>
     <row r="41" customFormat="1" spans="4:19">
-      <c r="D41" s="7"/>
-      <c r="E41" s="17" t="s">
+      <c r="D41" s="18"/>
+      <c r="E41" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="Q41" s="4" t="s">
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="Q41" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R41" s="6" t="s">
@@ -12361,74 +12530,74 @@
       </c>
     </row>
     <row r="42" customFormat="1" spans="4:19">
-      <c r="D42" s="7"/>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="18"/>
+      <c r="E42" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="Q42" s="4" t="s">
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="Q42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="R42" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="S42" s="5" t="s">
+      <c r="S42" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="4:19">
-      <c r="D43" s="7"/>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="18"/>
+      <c r="E43" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="Q43" s="4" t="s">
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="Q43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R43" s="5" t="s">
+      <c r="R43" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="S43" s="5" t="s">
+      <c r="S43" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="44" spans="5:7">
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="28" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="45" spans="5:7">
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="28" t="s">
         <v>189</v>
       </c>
     </row>
@@ -12459,7 +12628,7 @@
   <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -12477,34 +12646,34 @@
       <c r="A2" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12512,27 +12681,27 @@
       <c r="A4" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>239</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -12552,7 +12721,7 @@
       </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>292</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -12561,7 +12730,7 @@
       <c r="E6" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>239</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -12572,7 +12741,7 @@
       </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>293</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -12592,7 +12761,7 @@
       </c>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>297</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -12601,7 +12770,7 @@
       <c r="E8" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>293</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -12621,7 +12790,7 @@
       <c r="E9" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>297</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -12632,13 +12801,13 @@
       </c>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -12655,36 +12824,36 @@
       <c r="C11" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>149</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>247</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -12704,10 +12873,10 @@
       <c r="G13" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12772,36 +12941,36 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>309</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -12812,7 +12981,7 @@
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>311</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -12823,7 +12992,7 @@
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>312</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -12834,13 +13003,13 @@
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>149</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12848,19 +13017,19 @@
       <c r="C26" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>315</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>298</v>
@@ -12931,244 +13100,244 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>323</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="E4" s="16" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="2" t="s">
-        <v>326</v>
+      <c r="E5" s="16" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="2" t="s">
-        <v>327</v>
+      <c r="E6" s="16" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="2" t="s">
-        <v>328</v>
+      <c r="E7" s="16" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E8" s="2" t="s">
         <v>332</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" s="2" t="s">
         <v>335</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E10" s="2" t="s">
         <v>338</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>339</v>
-      </c>
-      <c r="E11" s="2" t="s">
         <v>340</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" s="2" t="s">
         <v>342</v>
       </c>
+      <c r="E12" s="16" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="2" t="s">
-        <v>343</v>
+      <c r="E13" s="16" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C14" t="s">
-        <v>346</v>
-      </c>
-      <c r="E14" s="2" t="s">
         <v>347</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E15" s="2" t="s">
         <v>349</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>350</v>
-      </c>
-      <c r="E16" s="2" t="s">
         <v>351</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
-      </c>
-      <c r="E18" s="2" t="s">
         <v>355</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C19" t="s">
-        <v>356</v>
-      </c>
-      <c r="E19" s="2" t="s">
         <v>357</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C20" t="s">
-        <v>359</v>
-      </c>
-      <c r="E20" s="2" t="s">
         <v>360</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E21" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="E21" s="16" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="2" t="s">
-        <v>364</v>
+      <c r="E22" s="16" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="2" t="s">
-        <v>365</v>
+      <c r="E23" s="16" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="2" t="s">
-        <v>366</v>
+      <c r="E24" s="16" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C25" t="s">
-        <v>368</v>
-      </c>
-      <c r="E25" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E26" s="3" t="s">
         <v>370</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" t="s">
-        <v>371</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -13181,14 +13350,785 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.6153846153846" customWidth="1"/>
+    <col min="2" max="2" width="27.3076923076923" customWidth="1"/>
+    <col min="4" max="4" width="14.1538461538462" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="7" width="28.9230769230769" customWidth="1"/>
+    <col min="8" max="8" width="15.1538461538462" customWidth="1"/>
+    <col min="9" max="9" width="18.1538461538462" customWidth="1"/>
+    <col min="10" max="10" width="28.9230769230769" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="14.1538461538462" customWidth="1"/>
+    <col min="13" max="13" width="18.1538461538462" customWidth="1"/>
+    <col min="14" max="14" width="15.3076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="12:14">
+      <c r="L3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" t="s">
+        <v>383</v>
+      </c>
+      <c r="M6" t="s">
+        <v>384</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M7" t="s">
+        <v>388</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="M8" t="s">
+        <v>392</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14">
+      <c r="D12" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="D14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10">
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10">
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="4:10">
+      <c r="D27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="4:10">
+      <c r="D28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" ht="17" spans="4:10">
+      <c r="D29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="4:10">
+      <c r="D30" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="4:6">
+      <c r="D31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="4:10">
+      <c r="D32" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" ht="17" spans="4:10">
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="4:10">
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" ht="17" spans="8:10">
+      <c r="H35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10">
+      <c r="H36" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10">
+      <c r="H37" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10">
+      <c r="H38" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" ht="17" spans="8:10">
+      <c r="H39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" ht="17" spans="8:10">
+      <c r="H40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H32:J32"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413">
   <si>
     <t>公网地址：</t>
   </si>
@@ -1155,7 +1155,7 @@
     <t>生成订单</t>
   </si>
   <si>
-    <t>订单包 (order_package)表</t>
+    <t xml:space="preserve">订单包 (order_package)表 </t>
   </si>
   <si>
     <t>生成订单包</t>
@@ -1182,10 +1182,13 @@
     <t>订单退款（付款未发货）</t>
   </si>
   <si>
+    <t>购物车号</t>
+  </si>
+  <si>
     <t>操作者类型</t>
   </si>
   <si>
-    <t>operator_type</t>
+    <t>operator_role</t>
   </si>
   <si>
     <t>varchar（16）</t>
@@ -1206,6 +1209,12 @@
     <t>跟踪发货信息</t>
   </si>
   <si>
+    <t>商品分类</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>执行结果</t>
   </si>
   <si>
@@ -1215,13 +1224,7 @@
     <t>跟踪退货信息</t>
   </si>
   <si>
-    <t>商品分类</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>订单类别</t>
+    <t>num</t>
   </si>
   <si>
     <t>执行时间</t>
@@ -1230,15 +1233,12 @@
     <t>分类查询订单</t>
   </si>
   <si>
-    <t>num</t>
+    <t>应付总价</t>
   </si>
   <si>
     <t>total_amount</t>
   </si>
   <si>
-    <t>应付总价</t>
-  </si>
-  <si>
     <t>订单统计</t>
   </si>
   <si>
@@ -1249,6 +1249,9 @@
   </si>
   <si>
     <t>记录订单的变化</t>
+  </si>
+  <si>
+    <t>mongo db</t>
   </si>
   <si>
     <t>order_detail  订单详情(mongo)</t>
@@ -1472,6 +1475,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1491,12 +1500,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1923,7 +1926,7 @@
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2047,7 +2050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2058,6 +2061,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2087,11 +2096,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2126,9 +2144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2156,9 +2171,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2174,16 +2186,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -9998,185 +10010,185 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="44"/>
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="6:8">
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="6:8">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="49"/>
+      <c r="F10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="49"/>
+      <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="46"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="49"/>
       <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -10185,139 +10197,139 @@
       <c r="K13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="18"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="6:12">
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="6:12">
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="6:12">
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="6:12">
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10328,22 +10340,22 @@
       <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10351,22 +10363,22 @@
       <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -10374,22 +10386,22 @@
       <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10400,22 +10412,22 @@
       <c r="D23" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10423,31 +10435,31 @@
       <c r="B24" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="18"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="6:10">
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="18"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="18"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="6:12">
       <c r="F27" s="1" t="s">
@@ -10456,119 +10468,119 @@
       <c r="G27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="40" t="s">
+      <c r="J27" s="5" t="s">
         <v>90</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="6:12">
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="6:12">
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="6:12">
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="6:12">
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="6:12">
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="8" t="s">
         <v>96</v>
       </c>
       <c r="G32" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" spans="6:12">
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -10577,47 +10589,47 @@
       <c r="K33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="6:12">
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="6:13">
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M35" t="s">
@@ -10625,73 +10637,73 @@
       </c>
     </row>
     <row r="36" spans="6:12">
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="6:12">
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="6:12">
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="10:12">
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10702,153 +10714,153 @@
       <c r="G40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="6:12">
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="6:12">
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="6:12">
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="6:8">
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="6:8">
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="6:8">
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="6:8">
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="6:8">
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="6:8">
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="50" spans="6:8">
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10859,81 +10871,81 @@
       <c r="G52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="6:8">
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="6:8">
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="6:8">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="6:8">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="7"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="6:8">
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="7"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="6:8">
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="7"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="6:8">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="7"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="6:8">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="7"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="6:8">
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="62" spans="6:8">
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10944,81 +10956,81 @@
       <c r="G65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="6:8">
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="6:8">
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="6:8">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="7"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" spans="6:8">
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="7"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="6:8">
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="7"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="6:8">
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="7"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="6:8">
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="7"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" spans="6:8">
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="7"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="6:8">
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="75" spans="6:8">
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11046,14 +11058,14 @@
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="35.6153846153846" customWidth="1"/>
-    <col min="4" max="4" width="9" style="18"/>
-    <col min="5" max="5" width="11.6153846153846" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.7692307692308" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.9230769230769" style="18" customWidth="1"/>
-    <col min="8" max="8" width="14.8365384615385" style="18" customWidth="1"/>
-    <col min="9" max="9" width="15.1538461538462" style="18" customWidth="1"/>
-    <col min="10" max="10" width="17" style="18" customWidth="1"/>
-    <col min="11" max="11" width="28.9230769230769" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9" style="23"/>
+    <col min="5" max="5" width="11.6153846153846" style="23" customWidth="1"/>
+    <col min="6" max="6" width="13.7692307692308" style="23" customWidth="1"/>
+    <col min="7" max="7" width="28.9230769230769" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.8365384615385" style="23" customWidth="1"/>
+    <col min="9" max="9" width="15.1538461538462" style="23" customWidth="1"/>
+    <col min="10" max="10" width="17" style="23" customWidth="1"/>
+    <col min="11" max="11" width="28.9230769230769" style="23" customWidth="1"/>
     <col min="13" max="13" width="15.1538461538462" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="28.9230769230769" customWidth="1"/>
@@ -11063,24 +11075,24 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="4:11">
-      <c r="D1" s="18"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" customFormat="1" spans="4:11">
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" customFormat="1" spans="1:19">
       <c r="A3" s="1" t="s">
@@ -11088,13 +11100,13 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="18"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="18"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="1" t="s">
         <v>126</v>
       </c>
@@ -11112,16 +11124,16 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" customFormat="1" spans="1:19">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11131,7 +11143,7 @@
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11161,642 +11173,642 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:19">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="8" t="s">
         <v>131</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="8" t="s">
         <v>131</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:19">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="8" t="s">
         <v>139</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="8" t="s">
         <v>142</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:19">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="8" t="s">
         <v>142</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:19">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="8" t="s">
         <v>142</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="8" t="s">
         <v>142</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:19">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="8" t="s">
         <v>142</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="9" t="s">
         <v>142</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:19">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="8" t="s">
         <v>142</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="9" t="s">
         <v>142</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:19">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="8" t="s">
         <v>142</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="R11" s="34" t="s">
+      <c r="R11" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="S11" s="34" t="s">
+      <c r="S11" s="38" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:19">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="9" t="s">
         <v>189</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="9" t="s">
         <v>189</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:19">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="9" t="s">
         <v>189</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="9" t="s">
         <v>189</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:19">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
       <c r="M14" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="9" t="s">
         <v>189</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="4:19">
-      <c r="D15" s="18"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
       <c r="M15" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="8" t="s">
         <v>142</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:19">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="29" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
       <c r="M16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="8" t="s">
         <v>139</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:15">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="30" t="s">
+      <c r="D17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
       <c r="M17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:15">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="30" t="s">
+      <c r="D18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
       <c r="M18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:11">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="31" t="s">
+      <c r="D19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" customFormat="1" spans="1:19">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="31" t="s">
+      <c r="D20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
       <c r="Q20" s="1" t="s">
         <v>208</v>
       </c>
@@ -11804,22 +11816,22 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" customFormat="1" spans="1:19">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="31" t="s">
+      <c r="D21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
       <c r="M21" s="1" t="s">
         <v>212</v>
       </c>
@@ -11836,22 +11848,22 @@
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:19">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="31" t="s">
+      <c r="D22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
       <c r="M22" s="1" t="s">
         <v>3</v>
       </c>
@@ -11864,65 +11876,65 @@
       <c r="Q22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:19">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="31" t="s">
+      <c r="H23" s="23"/>
+      <c r="I23" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
       <c r="M23" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="8" t="s">
         <v>131</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="S23" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:19">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="1" t="s">
         <v>3</v>
       </c>
@@ -11932,53 +11944,53 @@
       <c r="G24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="31" t="s">
+      <c r="H24" s="23"/>
+      <c r="I24" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
       <c r="M24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="8" t="s">
         <v>142</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="4:19">
-      <c r="D25" s="18"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="31" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
       <c r="M25" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="8" t="s">
         <v>142</v>
       </c>
       <c r="Q25" s="1" t="s">
@@ -11992,74 +12004,74 @@
       </c>
     </row>
     <row r="26" customFormat="1" spans="4:19">
-      <c r="D26" s="18"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="30" t="s">
+      <c r="H26" s="23"/>
+      <c r="I26" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
       <c r="M26" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="8" t="s">
         <v>142</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="R26" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="S26" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="4:19">
-      <c r="D27" s="18"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="30" t="s">
+      <c r="H27" s="23"/>
+      <c r="I27" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
       <c r="M27" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="8" t="s">
         <v>142</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="S27" s="8" t="s">
         <v>142</v>
       </c>
     </row>
@@ -12069,253 +12081,253 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="30" t="s">
+      <c r="H28" s="15"/>
+      <c r="I28" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
       <c r="M28" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O28" s="8" t="s">
         <v>142</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="R28" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="S28" s="6" t="s">
+      <c r="S28" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:19">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="32" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
       <c r="M29" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="8" t="s">
         <v>142</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="S29" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:19">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="30" t="s">
+      <c r="H30" s="23"/>
+      <c r="I30" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
       <c r="M30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="9" t="s">
         <v>189</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="R30" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="S30" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:19">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="32" t="s">
+      <c r="H31" s="23"/>
+      <c r="I31" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
       <c r="M31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="9" t="s">
         <v>189</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="R31" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="S31" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:19">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
       <c r="Q32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="R32" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S32" s="7" t="s">
+      <c r="S32" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:11">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
     </row>
     <row r="34" customFormat="1" spans="1:19">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
       <c r="Q34" s="1" t="s">
         <v>266</v>
       </c>
@@ -12323,25 +12335,25 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" customFormat="1" spans="1:19">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="1" t="s">
         <v>270</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
       <c r="Q35" s="1" t="s">
         <v>3</v>
       </c>
@@ -12353,16 +12365,16 @@
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:19">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
@@ -12372,232 +12384,232 @@
       <c r="G36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
       <c r="Q36" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="R36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="S36" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:19">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="28" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
       <c r="Q37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R37" s="6" t="s">
+      <c r="R37" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="S37" s="6" t="s">
+      <c r="S37" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:19">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="28" t="s">
+      <c r="D38" s="23"/>
+      <c r="E38" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
       <c r="Q38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="S38" s="7" t="s">
+      <c r="S38" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="4:19">
-      <c r="D39" s="18"/>
-      <c r="E39" s="28" t="s">
+      <c r="D39" s="23"/>
+      <c r="E39" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
       <c r="Q39" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="R39" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="S39" s="6" t="s">
+      <c r="S39" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="4:19">
-      <c r="D40" s="18"/>
-      <c r="E40" s="28" t="s">
+      <c r="D40" s="23"/>
+      <c r="E40" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
       <c r="Q40" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="R40" s="6" t="s">
+      <c r="R40" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="S40" s="6" t="s">
+      <c r="S40" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="4:19">
-      <c r="D41" s="18"/>
-      <c r="E41" s="28" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
       <c r="Q41" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="R41" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="S41" s="6" t="s">
+      <c r="S41" s="8" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="4:19">
-      <c r="D42" s="18"/>
-      <c r="E42" s="28" t="s">
+      <c r="D42" s="23"/>
+      <c r="E42" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
       <c r="Q42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R42" s="7" t="s">
+      <c r="R42" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="S42" s="7" t="s">
+      <c r="S42" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="4:19">
-      <c r="D43" s="18"/>
-      <c r="E43" s="28" t="s">
+      <c r="D43" s="23"/>
+      <c r="E43" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
       <c r="Q43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R43" s="7" t="s">
+      <c r="R43" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S43" s="7" t="s">
+      <c r="S43" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="44" spans="5:7">
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="32" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="45" spans="5:7">
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -12681,262 +12693,262 @@
       <c r="A4" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="8" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="8" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="8" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="8" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -12959,112 +12971,112 @@
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="8" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="8" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -13124,7 +13136,7 @@
       <c r="C3" t="s">
         <v>323</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="20" t="s">
         <v>324</v>
       </c>
     </row>
@@ -13132,22 +13144,22 @@
       <c r="B4" t="s">
         <v>325</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="21" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="21" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="21" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="21" t="s">
         <v>329</v>
       </c>
     </row>
@@ -13161,7 +13173,7 @@
       <c r="C8" t="s">
         <v>332</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="21" t="s">
         <v>333</v>
       </c>
     </row>
@@ -13172,7 +13184,7 @@
       <c r="C9" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="21" t="s">
         <v>336</v>
       </c>
     </row>
@@ -13183,7 +13195,7 @@
       <c r="C10" t="s">
         <v>338</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="21" t="s">
         <v>339</v>
       </c>
     </row>
@@ -13191,7 +13203,7 @@
       <c r="C11" t="s">
         <v>340</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="21" t="s">
         <v>341</v>
       </c>
     </row>
@@ -13199,12 +13211,12 @@
       <c r="C12" t="s">
         <v>342</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="21" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="21" t="s">
         <v>344</v>
       </c>
     </row>
@@ -13218,7 +13230,7 @@
       <c r="C14" t="s">
         <v>347</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="21" t="s">
         <v>348</v>
       </c>
     </row>
@@ -13226,7 +13238,7 @@
       <c r="B15" t="s">
         <v>349</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="21" t="s">
         <v>350</v>
       </c>
     </row>
@@ -13234,7 +13246,7 @@
       <c r="B16" t="s">
         <v>351</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="21" t="s">
         <v>352</v>
       </c>
     </row>
@@ -13253,7 +13265,7 @@
       <c r="C18" t="s">
         <v>355</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="21" t="s">
         <v>356</v>
       </c>
     </row>
@@ -13264,7 +13276,7 @@
       <c r="C19" t="s">
         <v>357</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="21" t="s">
         <v>358</v>
       </c>
     </row>
@@ -13275,7 +13287,7 @@
       <c r="C20" t="s">
         <v>360</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="21" t="s">
         <v>361</v>
       </c>
     </row>
@@ -13286,22 +13298,22 @@
       <c r="C21" t="s">
         <v>363</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="21" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="21" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="21" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="21" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13312,7 +13324,7 @@
       <c r="C25" t="s">
         <v>369</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="21" t="s">
         <v>251</v>
       </c>
     </row>
@@ -13320,7 +13332,7 @@
       <c r="C26" t="s">
         <v>370</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="22" t="s">
         <v>371</v>
       </c>
     </row>
@@ -13328,7 +13340,7 @@
       <c r="C27" t="s">
         <v>372</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
@@ -13350,10 +13362,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:N40"/>
+  <dimension ref="A3:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -13391,18 +13403,18 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="L4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13422,19 +13434,19 @@
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13445,28 +13457,28 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13480,390 +13492,354 @@
       <c r="D7" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="H7" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>139</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="M7" t="s">
         <v>388</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="M7" s="12" t="s">
         <v>389</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="M8" t="s">
-        <v>392</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="I9" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>389</v>
+        <v>398</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="E10" t="s">
-        <v>399</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="J10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>139</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M10" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>402</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="E11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="H11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="4:14">
       <c r="D12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>406</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="H13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>39</v>
+      <c r="H14" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>409</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>139</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="D16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I16" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J16" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="4:6">
-      <c r="D16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10">
+        <v>190</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
       <c r="D18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="1" t="s">
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="4:10">
-      <c r="D19" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10">
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10">
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="8:10">
       <c r="H22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>139</v>
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="8:10">
-      <c r="H23" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>139</v>
+      <c r="H23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="H24" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13878,245 +13854,278 @@
         <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J25" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J26" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" ht="17" spans="4:10">
+    <row r="27" spans="4:10">
       <c r="D27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="10" t="s">
         <v>139</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" ht="17" spans="4:10">
+        <v>226</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10">
       <c r="D28" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="10" t="s">
         <v>139</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" ht="17" spans="4:10">
+        <v>232</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10">
       <c r="D29" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="10" t="s">
         <v>139</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>39</v>
+        <v>241</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30" ht="17" spans="4:10">
       <c r="D30" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="6" t="s">
         <v>139</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="J30" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" ht="17" spans="4:6">
-      <c r="D31" s="5" t="s">
+    <row r="31" ht="17" spans="4:10">
+      <c r="D31" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="H31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" ht="17" spans="4:10">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="11" t="s">
         <v>139</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="33" ht="17" spans="4:10">
       <c r="D33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" ht="17" spans="4:10">
+      <c r="H33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
       <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="1" t="s">
+    </row>
+    <row r="35" spans="8:10">
+      <c r="H35" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" ht="17" spans="8:10">
+      <c r="H36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" ht="17" spans="8:10">
+      <c r="H37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I37" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J37" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" ht="17" spans="8:10">
-      <c r="H35" s="1" t="s">
+    <row r="38" ht="17" spans="8:10">
+      <c r="H38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I38" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J38" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="8:10">
-      <c r="H36" s="1" t="s">
+    <row r="39" spans="8:10">
+      <c r="H39" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I39" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J39" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="8:10">
-      <c r="H37" s="1" t="s">
+    <row r="40" spans="8:10">
+      <c r="H40" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I40" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J40" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="8:10">
-      <c r="H38" s="1" t="s">
+    <row r="41" spans="8:10">
+      <c r="H41" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I41" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" ht="17" spans="8:10">
-      <c r="H39" s="1" t="s">
+      <c r="J41" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" ht="17" spans="8:10">
+      <c r="H42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I42" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J42" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" ht="17" spans="8:10">
-      <c r="H40" s="1" t="s">
+    <row r="43" ht="17" spans="8:10">
+      <c r="H43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I43" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J43" s="13" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14125,9 +14134,9 @@
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H35:J35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23360" activeTab="5"/>
+    <workbookView windowWidth="29920" windowHeight="21840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
   <si>
     <t>公网地址：</t>
   </si>
@@ -402,859 +402,826 @@
     <t>shopping_cart 购物车表(mongo)</t>
   </si>
   <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>bigint(32) auto increasement</t>
+  </si>
+  <si>
+    <t>商户号</t>
+  </si>
+  <si>
+    <t>merchant_no</t>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+  </si>
+  <si>
+    <t>商品编号</t>
+  </si>
+  <si>
+    <t>goods_id</t>
+  </si>
+  <si>
+    <t>购物车编号</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>varchar（32）</t>
+  </si>
+  <si>
+    <t>注册时间</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>varchar(16) yyyy-MM-dd HH:mm:ss</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>bigint(16)</t>
+  </si>
+  <si>
+    <t>商户名称</t>
+  </si>
+  <si>
+    <t>商品类型</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>商户类型</t>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+  </si>
+  <si>
+    <t>商品价格</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>商户编号</t>
+  </si>
+  <si>
+    <t>merchant_id</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>contacter</t>
+  </si>
+  <si>
+    <t>商品数量</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>商品状态</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>商户状态</t>
+  </si>
+  <si>
+    <t>所属商户</t>
+  </si>
+  <si>
+    <t>cdt</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>虚拟产品</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>mdt</t>
+  </si>
+  <si>
+    <t>Merchant_Detail 商户详情信息（mongo）</t>
+  </si>
+  <si>
+    <t>收货地址信息(address)</t>
+  </si>
+  <si>
+    <t>id （id）bigint 64 primary key</t>
+  </si>
+  <si>
+    <t>Goods_Detail 商品详情(mongo)</t>
+  </si>
+  <si>
+    <t>用户id （user_account）bigint 64</t>
+  </si>
+  <si>
+    <t>地址编号 (addr_id) bigint 64</t>
+  </si>
+  <si>
+    <t>商户描述</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>省行政编号 (province_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>商户logo</t>
+  </si>
+  <si>
+    <t>logo_url</t>
+  </si>
+  <si>
+    <t>省名 (province_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>商户广告</t>
+  </si>
+  <si>
+    <t>advertisements</t>
+  </si>
+  <si>
+    <t>advertisement 集合</t>
+  </si>
+  <si>
+    <t>商品简介</t>
+  </si>
+  <si>
+    <t>市行政编号(city_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>主要成分</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>市名 (city_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>适用场景</t>
+  </si>
+  <si>
+    <t>scenes</t>
+  </si>
+  <si>
+    <t>区行政编号(distrc_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>商品详情</t>
+  </si>
+  <si>
+    <t>区名 (distrc_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>多媒体</t>
+  </si>
+  <si>
+    <t>medias</t>
+  </si>
+  <si>
+    <t>media[]</t>
+  </si>
+  <si>
+    <t>是否默认 (default)varchar 8</t>
+  </si>
+  <si>
+    <t>收货地址 (addr_detail) varchar 512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 数据字典表（mongo）</t>
+  </si>
+  <si>
+    <t>收货手机号码 (connector_mobile)varchar 64</t>
+  </si>
+  <si>
+    <t>收货人姓名 (connector_name)varchar 32</t>
+  </si>
+  <si>
+    <t>创建时间（cdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>数据组</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Media 多媒体信息(mongo)</t>
+  </si>
+  <si>
+    <t>修改时间（cdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>键名</t>
+  </si>
+  <si>
+    <t>key_name</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>多媒体编号</t>
+  </si>
+  <si>
+    <t>media_id</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>多媒体名</t>
+  </si>
+  <si>
+    <t>作用域</t>
+  </si>
+  <si>
+    <t>scpoe</t>
+  </si>
+  <si>
+    <t>stirng</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>存储路径</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>现金支付</t>
+  </si>
+  <si>
+    <t>pay_order 支付订单表</t>
+  </si>
+  <si>
+    <t>fund_transfer 资金流水表</t>
+  </si>
+  <si>
+    <t>现金退款</t>
+  </si>
+  <si>
+    <t>支付订单编号</t>
+  </si>
+  <si>
+    <t>pay_order_id</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>内部流水号</t>
+  </si>
+  <si>
+    <t>inner_trans_no</t>
+  </si>
+  <si>
+    <t>商品订单编号</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>支付金额</t>
+  </si>
+  <si>
+    <t>varchat(32)</t>
+  </si>
+  <si>
+    <t>外部流水号</t>
+  </si>
+  <si>
+    <t>out_trans_no</t>
+  </si>
+  <si>
+    <t>支付渠道</t>
+  </si>
+  <si>
+    <t>varchat(16)</t>
+  </si>
+  <si>
+    <t>支付订单类型</t>
+  </si>
+  <si>
+    <t>pay_type</t>
+  </si>
+  <si>
+    <t>交易类型</t>
+  </si>
+  <si>
+    <t>收款机构</t>
+  </si>
+  <si>
+    <t>支付状态</t>
+  </si>
+  <si>
+    <t>pay_status</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>varchat(1024)</t>
+  </si>
+  <si>
+    <t>gmt_create</t>
+  </si>
+  <si>
+    <t>gmt_modify</t>
+  </si>
+  <si>
+    <t>refund 退款表（从哪个渠道申请退款就退到那里）</t>
+  </si>
+  <si>
+    <t>退单订单号</t>
+  </si>
+  <si>
+    <t>refund_order_id</t>
+  </si>
+  <si>
+    <t>退款金额</t>
+  </si>
+  <si>
+    <t>退款渠道</t>
+  </si>
+  <si>
+    <t>退款商户</t>
+  </si>
+  <si>
+    <t>merchent_id</t>
+  </si>
+  <si>
+    <t>退款状态</t>
+  </si>
+  <si>
+    <t>refund_status</t>
+  </si>
+  <si>
+    <t>管理端</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>课程管理</t>
+  </si>
+  <si>
+    <t>新增/编辑课程</t>
+  </si>
+  <si>
+    <t>查看课程</t>
+  </si>
+  <si>
+    <t>发布课程</t>
+  </si>
+  <si>
+    <t>购买课程</t>
+  </si>
+  <si>
+    <t>体征信息（customer_body_info）</t>
+  </si>
+  <si>
+    <t>修改课程发布计划</t>
+  </si>
+  <si>
+    <t>id (id)</t>
+  </si>
+  <si>
+    <t>用户id （customer_id）bigint 64</t>
+  </si>
+  <si>
+    <t>记录编号 (record_id) varchar(64)</t>
+  </si>
+  <si>
+    <t>登记日期 register_date (datetime)</t>
+  </si>
+  <si>
+    <t>课程预约</t>
+  </si>
+  <si>
+    <t>受理预约</t>
+  </si>
+  <si>
+    <t>预约课程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身高 cm  (height) varchar(8) </t>
+  </si>
+  <si>
+    <t>后台预约</t>
+  </si>
+  <si>
+    <t>取消预约</t>
+  </si>
+  <si>
+    <t>体重 kg (weight) varchar(8)</t>
+  </si>
+  <si>
+    <t>后台取消</t>
+  </si>
+  <si>
+    <t>课程评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胸围 cm (chest) varchar(8) </t>
+  </si>
+  <si>
+    <t>分享课程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰围 cm (waistline) varchar(8) </t>
+  </si>
+  <si>
+    <t>查看预约记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臀围 cm (hipline) varchar(8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰臀比 (waist_hip_ratio)  varchar(8) </t>
+  </si>
+  <si>
+    <t>视频管理</t>
+  </si>
+  <si>
+    <t>上传视频</t>
+  </si>
+  <si>
+    <t>查看视频</t>
+  </si>
+  <si>
+    <t>左大臂围  cm (left_arm_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>编辑视频说明</t>
+  </si>
+  <si>
+    <t>右大臂围  cm (right_arm_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>删除视频</t>
+  </si>
+  <si>
+    <t>左大腿围  cm (left_thigh_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>右大腿围   cm (right_thigh_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>打卡挑战</t>
+  </si>
+  <si>
+    <t>发起挑战</t>
+  </si>
+  <si>
+    <t xml:space="preserve">体脂率 % (fat percentage) varchar(8) </t>
+  </si>
+  <si>
+    <t>查询挑战计划</t>
+  </si>
+  <si>
+    <t>心率  次/分 (heart_rate) varchar(8)</t>
+  </si>
+  <si>
+    <t>管理挑战计划</t>
+  </si>
+  <si>
+    <t>参与挑战</t>
+  </si>
+  <si>
+    <t>血压(收缩压)  mm/Hg (sdp) varchar(8)</t>
+  </si>
+  <si>
+    <t>挑战统计</t>
+  </si>
+  <si>
+    <t>打卡记录</t>
+  </si>
+  <si>
+    <t>血压(舒张压) mm/Hg (dbp) varchar(8)</t>
+  </si>
+  <si>
+    <t>脂肪含量 kg (fat_content) varchar(8)</t>
+  </si>
+  <si>
+    <t>骨骼肌含量 kg (muscle_content) varchar(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 体质指数 (bmi) varchar(8)</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>新增体征信息</t>
+  </si>
+  <si>
+    <t>查询历史体征信息</t>
+  </si>
+  <si>
+    <t>修改时间（mdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>查询训练数据</t>
+  </si>
+  <si>
+    <t>管理个人训练计划</t>
+  </si>
+  <si>
+    <t>身高/体重的（二次幂）</t>
+  </si>
+  <si>
+    <t>订单操作日志 (order_operate_log)表</t>
+  </si>
+  <si>
+    <t>受理订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
     <t>Order 订单信息(mysql)</t>
   </si>
   <si>
-    <t>Order_Item 订单商品详情表(mongo)</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>bigint(32) auto increasement</t>
-  </si>
-  <si>
-    <t>商户号</t>
-  </si>
-  <si>
-    <t>merchant_no</t>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-  </si>
-  <si>
-    <t>商品编号</t>
-  </si>
-  <si>
-    <t>goods_id</t>
-  </si>
-  <si>
-    <t>购物车编号</t>
-  </si>
-  <si>
-    <t>cart_id</t>
-  </si>
-  <si>
-    <t>varchar（32）</t>
+    <t xml:space="preserve">订单包 (order_package)表 </t>
+  </si>
+  <si>
+    <t>生成订单包</t>
   </si>
   <si>
     <t>订单编号</t>
   </si>
   <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>订单号</t>
-  </si>
-  <si>
-    <t>注册时间</t>
-  </si>
-  <si>
-    <t>register_date</t>
-  </si>
-  <si>
-    <t>varchar(16) yyyy-MM-dd HH:mm:ss</t>
-  </si>
-  <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>用户编号</t>
-  </si>
-  <si>
-    <t>bigint(16)</t>
-  </si>
-  <si>
-    <t>订单类型</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>商户名称</t>
-  </si>
-  <si>
-    <t>商品类型</t>
-  </si>
-  <si>
-    <t>订单总价</t>
-  </si>
-  <si>
-    <t>total</t>
+    <t>关闭订单</t>
+  </si>
+  <si>
+    <t>操作者编号</t>
+  </si>
+  <si>
+    <t>operator_id</t>
+  </si>
+  <si>
+    <t>申请退货</t>
+  </si>
+  <si>
+    <t>订单退款（付款未发货）</t>
+  </si>
+  <si>
+    <t>订单包号</t>
+  </si>
+  <si>
+    <t>order_package_id</t>
+  </si>
+  <si>
+    <t>操作者类型</t>
+  </si>
+  <si>
+    <t>operator_role</t>
+  </si>
+  <si>
+    <t>varchar（16）</t>
+  </si>
+  <si>
+    <t>订单退货（付款已发货）</t>
+  </si>
+  <si>
+    <t>购物车号</t>
+  </si>
+  <si>
+    <t>执行动作</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>跟踪订单</t>
+  </si>
+  <si>
+    <t>跟踪发货信息</t>
+  </si>
+  <si>
+    <t>商品分类</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>执行结果</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>跟踪退货信息</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>执行时间</t>
+  </si>
+  <si>
+    <t>分类查询订单</t>
+  </si>
+  <si>
+    <t>应付总价</t>
+  </si>
+  <si>
+    <t>优惠价格</t>
+  </si>
+  <si>
+    <t>discount_price</t>
+  </si>
+  <si>
+    <t>订单统计</t>
+  </si>
+  <si>
+    <t>结算价格</t>
+  </si>
+  <si>
+    <t>settlement_price</t>
+  </si>
+  <si>
+    <t>total_amount</t>
+  </si>
+  <si>
+    <t>记录订单的变化</t>
+  </si>
+  <si>
+    <t>支付时间</t>
+  </si>
+  <si>
+    <t>pay_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <t>mongo db</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>order_time</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>finish_time</t>
+  </si>
+  <si>
+    <t>Order_Logistics  订单物流信息表(mongo)</t>
+  </si>
+  <si>
+    <t>order_detail  订单详情(mongo)</t>
+  </si>
+  <si>
+    <t>物流公司编号</t>
+  </si>
+  <si>
+    <t>logistics_id</t>
+  </si>
+  <si>
+    <t>物流信息编号</t>
+  </si>
+  <si>
+    <t>logistics_biz_no</t>
+  </si>
+  <si>
+    <t>收货联系人</t>
+  </si>
+  <si>
+    <t>recevier_name</t>
+  </si>
+  <si>
+    <t>快递单号</t>
+  </si>
+  <si>
+    <t>tracking_no</t>
+  </si>
+  <si>
+    <t>联系人电话</t>
+  </si>
+  <si>
+    <t>recevier_phone</t>
+  </si>
+  <si>
+    <t>发货时间</t>
+  </si>
+  <si>
+    <t>sendout_time</t>
+  </si>
+  <si>
+    <t>收货地址</t>
+  </si>
+  <si>
+    <t>receive_addr</t>
+  </si>
+  <si>
+    <t>收货时间</t>
+  </si>
+  <si>
+    <t>receive_time</t>
   </si>
   <si>
     <t>goods_name</t>
   </si>
   <si>
-    <t>商户类型</t>
-  </si>
-  <si>
-    <t>varchar(8)</t>
-  </si>
-  <si>
-    <t>商品价格</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>商户编号</t>
-  </si>
-  <si>
-    <t>merchant_id</t>
-  </si>
-  <si>
-    <t>优惠价格</t>
-  </si>
-  <si>
-    <t>discount_price</t>
-  </si>
-  <si>
     <t>商品图片</t>
   </si>
   <si>
     <t>img_url</t>
   </si>
   <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>contacter</t>
-  </si>
-  <si>
-    <t>商品数量</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>结算价格</t>
-  </si>
-  <si>
-    <t>settlement_price</t>
-  </si>
-  <si>
-    <t>购买时单价</t>
-  </si>
-  <si>
-    <t>pay_price</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>contact_phone</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>商品状态</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>当前商品单价</t>
-  </si>
-  <si>
-    <t>current_price</t>
-  </si>
-  <si>
-    <t>商户状态</t>
-  </si>
-  <si>
-    <t>所属商户</t>
-  </si>
-  <si>
-    <t>cdt</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>下单时间</t>
-  </si>
-  <si>
-    <t>order_time</t>
-  </si>
-  <si>
-    <t>虚拟产品</t>
-  </si>
-  <si>
-    <t>virtual</t>
-  </si>
-  <si>
-    <t>mdt</t>
-  </si>
-  <si>
-    <t>小计</t>
-  </si>
-  <si>
-    <t>subtotal</t>
-  </si>
-  <si>
-    <t>完成时间</t>
-  </si>
-  <si>
-    <t>finish_time</t>
-  </si>
-  <si>
-    <t>订单状态</t>
-  </si>
-  <si>
-    <t>Merchant_Detail 商户详情信息（mongo）</t>
-  </si>
-  <si>
-    <t>收货地址信息(address)</t>
-  </si>
-  <si>
-    <t>id （id）bigint 64 primary key</t>
-  </si>
-  <si>
-    <t>用户id （user_account）bigint 64</t>
-  </si>
-  <si>
-    <t>地址编号 (addr_id) bigint 64</t>
-  </si>
-  <si>
-    <t>商户描述</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>省行政编号 (province_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>Order_Logistics  订单物流信息表(mongo)</t>
-  </si>
-  <si>
-    <t>商户logo</t>
-  </si>
-  <si>
-    <t>logo_url</t>
-  </si>
-  <si>
-    <t>省名 (province_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>Order_Detail  订单详情(mongo)</t>
-  </si>
-  <si>
-    <t>商户广告</t>
-  </si>
-  <si>
-    <t>advertisements</t>
-  </si>
-  <si>
-    <t>advertisement 集合</t>
-  </si>
-  <si>
-    <t>市行政编号(city_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>Goods_Detail 商品详情(mongo)</t>
-  </si>
-  <si>
-    <t>市名 (city_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>区行政编号(distrc_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>区名 (distrc_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>收货联系人</t>
-  </si>
-  <si>
-    <t>recevier_name</t>
-  </si>
-  <si>
-    <t>是否默认 (default)varchar 8</t>
-  </si>
-  <si>
-    <t>联系人电话</t>
-  </si>
-  <si>
-    <t>recevier_phone</t>
-  </si>
-  <si>
-    <t>物流公司编号</t>
-  </si>
-  <si>
-    <t>logistics_id</t>
-  </si>
-  <si>
-    <t>商品简介</t>
-  </si>
-  <si>
-    <t>收货地址 (addr_detail) varchar 512</t>
-  </si>
-  <si>
-    <t>收货地址</t>
-  </si>
-  <si>
-    <t>receive_addr</t>
-  </si>
-  <si>
-    <t>物流信息编号</t>
-  </si>
-  <si>
-    <t>logistics_biz_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 数据字典表（mongo）</t>
-  </si>
-  <si>
-    <t>主要成分</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>收货手机号码 (connector_mobile)varchar 64</t>
-  </si>
-  <si>
-    <t>支付订单编号</t>
-  </si>
-  <si>
-    <t>pay_order_id</t>
-  </si>
-  <si>
-    <t>快递单号</t>
-  </si>
-  <si>
-    <t>tracking_no</t>
-  </si>
-  <si>
-    <t>适用场景</t>
-  </si>
-  <si>
-    <t>scenes</t>
-  </si>
-  <si>
-    <t>收货人姓名 (connector_name)varchar 32</t>
-  </si>
-  <si>
-    <t>支付状态</t>
-  </si>
-  <si>
-    <t>pay_status</t>
-  </si>
-  <si>
-    <t>发货时间</t>
-  </si>
-  <si>
-    <t>sendout_time</t>
-  </si>
-  <si>
-    <t>商品详情</t>
-  </si>
-  <si>
-    <t>创建时间（cdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>收货时间</t>
-  </si>
-  <si>
-    <t>receive_time</t>
-  </si>
-  <si>
-    <t>数据组</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>多媒体</t>
-  </si>
-  <si>
-    <t>medias</t>
-  </si>
-  <si>
-    <t>media[]</t>
-  </si>
-  <si>
-    <t>修改时间（cdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>键</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>键名</t>
-  </si>
-  <si>
-    <t>key_name</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>Order_Tracking  订单物流追踪表(mongo)</t>
   </si>
   <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Media 多媒体信息(mongo)</t>
-  </si>
-  <si>
-    <t>多媒体编号</t>
-  </si>
-  <si>
-    <t>media_id</t>
-  </si>
-  <si>
-    <t>多媒体名</t>
-  </si>
-  <si>
     <t>物流信息遍号</t>
   </si>
   <si>
-    <t>作用域</t>
-  </si>
-  <si>
-    <t>scpoe</t>
-  </si>
-  <si>
-    <t>stirng</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
-  </si>
-  <si>
     <t>追踪详情</t>
   </si>
   <si>
     <t>tracking_remark</t>
-  </si>
-  <si>
-    <t>json-string</t>
-  </si>
-  <si>
-    <t>存储路径</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>现金支付</t>
-  </si>
-  <si>
-    <t>pay_order 支付订单表</t>
-  </si>
-  <si>
-    <t>fund_transfer 资金流水表</t>
-  </si>
-  <si>
-    <t>现金退款</t>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-  </si>
-  <si>
-    <t>内部流水号</t>
-  </si>
-  <si>
-    <t>inner_trans_no</t>
-  </si>
-  <si>
-    <t>商品订单编号</t>
-  </si>
-  <si>
-    <t>支付金额</t>
-  </si>
-  <si>
-    <t>varchat(32)</t>
-  </si>
-  <si>
-    <t>外部流水号</t>
-  </si>
-  <si>
-    <t>out_trans_no</t>
-  </si>
-  <si>
-    <t>支付渠道</t>
-  </si>
-  <si>
-    <t>varchat(16)</t>
-  </si>
-  <si>
-    <t>支付订单类型</t>
-  </si>
-  <si>
-    <t>pay_type</t>
-  </si>
-  <si>
-    <t>交易类型</t>
-  </si>
-  <si>
-    <t>收款机构</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>memo</t>
-  </si>
-  <si>
-    <t>varchat(1024)</t>
-  </si>
-  <si>
-    <t>gmt_create</t>
-  </si>
-  <si>
-    <t>gmt_modify</t>
-  </si>
-  <si>
-    <t>refund 退款表（从哪个渠道申请退款就退到那里）</t>
-  </si>
-  <si>
-    <t>退单订单号</t>
-  </si>
-  <si>
-    <t>refund_order_id</t>
-  </si>
-  <si>
-    <t>退款金额</t>
-  </si>
-  <si>
-    <t>退款渠道</t>
-  </si>
-  <si>
-    <t>退款商户</t>
-  </si>
-  <si>
-    <t>merchent_id</t>
-  </si>
-  <si>
-    <t>退款状态</t>
-  </si>
-  <si>
-    <t>refund_status</t>
-  </si>
-  <si>
-    <t>管理端</t>
-  </si>
-  <si>
-    <t>客户端</t>
-  </si>
-  <si>
-    <t>课程管理</t>
-  </si>
-  <si>
-    <t>新增/编辑课程</t>
-  </si>
-  <si>
-    <t>查看课程</t>
-  </si>
-  <si>
-    <t>发布课程</t>
-  </si>
-  <si>
-    <t>购买课程</t>
-  </si>
-  <si>
-    <t>体征信息（customer_body_info）</t>
-  </si>
-  <si>
-    <t>修改课程发布计划</t>
-  </si>
-  <si>
-    <t>id (id)</t>
-  </si>
-  <si>
-    <t>用户id （customer_id）bigint 64</t>
-  </si>
-  <si>
-    <t>记录编号 (record_id) varchar(64)</t>
-  </si>
-  <si>
-    <t>登记日期 register_date (datetime)</t>
-  </si>
-  <si>
-    <t>课程预约</t>
-  </si>
-  <si>
-    <t>受理预约</t>
-  </si>
-  <si>
-    <t>预约课程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">身高 cm  (height) varchar(8) </t>
-  </si>
-  <si>
-    <t>后台预约</t>
-  </si>
-  <si>
-    <t>取消预约</t>
-  </si>
-  <si>
-    <t>体重 kg (weight) varchar(8)</t>
-  </si>
-  <si>
-    <t>后台取消</t>
-  </si>
-  <si>
-    <t>课程评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胸围 cm (chest) varchar(8) </t>
-  </si>
-  <si>
-    <t>分享课程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腰围 cm (waistline) varchar(8) </t>
-  </si>
-  <si>
-    <t>查看预约记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">臀围 cm (hipline) varchar(8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">腰臀比 (waist_hip_ratio)  varchar(8) </t>
-  </si>
-  <si>
-    <t>视频管理</t>
-  </si>
-  <si>
-    <t>上传视频</t>
-  </si>
-  <si>
-    <t>查看视频</t>
-  </si>
-  <si>
-    <t>左大臂围  cm (left_arm_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>编辑视频说明</t>
-  </si>
-  <si>
-    <t>右大臂围  cm (right_arm_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>删除视频</t>
-  </si>
-  <si>
-    <t>左大腿围  cm (left_thigh_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>右大腿围   cm (right_thigh_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>打卡挑战</t>
-  </si>
-  <si>
-    <t>发起挑战</t>
-  </si>
-  <si>
-    <t xml:space="preserve">体脂率 % (fat percentage) varchar(8) </t>
-  </si>
-  <si>
-    <t>查询挑战计划</t>
-  </si>
-  <si>
-    <t>心率  次/分 (heart_rate) varchar(8)</t>
-  </si>
-  <si>
-    <t>管理挑战计划</t>
-  </si>
-  <si>
-    <t>参与挑战</t>
-  </si>
-  <si>
-    <t>血压(收缩压)  mm/Hg (sdp) varchar(8)</t>
-  </si>
-  <si>
-    <t>挑战统计</t>
-  </si>
-  <si>
-    <t>打卡记录</t>
-  </si>
-  <si>
-    <t>血压(舒张压) mm/Hg (dbp) varchar(8)</t>
-  </si>
-  <si>
-    <t>脂肪含量 kg (fat_content) varchar(8)</t>
-  </si>
-  <si>
-    <t>骨骼肌含量 kg (muscle_content) varchar(8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 体质指数 (bmi) varchar(8)</t>
-  </si>
-  <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>新增体征信息</t>
-  </si>
-  <si>
-    <t>查询历史体征信息</t>
-  </si>
-  <si>
-    <t>修改时间（mdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>查询训练数据</t>
-  </si>
-  <si>
-    <t>管理个人训练计划</t>
-  </si>
-  <si>
-    <t>身高/体重的（二次幂）</t>
-  </si>
-  <si>
-    <t>订单操作日志 (order_operate_log)表</t>
-  </si>
-  <si>
-    <t>受理订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">订单包 (order_package)表 </t>
-  </si>
-  <si>
-    <t>生成订单包</t>
-  </si>
-  <si>
-    <t>关闭订单</t>
-  </si>
-  <si>
-    <t>订单包号</t>
-  </si>
-  <si>
-    <t>order_package_id</t>
-  </si>
-  <si>
-    <t>操作者编号</t>
-  </si>
-  <si>
-    <t>operator_id</t>
-  </si>
-  <si>
-    <t>申请退货</t>
-  </si>
-  <si>
-    <t>订单退款（付款未发货）</t>
-  </si>
-  <si>
-    <t>购物车号</t>
-  </si>
-  <si>
-    <t>操作者类型</t>
-  </si>
-  <si>
-    <t>operator_role</t>
-  </si>
-  <si>
-    <t>varchar（16）</t>
-  </si>
-  <si>
-    <t>订单退货（付款已发货）</t>
-  </si>
-  <si>
-    <t>执行动作</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>跟踪订单</t>
-  </si>
-  <si>
-    <t>跟踪发货信息</t>
-  </si>
-  <si>
-    <t>商品分类</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>执行结果</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>跟踪退货信息</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>执行时间</t>
-  </si>
-  <si>
-    <t>分类查询订单</t>
-  </si>
-  <si>
-    <t>应付总价</t>
-  </si>
-  <si>
-    <t>total_amount</t>
-  </si>
-  <si>
-    <t>订单统计</t>
-  </si>
-  <si>
-    <t>支付时间</t>
-  </si>
-  <si>
-    <t>pay_time</t>
-  </si>
-  <si>
-    <t>记录订单的变化</t>
-  </si>
-  <si>
-    <t>mongo db</t>
-  </si>
-  <si>
-    <t>order_detail  订单详情(mongo)</t>
   </si>
   <si>
     <t>varchar（2056）</t>
@@ -1264,14 +1231,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1300,26 +1266,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="1"/>
       <name val="黑体-简"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1329,8 +1280,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,85 +1409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,36 +1419,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,12 +1475,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1535,7 +1487,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,7 +1529,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,49 +1559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,7 +1583,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,61 +1643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,29 +1761,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1847,11 +1793,53 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1870,195 +1858,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2078,17 +2030,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2098,12 +2041,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2118,9 +2055,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2162,13 +2096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9968,7 +9896,7 @@
   <sheetPr/>
   <dimension ref="U49"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="H24" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
@@ -9991,8 +9919,8 @@
   <sheetPr/>
   <dimension ref="A2:M75"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H3"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -10010,185 +9938,185 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="F4" s="8" t="s">
+      <c r="C4" s="34"/>
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="6:8">
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="6:8">
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="39"/>
+      <c r="F10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="8"/>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="39"/>
+      <c r="F11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="49"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="39"/>
       <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -10197,139 +10125,139 @@
       <c r="K13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="23"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="6:12">
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="6:12">
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="6:12">
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="6:12">
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10340,22 +10268,22 @@
       <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10363,22 +10291,22 @@
       <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -10386,22 +10314,22 @@
       <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10412,22 +10340,22 @@
       <c r="D23" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10435,31 +10363,31 @@
       <c r="B24" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="23"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="6:10">
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="23"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="23"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="6:12">
       <c r="F27" s="1" t="s">
@@ -10468,119 +10396,119 @@
       <c r="G27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="3" t="s">
         <v>90</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="6:12">
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="6:12">
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="6:12">
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="6:12">
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="6:12">
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G32" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="6:12">
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -10589,47 +10517,47 @@
       <c r="K33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="6:12">
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="6:13">
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M35" t="s">
@@ -10637,73 +10565,73 @@
       </c>
     </row>
     <row r="36" spans="6:12">
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="6:12">
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="6:12">
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="10:12">
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10714,153 +10642,153 @@
       <c r="G40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="6:12">
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="6:12">
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="6:12">
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="6:8">
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="6:8">
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="6:8">
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="6:8">
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="6:8">
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="6:8">
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="50" spans="6:8">
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10871,81 +10799,81 @@
       <c r="G52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="6:8">
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="6:8">
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="6:8">
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="6:8">
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="6:8">
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="6:8">
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="6:8">
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="6:8">
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="6:8">
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="62" spans="6:8">
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10956,81 +10884,81 @@
       <c r="G65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="6:8">
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="6:8">
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="6:8">
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="6:8">
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="6:8">
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="6:8">
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="6:8">
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="6:8">
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="4"/>
     </row>
     <row r="74" spans="6:8">
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="75" spans="6:8">
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11047,10 +10975,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20:S43"/>
+    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -11058,1575 +10986,1004 @@
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="35.6153846153846" customWidth="1"/>
-    <col min="4" max="4" width="9" style="23"/>
-    <col min="5" max="5" width="11.6153846153846" style="23" customWidth="1"/>
-    <col min="6" max="6" width="13.7692307692308" style="23" customWidth="1"/>
-    <col min="7" max="7" width="28.9230769230769" style="23" customWidth="1"/>
-    <col min="8" max="8" width="14.8365384615385" style="23" customWidth="1"/>
-    <col min="9" max="9" width="15.1538461538462" style="23" customWidth="1"/>
-    <col min="10" max="10" width="17" style="23" customWidth="1"/>
-    <col min="11" max="11" width="28.9230769230769" style="23" customWidth="1"/>
-    <col min="13" max="13" width="15.1538461538462" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="28.9230769230769" customWidth="1"/>
-    <col min="17" max="17" width="15.1538461538462" customWidth="1"/>
-    <col min="18" max="18" width="16.5384615384615" customWidth="1"/>
-    <col min="19" max="19" width="28.9230769230769" customWidth="1"/>
+    <col min="4" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="11.6153846153846" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.7692307692308" style="12" customWidth="1"/>
+    <col min="7" max="7" width="28.9230769230769" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.8365384615385" style="12" customWidth="1"/>
+    <col min="9" max="9" width="15.1538461538462" style="12" customWidth="1"/>
+    <col min="10" max="10" width="17" style="12" customWidth="1"/>
+    <col min="11" max="11" width="28.9230769230769" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="4:11">
-      <c r="D1" s="23"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" customFormat="1" spans="4:11">
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" customFormat="1" spans="1:19">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="23"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="23"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="1" t="s">
         <v>126</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="M3" s="1" t="s">
+    </row>
+    <row r="4" customFormat="1" spans="1:11">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" customFormat="1" spans="1:19">
-      <c r="A4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="1" spans="1:11">
+      <c r="A5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:19">
-      <c r="A5" s="24" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:11">
+      <c r="A6" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:11">
+      <c r="A7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:11">
+      <c r="A8" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:11">
+      <c r="A9" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:11">
+      <c r="A10" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:11">
+      <c r="A11" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:11">
+      <c r="A12" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:19">
-      <c r="A6" s="24" t="s">
+      <c r="G12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:19">
-      <c r="A7" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:19">
-      <c r="A8" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:19">
-      <c r="A9" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:19">
-      <c r="A10" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:19">
-      <c r="A11" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="S11" s="38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:19">
-      <c r="A12" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="J12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:11">
+      <c r="A13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="F13" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="S12" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:19">
-      <c r="A13" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="23"/>
+      <c r="G13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="12"/>
       <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:19">
-      <c r="A14" s="24" t="s">
+      <c r="J13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:11">
+      <c r="A14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="23"/>
+      <c r="B14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="12"/>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="M14" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="4:19">
-      <c r="D15" s="23"/>
+      <c r="F14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" customFormat="1" spans="4:11">
+      <c r="D15" s="12"/>
       <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:11">
+      <c r="A16" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:11">
+      <c r="A17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:11">
+      <c r="A18" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:11">
+      <c r="A19" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:11">
+      <c r="A20" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:11">
+      <c r="A21" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:11">
+      <c r="A22" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:11">
+      <c r="A23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="M15" s="1" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:11">
+      <c r="A24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" customFormat="1" spans="4:11">
+      <c r="D25" s="12"/>
+      <c r="E25" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="O15" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="G25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" customFormat="1" spans="4:11">
+      <c r="D26" s="12"/>
+      <c r="E26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" customFormat="1" spans="4:11">
+      <c r="D27" s="12"/>
+      <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:19">
-      <c r="A16" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="M16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:15">
-      <c r="A17" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="M17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:15">
-      <c r="A18" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="M18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:11">
-      <c r="A19" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-    </row>
-    <row r="20" customFormat="1" spans="1:19">
-      <c r="A20" s="24" t="s">
+      <c r="F27" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:11">
+      <c r="A28" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="Q20" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:19">
-      <c r="A21" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="M21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="Q21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:19">
-      <c r="A22" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="M22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:19">
-      <c r="A23" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="M23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:19">
-      <c r="A24" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="M24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S24" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="4:19">
-      <c r="D25" s="23"/>
-      <c r="E25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="M25" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="4:19">
-      <c r="D26" s="23"/>
-      <c r="E26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="M26" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="R26" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="4:19">
-      <c r="D27" s="23"/>
-      <c r="E27" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="M27" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:19">
-      <c r="A28" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="23"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="M28" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="O28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:11">
+      <c r="A29" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:11">
+      <c r="A30" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:11">
+      <c r="A31" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:11">
+      <c r="A32" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:11">
+      <c r="A33" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:11">
+      <c r="A34" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:11">
+      <c r="A35" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:19">
-      <c r="A29" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="M29" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:19">
-      <c r="A30" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="M30" s="1" t="s">
+      <c r="G35" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:11">
+      <c r="A36" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:11">
+      <c r="A37" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:19">
-      <c r="A31" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="M31" s="1" t="s">
+      <c r="B37" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" customFormat="1" spans="1:11">
+      <c r="A38" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q31" s="1" t="s">
+      <c r="B38" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" customFormat="1" spans="4:11">
+      <c r="D39" s="12"/>
+      <c r="E39" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" customFormat="1" spans="4:11">
+      <c r="D40" s="12"/>
+      <c r="E40" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="R31" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="S31" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:19">
-      <c r="A32" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="Q32" s="1" t="s">
+      <c r="F40" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" customFormat="1" spans="4:11">
+      <c r="D41" s="12"/>
+      <c r="E41" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="R32" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:11">
-      <c r="A33" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:19">
-      <c r="A34" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="Q34" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" customFormat="1" spans="1:19">
-      <c r="A35" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="Q35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:19">
-      <c r="A36" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="Q36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:19">
-      <c r="A37" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="Q37" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R37" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:19">
-      <c r="A38" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="Q38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R38" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S38" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="4:19">
-      <c r="D39" s="23"/>
-      <c r="E39" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="Q39" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="R39" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="S39" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="4:19">
-      <c r="D40" s="23"/>
-      <c r="E40" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="Q40" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="4:19">
-      <c r="D41" s="23"/>
-      <c r="E41" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="Q41" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="4:19">
-      <c r="D42" s="23"/>
-      <c r="E42" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="Q42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R42" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="S42" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="4:19">
-      <c r="D43" s="23"/>
-      <c r="E43" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="Q43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R43" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="S43" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>189</v>
-      </c>
+      <c r="F41" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" customFormat="1" spans="4:11">
+      <c r="D42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" customFormat="1" spans="4:11">
+      <c r="D43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="7">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E31:G31"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12640,7 +11997,7 @@
   <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -12656,15 +12013,15 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -12674,7 +12031,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -12683,7 +12040,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
@@ -12691,270 +12048,270 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>289</v>
+      <c r="H5" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="C6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>289</v>
+      <c r="G6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>289</v>
+      <c r="E7" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>289</v>
+      <c r="I8" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="C9" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>134</v>
+      <c r="I9" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>134</v>
+      <c r="I10" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="C12" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>298</v>
+      <c r="I12" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="C13" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>305</v>
+      <c r="E14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="D15" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>189</v>
+      <c r="H15" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="D16" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>189</v>
+      <c r="H16" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -12964,120 +12321,120 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>294</v>
+      <c r="C22" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>294</v>
+      <c r="E23" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>298</v>
+      <c r="E24" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="C26" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>298</v>
+      <c r="C27" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>305</v>
+      <c r="C28" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>189</v>
+      <c r="D29" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>189</v>
+      <c r="D30" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -13112,244 +12469,244 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>324</v>
+        <v>276</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>326</v>
+        <v>278</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="21" t="s">
-        <v>327</v>
+      <c r="E5" s="14" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="21" t="s">
-        <v>328</v>
+      <c r="E6" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="21" t="s">
-        <v>329</v>
+      <c r="E7" s="14" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>333</v>
+        <v>285</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>336</v>
+        <v>288</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>338</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>339</v>
+        <v>291</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>340</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>341</v>
+        <v>293</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>342</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>343</v>
+        <v>295</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="21" t="s">
-        <v>344</v>
+      <c r="E13" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
-        <v>347</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>348</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>350</v>
+        <v>302</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>351</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>352</v>
+        <v>304</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
-        <v>355</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>356</v>
+        <v>308</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>358</v>
+        <v>310</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="C20" t="s">
-        <v>360</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>361</v>
+        <v>313</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="C21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>364</v>
+        <v>316</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="21" t="s">
-        <v>365</v>
+      <c r="E22" s="14" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="21" t="s">
-        <v>366</v>
+      <c r="E23" s="14" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="21" t="s">
-        <v>367</v>
+      <c r="E24" s="14" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
-        <v>369</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>251</v>
+        <v>322</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" t="s">
-        <v>370</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>371</v>
+        <v>323</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" t="s">
-        <v>372</v>
-      </c>
-      <c r="E27" s="21"/>
+        <v>325</v>
+      </c>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -13362,23 +12719,24 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:N43"/>
+  <dimension ref="A3:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="17.6153846153846" customWidth="1"/>
-    <col min="2" max="2" width="27.3076923076923" customWidth="1"/>
+    <col min="2" max="2" width="24.1826923076923" customWidth="1"/>
     <col min="4" max="4" width="14.1538461538462" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="28.9230769230769" customWidth="1"/>
+    <col min="6" max="6" width="28.9230769230769" customWidth="1"/>
+    <col min="7" max="7" width="14.4134615384615" customWidth="1"/>
     <col min="8" max="8" width="15.1538461538462" customWidth="1"/>
     <col min="9" max="9" width="18.1538461538462" customWidth="1"/>
     <col min="10" max="10" width="28.9230769230769" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="11" max="11" width="13.3942307692308" customWidth="1"/>
     <col min="12" max="12" width="14.1538461538462" customWidth="1"/>
     <col min="13" max="13" width="18.1538461538462" customWidth="1"/>
     <col min="14" max="14" width="15.3076923076923" customWidth="1"/>
@@ -13386,461 +12744,482 @@
   <sheetData>
     <row r="3" spans="12:14">
       <c r="L3" s="1" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>331</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="L4" s="2" t="s">
+      <c r="H4" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>10</v>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>139</v>
+        <v>334</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>139</v>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>139</v>
+        <v>334</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>390</v>
+        <v>342</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>390</v>
+      <c r="J8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>396</v>
+        <v>350</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>390</v>
+        <v>352</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>139</v>
+        <v>334</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>390</v>
+        <v>353</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>400</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>139</v>
+        <v>355</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="N10" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+        <v>359</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="4:14">
       <c r="D12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>139</v>
+        <v>360</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
+        <v>143</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>139</v>
+        <v>363</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>189</v>
+        <v>363</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>189</v>
+      <c r="F14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>139</v>
+        <v>366</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>369</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="I16" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="4:10">
-      <c r="D16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="1" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J16" s="12" t="s">
+      <c r="I17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>189</v>
+        <v>374</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="4:10">
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="H20" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="8:10">
-      <c r="H21" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="H21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="8:10">
       <c r="H22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="8:10">
-      <c r="H23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>10</v>
+      <c r="H23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="D24" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="H24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="4:10">
@@ -13848,178 +13227,169 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>139</v>
+        <v>154</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>139</v>
+        <v>378</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>139</v>
+        <v>334</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>139</v>
+        <v>380</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>139</v>
+        <v>382</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="4:10">
+        <v>384</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" ht="17" spans="4:10">
       <c r="D29" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>139</v>
+        <v>386</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>139</v>
+        <v>388</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="17" spans="4:10">
       <c r="D30" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>139</v>
+        <v>390</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="J30" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" ht="17" spans="4:10">
-      <c r="D31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>139</v>
+      <c r="D31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="J31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" ht="17" spans="4:10">
-      <c r="D32" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>139</v>
+      <c r="D32" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J32" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" ht="17" spans="4:10">
+    <row r="33" spans="4:6">
       <c r="D33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J33" s="13" t="s">
+      <c r="E33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -14027,106 +13397,117 @@
       <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="E34" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="8:10">
-      <c r="H35" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" ht="17" spans="8:10">
-      <c r="H36" s="14" t="s">
+      <c r="H35" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="8:10">
+      <c r="H36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="17" spans="8:10">
+      <c r="H37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J37" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="37" ht="17" spans="8:10">
-      <c r="H37" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="38" ht="17" spans="8:10">
       <c r="H38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="8:10">
+        <v>334</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" ht="17" spans="8:10">
       <c r="H39" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>233</v>
+        <v>133</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>139</v>
+        <v>398</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="8:10">
       <c r="H41" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="42" ht="17" spans="8:10">
+        <v>384</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10">
       <c r="H42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>139</v>
+        <v>399</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="43" ht="17" spans="8:10">
       <c r="H43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" ht="17" spans="8:10">
+      <c r="H44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>139</v>
+      <c r="I44" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -14134,7 +13515,7 @@
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H20:J20"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H35:J35"/>
   </mergeCells>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29920" windowHeight="21840" activeTab="5"/>
+    <workbookView windowWidth="28060" windowHeight="14820" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -1005,28 +1005,40 @@
     <t>身高/体重的（二次幂）</t>
   </si>
   <si>
+    <t>受理订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>Order 订单信息(mysql)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">订单包 (order_package)表 </t>
+  </si>
+  <si>
     <t>订单操作日志 (order_operate_log)表</t>
   </si>
   <si>
-    <t>受理订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>Order 订单信息(mysql)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">订单包 (order_package)表 </t>
-  </si>
-  <si>
     <t>生成订单包</t>
   </si>
   <si>
+    <t>关闭订单</t>
+  </si>
+  <si>
     <t>订单编号</t>
   </si>
   <si>
-    <t>关闭订单</t>
+    <t>申请退货</t>
+  </si>
+  <si>
+    <t>订单退款（付款未发货）</t>
+  </si>
+  <si>
+    <t>订单包号</t>
+  </si>
+  <si>
+    <t>order_package_id</t>
   </si>
   <si>
     <t>操作者编号</t>
@@ -1035,16 +1047,10 @@
     <t>operator_id</t>
   </si>
   <si>
-    <t>申请退货</t>
-  </si>
-  <si>
-    <t>订单退款（付款未发货）</t>
-  </si>
-  <si>
-    <t>订单包号</t>
-  </si>
-  <si>
-    <t>order_package_id</t>
+    <t>订单退货（付款已发货）</t>
+  </si>
+  <si>
+    <t>购物车号</t>
   </si>
   <si>
     <t>操作者类型</t>
@@ -1056,10 +1062,16 @@
     <t>varchar（16）</t>
   </si>
   <si>
-    <t>订单退货（付款已发货）</t>
-  </si>
-  <si>
-    <t>购物车号</t>
+    <t>跟踪订单</t>
+  </si>
+  <si>
+    <t>跟踪发货信息</t>
+  </si>
+  <si>
+    <t>商品分类</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
   <si>
     <t>执行动作</t>
@@ -1068,16 +1080,10 @@
     <t>action</t>
   </si>
   <si>
-    <t>跟踪订单</t>
-  </si>
-  <si>
-    <t>跟踪发货信息</t>
-  </si>
-  <si>
-    <t>商品分类</t>
-  </si>
-  <si>
-    <t>category</t>
+    <t>跟踪退货信息</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
   <si>
     <t>执行结果</t>
@@ -1086,19 +1092,13 @@
     <t>result</t>
   </si>
   <si>
-    <t>跟踪退货信息</t>
-  </si>
-  <si>
-    <t>num</t>
+    <t>分类查询订单</t>
+  </si>
+  <si>
+    <t>应付总价</t>
   </si>
   <si>
     <t>执行时间</t>
-  </si>
-  <si>
-    <t>分类查询订单</t>
-  </si>
-  <si>
-    <t>应付总价</t>
   </si>
   <si>
     <t>优惠价格</t>
@@ -1280,17 +1280,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,20 +1303,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1333,34 +1347,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1374,7 +1365,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,25 +1393,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1418,7 +1418,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,7 +1475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,7 +1487,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,49 +1625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,97 +1637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,6 +1761,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1776,17 +1785,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1794,8 +1797,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1815,35 +1818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1858,153 +1832,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12719,10 +12719,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:N44"/>
+  <dimension ref="A4:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -12742,39 +12742,28 @@
     <col min="14" max="14" width="15.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="12:14">
-      <c r="L3" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" t="s">
         <v>329</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="L4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="L4" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" t="s">
@@ -12799,18 +12788,18 @@
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>334</v>
+        <v>8</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>137</v>
+        <v>9</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -12831,10 +12820,10 @@
         <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>137</v>
@@ -12842,13 +12831,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>243</v>
@@ -12857,27 +12846,27 @@
         <v>137</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>137</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>133</v>
@@ -12889,7 +12878,7 @@
         <v>137</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>136</v>
@@ -12898,33 +12887,33 @@
         <v>137</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E9" t="s">
-        <v>352</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>243</v>
@@ -12933,24 +12922,24 @@
         <v>137</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>224</v>
@@ -12965,21 +12954,21 @@
         <v>137</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>39</v>
+        <v>356</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>152</v>
@@ -12996,9 +12985,15 @@
       <c r="J11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="L11" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="4:14">
       <c r="D12" s="1" t="s">
@@ -13197,7 +13192,7 @@
     </row>
     <row r="23" spans="8:10">
       <c r="H23" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>243</v>
@@ -13264,7 +13259,7 @@
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>243</v>
@@ -13435,7 +13430,7 @@
     </row>
     <row r="38" ht="17" spans="8:10">
       <c r="H38" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>243</v>
@@ -13512,9 +13507,9 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L3:N3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="H4:J4"/>
+    <mergeCell ref="L4:N4"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H35:J35"/>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29920" windowHeight="21840" activeTab="5"/>
+    <workbookView windowWidth="29920" windowHeight="22480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -1232,10 +1232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1280,17 +1280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1303,23 +1294,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1333,8 +1325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,14 +1338,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1372,9 +1357,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,24 +1380,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1418,7 +1395,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,13 +1475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,7 +1487,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,19 +1523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,7 +1541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,25 +1565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,19 +1583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,19 +1613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,19 +1625,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,21 +1776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1815,13 +1800,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1837,24 +1850,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1863,148 +1863,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12722,7 +12722,7 @@
   <dimension ref="A3:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -12743,11 +12743,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="12:14">
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -1098,10 +1098,10 @@
     <t>分类查询订单</t>
   </si>
   <si>
-    <t>应付总价</t>
-  </si>
-  <si>
-    <t>优惠价格</t>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>优惠单价</t>
   </si>
   <si>
     <t>discount_price</t>
@@ -1232,12 +1232,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,6 +1248,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1274,14 +1282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1294,19 +1295,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1322,6 +1321,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1342,14 +1364,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1357,8 +1371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,21 +1381,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1395,15 +1403,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,8 +1417,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,13 +1477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,7 +1495,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,37 +1603,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,103 +1639,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,6 +1769,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1800,30 +1817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1848,6 +1841,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1863,152 +1871,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2030,6 +2038,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2038,6 +2049,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2057,7 +2074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2078,7 +2095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2096,7 +2113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9938,11 +9955,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9954,13 +9971,13 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -9974,13 +9991,13 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="37"/>
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
@@ -10014,10 +10031,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -10031,10 +10048,10 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="39" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -10048,10 +10065,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -10065,13 +10082,13 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="42"/>
       <c r="F10" s="6" t="s">
         <v>37</v>
       </c>
@@ -10084,10 +10101,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="42"/>
       <c r="F11" s="6" t="s">
         <v>41</v>
       </c>
@@ -10099,17 +10116,17 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="39"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="42"/>
       <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
@@ -10130,11 +10147,11 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="12"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="41" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -10157,9 +10174,9 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="40" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="43" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -10372,7 +10389,7 @@
       <c r="H24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="6:10">
       <c r="F25" s="6" t="s">
@@ -10384,10 +10401,10 @@
       <c r="H25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="12"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="6:12">
       <c r="F27" s="1" t="s">
@@ -10497,9 +10514,9 @@
       <c r="H32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="6:12">
       <c r="F33" s="6" t="s">
@@ -10986,35 +11003,35 @@
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="35.6153846153846" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="11.6153846153846" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.7692307692308" style="12" customWidth="1"/>
-    <col min="7" max="7" width="28.9230769230769" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.8365384615385" style="12" customWidth="1"/>
-    <col min="9" max="9" width="15.1538461538462" style="12" customWidth="1"/>
-    <col min="10" max="10" width="17" style="12" customWidth="1"/>
-    <col min="11" max="11" width="28.9230769230769" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9" style="15"/>
+    <col min="5" max="5" width="11.6153846153846" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.7692307692308" style="15" customWidth="1"/>
+    <col min="7" max="7" width="28.9230769230769" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.8365384615385" style="15" customWidth="1"/>
+    <col min="9" max="9" width="15.1538461538462" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17" style="15" customWidth="1"/>
+    <col min="11" max="11" width="28.9230769230769" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="4:11">
-      <c r="D1" s="12"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" customFormat="1" spans="4:11">
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -11022,13 +11039,13 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="1" t="s">
         <v>126</v>
       </c>
@@ -11036,16 +11053,16 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" customFormat="1" spans="1:11">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11055,7 +11072,7 @@
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11067,7 +11084,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:11">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -11076,7 +11093,7 @@
       <c r="C5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="1" t="s">
         <v>128</v>
       </c>
@@ -11086,7 +11103,7 @@
       <c r="G5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="1" t="s">
         <v>128</v>
       </c>
@@ -11098,7 +11115,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:11">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -11107,7 +11124,7 @@
       <c r="C6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1" t="s">
         <v>133</v>
       </c>
@@ -11117,7 +11134,7 @@
       <c r="G6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="1" t="s">
         <v>135</v>
       </c>
@@ -11129,7 +11146,7 @@
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:11">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -11138,7 +11155,7 @@
       <c r="C7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1" t="s">
         <v>141</v>
       </c>
@@ -11146,7 +11163,7 @@
         <v>142</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="1" t="s">
         <v>143</v>
       </c>
@@ -11158,7 +11175,7 @@
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:11">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>145</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -11167,7 +11184,7 @@
       <c r="C8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="1" t="s">
         <v>146</v>
       </c>
@@ -11177,7 +11194,7 @@
       <c r="G8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="1" t="s">
         <v>133</v>
       </c>
@@ -11189,7 +11206,7 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:11">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="19" t="s">
         <v>149</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -11198,7 +11215,7 @@
       <c r="C9" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="1" t="s">
         <v>151</v>
       </c>
@@ -11208,7 +11225,7 @@
       <c r="G9" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="1" t="s">
         <v>154</v>
       </c>
@@ -11220,7 +11237,7 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:11">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -11229,7 +11246,7 @@
       <c r="C10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1" t="s">
         <v>158</v>
       </c>
@@ -11239,7 +11256,7 @@
       <c r="G10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="1" t="s">
         <v>160</v>
       </c>
@@ -11251,7 +11268,7 @@
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:11">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="19" t="s">
         <v>162</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -11260,7 +11277,7 @@
       <c r="C11" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="1" t="s">
         <v>165</v>
       </c>
@@ -11270,7 +11287,7 @@
       <c r="G11" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="1" t="s">
         <v>167</v>
       </c>
@@ -11282,7 +11299,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:11">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>168</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11291,7 +11308,7 @@
       <c r="C12" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1" t="s">
         <v>169</v>
       </c>
@@ -11301,7 +11318,7 @@
       <c r="G12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1" t="s">
         <v>37</v>
       </c>
@@ -11313,7 +11330,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:11">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -11322,17 +11339,17 @@
       <c r="C13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="26" t="s">
         <v>173</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
@@ -11344,7 +11361,7 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:11">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -11353,7 +11370,7 @@
       <c r="C14" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
@@ -11363,13 +11380,13 @@
       <c r="G14" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" customFormat="1" spans="4:11">
-      <c r="D15" s="12"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
@@ -11379,45 +11396,45 @@
       <c r="G15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" customFormat="1" spans="1:11">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="25" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" customFormat="1" spans="1:11">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="26" t="s">
+      <c r="D17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" customFormat="1" spans="1:11">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="19" t="s">
         <v>128</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -11426,21 +11443,21 @@
       <c r="C18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="1" t="s">
         <v>178</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="26" t="s">
+      <c r="H18" s="15"/>
+      <c r="I18" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" customFormat="1" spans="1:11">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -11449,7 +11466,7 @@
       <c r="C19" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="1" t="s">
         <v>3</v>
       </c>
@@ -11459,15 +11476,15 @@
       <c r="G19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="27" t="s">
+      <c r="H19" s="15"/>
+      <c r="I19" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" customFormat="1" spans="1:11">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="19" t="s">
         <v>181</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -11476,7 +11493,7 @@
       <c r="C20" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="1" t="s">
         <v>128</v>
       </c>
@@ -11484,15 +11501,15 @@
         <v>9</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="27" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" customFormat="1" spans="1:11">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="19" t="s">
         <v>184</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -11501,7 +11518,7 @@
       <c r="C21" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="1" t="s">
         <v>133</v>
       </c>
@@ -11511,15 +11528,15 @@
       <c r="G21" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="27" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" customFormat="1" spans="1:11">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>187</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -11528,7 +11545,7 @@
       <c r="C22" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="1" t="s">
         <v>190</v>
       </c>
@@ -11538,15 +11555,15 @@
       <c r="G22" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="27" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" customFormat="1" spans="1:11">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -11555,7 +11572,7 @@
       <c r="C23" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="1" t="s">
         <v>192</v>
       </c>
@@ -11565,15 +11582,15 @@
       <c r="G23" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="27" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" customFormat="1" spans="1:11">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -11582,7 +11599,7 @@
       <c r="C24" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="1" t="s">
         <v>196</v>
       </c>
@@ -11592,15 +11609,15 @@
       <c r="G24" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="27" t="s">
+      <c r="H24" s="15"/>
+      <c r="I24" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" customFormat="1" spans="4:11">
-      <c r="D25" s="12"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="1" t="s">
         <v>199</v>
       </c>
@@ -11610,15 +11627,15 @@
       <c r="G25" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="27" t="s">
+      <c r="H25" s="15"/>
+      <c r="I25" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" customFormat="1" spans="4:11">
-      <c r="D26" s="12"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="1" t="s">
         <v>201</v>
       </c>
@@ -11628,15 +11645,15 @@
       <c r="G26" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="26" t="s">
+      <c r="H26" s="15"/>
+      <c r="I26" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
     </row>
     <row r="27" customFormat="1" spans="4:11">
-      <c r="D27" s="12"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
@@ -11646,12 +11663,12 @@
       <c r="G27" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="26" t="s">
+      <c r="H27" s="15"/>
+      <c r="I27" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" customFormat="1" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -11659,7 +11676,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="1" t="s">
         <v>41</v>
       </c>
@@ -11669,86 +11686,86 @@
       <c r="G28" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="26" t="s">
+      <c r="H28" s="13"/>
+      <c r="I28" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" customFormat="1" spans="1:11">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="28" t="s">
+      <c r="D29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" customFormat="1" spans="1:11">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="26" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" customFormat="1" spans="1:11">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="28" t="s">
+      <c r="H31" s="15"/>
+      <c r="I31" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" customFormat="1" spans="1:11">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
@@ -11758,222 +11775,222 @@
       <c r="G32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" customFormat="1" spans="1:11">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="24" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
     </row>
     <row r="34" customFormat="1" spans="1:11">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="24" t="s">
+      <c r="D34" s="15"/>
+      <c r="E34" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" customFormat="1" spans="1:11">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="24" t="s">
+      <c r="D35" s="15"/>
+      <c r="E35" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
     </row>
     <row r="36" customFormat="1" spans="1:11">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="24" t="s">
+      <c r="D36" s="15"/>
+      <c r="E36" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
     </row>
     <row r="37" customFormat="1" spans="1:11">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="24" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" customFormat="1" spans="1:11">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="24" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
     </row>
     <row r="39" customFormat="1" spans="4:11">
-      <c r="D39" s="12"/>
-      <c r="E39" s="24" t="s">
+      <c r="D39" s="15"/>
+      <c r="E39" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
     </row>
     <row r="40" customFormat="1" spans="4:11">
-      <c r="D40" s="12"/>
-      <c r="E40" s="24" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
     </row>
     <row r="41" customFormat="1" spans="4:11">
-      <c r="D41" s="12"/>
-      <c r="E41" s="24" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
     </row>
     <row r="42" customFormat="1" spans="4:11">
-      <c r="D42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
+      <c r="D42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
     </row>
     <row r="43" customFormat="1" spans="4:11">
-      <c r="D43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="D43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12493,7 +12510,7 @@
       <c r="C3" t="s">
         <v>276</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>277</v>
       </c>
     </row>
@@ -12501,22 +12518,22 @@
       <c r="B4" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="17" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="17" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="17" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="17" t="s">
         <v>282</v>
       </c>
     </row>
@@ -12530,7 +12547,7 @@
       <c r="C8" t="s">
         <v>285</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="17" t="s">
         <v>286</v>
       </c>
     </row>
@@ -12541,7 +12558,7 @@
       <c r="C9" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="17" t="s">
         <v>289</v>
       </c>
     </row>
@@ -12552,7 +12569,7 @@
       <c r="C10" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="17" t="s">
         <v>292</v>
       </c>
     </row>
@@ -12560,7 +12577,7 @@
       <c r="C11" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="17" t="s">
         <v>294</v>
       </c>
     </row>
@@ -12568,12 +12585,12 @@
       <c r="C12" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="17" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="17" t="s">
         <v>297</v>
       </c>
     </row>
@@ -12587,7 +12604,7 @@
       <c r="C14" t="s">
         <v>300</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="17" t="s">
         <v>301</v>
       </c>
     </row>
@@ -12595,7 +12612,7 @@
       <c r="B15" t="s">
         <v>302</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="17" t="s">
         <v>303</v>
       </c>
     </row>
@@ -12603,7 +12620,7 @@
       <c r="B16" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="17" t="s">
         <v>305</v>
       </c>
     </row>
@@ -12622,7 +12639,7 @@
       <c r="C18" t="s">
         <v>308</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="17" t="s">
         <v>309</v>
       </c>
     </row>
@@ -12633,7 +12650,7 @@
       <c r="C19" t="s">
         <v>310</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="17" t="s">
         <v>311</v>
       </c>
     </row>
@@ -12644,7 +12661,7 @@
       <c r="C20" t="s">
         <v>313</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="17" t="s">
         <v>314</v>
       </c>
     </row>
@@ -12655,22 +12672,22 @@
       <c r="C21" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="17" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="17" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="17" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="17" t="s">
         <v>320</v>
       </c>
     </row>
@@ -12681,7 +12698,7 @@
       <c r="C25" t="s">
         <v>322</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="17" t="s">
         <v>209</v>
       </c>
     </row>
@@ -12689,7 +12706,7 @@
       <c r="C26" t="s">
         <v>323</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="18" t="s">
         <v>324</v>
       </c>
     </row>
@@ -12697,7 +12714,7 @@
       <c r="C27" t="s">
         <v>325</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
@@ -12721,8 +12738,8 @@
   <sheetPr/>
   <dimension ref="A3:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -12821,13 +12838,13 @@
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -12853,7 +12870,7 @@
       <c r="E7" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -12885,7 +12902,7 @@
       <c r="E8" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -12920,7 +12937,7 @@
       <c r="E9" t="s">
         <v>352</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>344</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -12984,7 +13001,7 @@
       <c r="E11" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -12996,9 +13013,9 @@
       <c r="J11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="4:14">
       <c r="D12" s="1" t="s">
@@ -13007,7 +13024,7 @@
       <c r="E12" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -13019,9 +13036,9 @@
       <c r="J12" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
@@ -13033,7 +13050,7 @@
       <c r="E13" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -13269,7 +13286,7 @@
       <c r="E27" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -13289,7 +13306,7 @@
       <c r="E28" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -13309,7 +13326,7 @@
       <c r="E29" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -13318,7 +13335,7 @@
       <c r="I29" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13338,7 +13355,7 @@
       <c r="I30" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13346,7 +13363,7 @@
       <c r="D31" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>394</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -13358,7 +13375,7 @@
       <c r="I31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13366,7 +13383,7 @@
       <c r="D32" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>396</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -13378,7 +13395,7 @@
       <c r="I32" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13423,13 +13440,13 @@
       </c>
     </row>
     <row r="37" ht="17" spans="8:10">
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13440,7 +13457,7 @@
       <c r="I38" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="9" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13451,7 +13468,7 @@
       <c r="I39" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="9" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13495,7 +13512,7 @@
       <c r="I43" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="9" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13506,7 +13523,7 @@
       <c r="I44" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="9" t="s">
         <v>137</v>
       </c>
     </row>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29920" windowHeight="22480" activeTab="5"/>
+    <workbookView windowWidth="28060" windowHeight="13280" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403">
   <si>
     <t>公网地址：</t>
   </si>
@@ -1093,6 +1093,9 @@
   </si>
   <si>
     <t>执行时间</t>
+  </si>
+  <si>
+    <t>execute_time</t>
   </si>
   <si>
     <t>分类查询订单</t>
@@ -1232,9 +1235,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1281,10 +1284,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1296,31 +1322,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1333,15 +1345,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,15 +1362,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1381,7 +1378,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1394,8 +1391,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,22 +1408,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1426,7 +1415,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1477,7 +1480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,7 +1498,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,49 +1588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,13 +1612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,7 +1624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,30 +1642,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1627,31 +1654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,8 +1775,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1789,15 +1792,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1832,15 +1826,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1866,153 +1851,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10995,7 +10998,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -12738,8 +12741,8 @@
   <sheetPr/>
   <dimension ref="A3:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -12985,7 +12988,7 @@
         <v>357</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>170</v>
+        <v>358</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>39</v>
@@ -12993,10 +12996,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>152</v>
@@ -13019,10 +13022,10 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>137</v>
@@ -13042,22 +13045,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>137</v>
@@ -13085,7 +13088,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>130</v>
@@ -13097,10 +13100,10 @@
         <v>137</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>171</v>
@@ -13108,10 +13111,10 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>166</v>
@@ -13131,13 +13134,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>171</v>
@@ -13154,10 +13157,10 @@
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>171</v>
@@ -13185,7 +13188,7 @@
         <v>39</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -13225,7 +13228,7 @@
     </row>
     <row r="24" spans="4:10">
       <c r="D24" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -13270,10 +13273,10 @@
         <v>10</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>137</v>
@@ -13290,10 +13293,10 @@
         <v>137</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>137</v>
@@ -13301,19 +13304,19 @@
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>137</v>
@@ -13321,19 +13324,19 @@
     </row>
     <row r="29" ht="17" spans="4:10">
       <c r="D29" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>39</v>
@@ -13341,19 +13344,19 @@
     </row>
     <row r="30" ht="17" spans="4:10">
       <c r="D30" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>137</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>39</v>
@@ -13364,7 +13367,7 @@
         <v>141</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>137</v>
@@ -13381,10 +13384,10 @@
     </row>
     <row r="32" ht="17" spans="4:10">
       <c r="D32" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>137</v>
@@ -13423,7 +13426,7 @@
     </row>
     <row r="35" spans="8:10">
       <c r="H35" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -13474,10 +13477,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>137</v>
@@ -13485,10 +13488,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>137</v>
@@ -13496,13 +13499,13 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" ht="17" spans="8:10">

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -1235,9 +1235,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1284,6 +1284,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1292,13 +1344,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1314,15 +1360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,30 +1376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1368,24 +1384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1400,6 +1400,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1408,13 +1415,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1422,14 +1422,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,115 +1480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,13 +1504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,7 +1516,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,13 +1618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,7 +1636,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,8 +1775,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1796,6 +1805,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1806,6 +1835,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1825,101 +1869,63 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1928,94 +1934,88 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2038,11 +2038,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2050,14 +2050,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9969,7 +9969,7 @@
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9983,10 +9983,10 @@
       <c r="C3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -10001,10 +10001,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="37"/>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -10012,10 +10012,10 @@
       </c>
     </row>
     <row r="5" spans="6:8">
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -10023,10 +10023,10 @@
       </c>
     </row>
     <row r="6" spans="6:8">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -10040,10 +10040,10 @@
       <c r="B7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -10057,10 +10057,10 @@
       <c r="B8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -10074,10 +10074,10 @@
       <c r="B9" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -10092,10 +10092,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="42"/>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -10103,15 +10103,15 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="42"/>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -10136,7 +10136,7 @@
       <c r="G13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -10145,7 +10145,7 @@
       <c r="K13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10157,19 +10157,19 @@
       <c r="C14" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -10182,102 +10182,102 @@
       <c r="C15" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="6:12">
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="6:12">
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="6:12">
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="6:12">
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10288,19 +10288,19 @@
       <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="7" t="s">
         <v>72</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -10311,22 +10311,22 @@
       <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -10334,19 +10334,19 @@
       <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -10360,19 +10360,19 @@
       <c r="D23" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L23" s="4" t="s">
@@ -10383,10 +10383,10 @@
       <c r="B24" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -10395,10 +10395,10 @@
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="6:10">
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -10416,7 +10416,7 @@
       <c r="G27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -10425,24 +10425,24 @@
       <c r="K27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="6:12">
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -10450,37 +10450,37 @@
       </c>
     </row>
     <row r="29" spans="6:12">
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="6:12">
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="7" t="s">
         <v>93</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -10488,19 +10488,19 @@
       </c>
     </row>
     <row r="31" spans="6:12">
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="7" t="s">
         <v>95</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -10508,7 +10508,7 @@
       </c>
     </row>
     <row r="32" spans="6:12">
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G32" t="s">
@@ -10522,10 +10522,10 @@
       <c r="L32" s="15"/>
     </row>
     <row r="33" spans="6:12">
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -10537,24 +10537,24 @@
       <c r="K33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="6:12">
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="7" t="s">
         <v>101</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L34" s="4" t="s">
@@ -10562,19 +10562,19 @@
       </c>
     </row>
     <row r="35" spans="6:13">
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -10585,73 +10585,73 @@
       </c>
     </row>
     <row r="36" spans="6:12">
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="7" t="s">
         <v>107</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="6:12">
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="6:12">
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="10:12">
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10662,53 +10662,53 @@
       <c r="G40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="6:12">
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="6:12">
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -10716,19 +10716,19 @@
       </c>
     </row>
     <row r="43" spans="6:12">
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="7" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L43" s="4" t="s">
@@ -10736,10 +10736,10 @@
       </c>
     </row>
     <row r="44" spans="6:8">
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="7" t="s">
         <v>113</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -10747,10 +10747,10 @@
       </c>
     </row>
     <row r="45" spans="6:8">
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="7" t="s">
         <v>115</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -10758,10 +10758,10 @@
       </c>
     </row>
     <row r="46" spans="6:8">
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="7" t="s">
         <v>117</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -10769,10 +10769,10 @@
       </c>
     </row>
     <row r="47" spans="6:8">
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -10780,10 +10780,10 @@
       </c>
     </row>
     <row r="48" spans="6:8">
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="7" t="s">
         <v>121</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -10791,10 +10791,10 @@
       </c>
     </row>
     <row r="49" spans="6:8">
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -10802,10 +10802,10 @@
       </c>
     </row>
     <row r="50" spans="6:8">
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H50" s="4" t="s">
@@ -10819,15 +10819,15 @@
       <c r="G52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="6:8">
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -10835,10 +10835,10 @@
       </c>
     </row>
     <row r="54" spans="6:8">
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -10846,40 +10846,40 @@
       </c>
     </row>
     <row r="55" spans="6:8">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="6:8">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="6:8">
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="6:8">
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="6:8">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="6:8">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="6:8">
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H61" s="4" t="s">
@@ -10887,10 +10887,10 @@
       </c>
     </row>
     <row r="62" spans="6:8">
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H62" s="4" t="s">
@@ -10904,15 +10904,15 @@
       <c r="G65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="6:8">
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -10920,10 +10920,10 @@
       </c>
     </row>
     <row r="67" spans="6:8">
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H67" s="4" t="s">
@@ -10931,40 +10931,40 @@
       </c>
     </row>
     <row r="68" spans="6:8">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="6:8">
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="6:8">
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="6:8">
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
       <c r="H71" s="4"/>
     </row>
     <row r="72" spans="6:8">
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="6:8">
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="6:8">
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H74" s="4" t="s">
@@ -10972,10 +10972,10 @@
       </c>
     </row>
     <row r="75" spans="6:8">
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H75" s="4" t="s">
@@ -11090,30 +11090,30 @@
       <c r="A5" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>129</v>
       </c>
     </row>
@@ -11121,30 +11121,30 @@
       <c r="A6" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -11152,28 +11152,28 @@
       <c r="A7" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="15"/>
       <c r="I7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>144</v>
       </c>
     </row>
@@ -11181,30 +11181,30 @@
       <c r="A8" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>148</v>
       </c>
     </row>
@@ -11212,30 +11212,30 @@
       <c r="A9" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>153</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>148</v>
       </c>
     </row>
@@ -11243,30 +11243,30 @@
       <c r="A10" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>148</v>
       </c>
     </row>
@@ -11274,30 +11274,30 @@
       <c r="A11" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>150</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>148</v>
       </c>
     </row>
@@ -11305,20 +11305,20 @@
       <c r="A12" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H12" s="15"/>
@@ -11336,10 +11336,10 @@
       <c r="A13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D13" s="15"/>
@@ -11367,20 +11367,20 @@
       <c r="A14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H14" s="15"/>
@@ -11393,10 +11393,10 @@
       <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H15" s="15"/>
@@ -11440,10 +11440,10 @@
       <c r="A18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D18" s="15"/>
@@ -11463,10 +11463,10 @@
       <c r="A19" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>148</v>
       </c>
       <c r="D19" s="15"/>
@@ -11490,20 +11490,20 @@
       <c r="A20" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="15"/>
       <c r="I20" s="30" t="s">
         <v>183</v>
@@ -11515,20 +11515,20 @@
       <c r="A21" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>148</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>148</v>
       </c>
       <c r="H21" s="15"/>
@@ -11542,20 +11542,20 @@
       <c r="A22" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>189</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>148</v>
       </c>
       <c r="H22" s="15"/>
@@ -11569,20 +11569,20 @@
       <c r="A23" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>194</v>
       </c>
       <c r="H23" s="15"/>
@@ -11596,20 +11596,20 @@
       <c r="A24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="7" t="s">
         <v>194</v>
       </c>
       <c r="H24" s="15"/>
@@ -11624,10 +11624,10 @@
       <c r="E25" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>148</v>
       </c>
       <c r="H25" s="15"/>
@@ -11642,10 +11642,10 @@
       <c r="E26" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="7" t="s">
         <v>203</v>
       </c>
       <c r="H26" s="15"/>
@@ -11660,10 +11660,10 @@
       <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H27" s="15"/>
@@ -11683,10 +11683,10 @@
       <c r="E28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H28" s="13"/>
@@ -12073,7 +12073,7 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -12082,7 +12082,7 @@
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -12093,19 +12093,19 @@
       <c r="C5" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>239</v>
       </c>
     </row>
@@ -12113,19 +12113,19 @@
       <c r="C6" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>239</v>
       </c>
     </row>
@@ -12133,19 +12133,19 @@
       <c r="C7" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>239</v>
       </c>
     </row>
@@ -12153,39 +12153,39 @@
       <c r="C8" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12193,24 +12193,24 @@
       <c r="C10" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>253</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -12222,7 +12222,7 @@
       <c r="G11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -12236,7 +12236,7 @@
       <c r="D12" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -12245,21 +12245,21 @@
       <c r="H12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>253</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -12270,62 +12270,62 @@
       </c>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -12362,10 +12362,10 @@
       <c r="C22" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>245</v>
       </c>
     </row>
@@ -12373,10 +12373,10 @@
       <c r="C23" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>245</v>
       </c>
     </row>
@@ -12384,10 +12384,10 @@
       <c r="C24" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>249</v>
       </c>
     </row>
@@ -12395,7 +12395,7 @@
       <c r="C25" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -12403,7 +12403,7 @@
       </c>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>266</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -12420,40 +12420,40 @@
       <c r="D27" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -12741,8 +12741,8 @@
   <sheetPr/>
   <dimension ref="A3:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -12789,7 +12789,7 @@
       <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="4" t="s">
@@ -12821,10 +12821,10 @@
       <c r="L5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12835,28 +12835,28 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12870,7 +12870,7 @@
       <c r="D7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>243</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -12882,16 +12882,16 @@
       <c r="I7" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="7" t="s">
         <v>344</v>
       </c>
     </row>
@@ -12902,7 +12902,7 @@
       <c r="D8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -12911,19 +12911,19 @@
       <c r="H8" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="7" t="s">
         <v>344</v>
       </c>
     </row>
@@ -12946,10 +12946,10 @@
       <c r="H9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -12958,7 +12958,7 @@
       <c r="M9" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="7" t="s">
         <v>344</v>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       <c r="D10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>356</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -12978,10 +12978,10 @@
       <c r="H10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -13001,7 +13001,7 @@
       <c r="D11" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>152</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -13010,7 +13010,7 @@
       <c r="H11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="7" t="s">
         <v>155</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -13062,7 +13062,7 @@
       <c r="I13" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13070,7 +13070,7 @@
       <c r="D14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -13093,7 +13093,7 @@
       <c r="D15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>155</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -13116,7 +13116,7 @@
       <c r="D16" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>166</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -13151,7 +13151,7 @@
       <c r="I17" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13159,7 +13159,7 @@
       <c r="D18" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>376</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -13222,7 +13222,7 @@
       <c r="I23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13238,7 +13238,7 @@
       <c r="I24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13258,7 +13258,7 @@
       <c r="I25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13266,7 +13266,7 @@
       <c r="D26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -13278,7 +13278,7 @@
       <c r="I26" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13286,7 +13286,7 @@
       <c r="D27" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>243</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -13298,7 +13298,7 @@
       <c r="I27" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13306,7 +13306,7 @@
       <c r="D28" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>384</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -13318,7 +13318,7 @@
       <c r="I28" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       <c r="D29" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>388</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -13338,7 +13338,7 @@
       <c r="I29" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13346,7 +13346,7 @@
       <c r="D30" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>392</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -13378,7 +13378,7 @@
       <c r="I31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13403,24 +13403,24 @@
       </c>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13443,13 +13443,13 @@
       </c>
     </row>
     <row r="37" ht="17" spans="8:10">
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="11" t="s">
         <v>8</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13457,7 +13457,7 @@
       <c r="H38" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="7" t="s">
         <v>243</v>
       </c>
       <c r="J38" s="9" t="s">
@@ -13479,10 +13479,10 @@
       <c r="H40" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13490,10 +13490,10 @@
       <c r="H41" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13501,10 +13501,10 @@
       <c r="H42" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="7" t="s">
         <v>402</v>
       </c>
     </row>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13280" activeTab="5"/>
+    <workbookView windowWidth="29920" windowHeight="22480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -1235,9 +1235,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1291,20 +1291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1313,24 +1299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,16 +1314,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1376,31 +1373,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1408,6 +1383,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1421,15 +1403,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,7 +1480,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,7 +1552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,13 +1570,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,31 +1630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,103 +1648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,21 +1790,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1814,13 +1799,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1840,6 +1829,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1855,17 +1859,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1874,145 +1874,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -10997,8 +10997,8 @@
   <sheetPr/>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -11213,12 +11213,11 @@
         <v>149</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="15"/>
       <c r="E9" s="1" t="s">
         <v>151</v>
       </c>
@@ -11244,12 +11243,11 @@
         <v>156</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="15"/>
       <c r="E10" s="1" t="s">
         <v>158</v>
       </c>
@@ -12741,7 +12739,7 @@
   <sheetPr/>
   <dimension ref="A3:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="B14" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="B14" workbookViewId="0">
       <selection activeCell="D33" sqref="D33:F34"/>
     </sheetView>
   </sheetViews>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29920" windowHeight="22480" activeTab="2"/>
+    <workbookView windowWidth="28060" windowHeight="15460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417">
   <si>
     <t>公网地址：</t>
   </si>
@@ -396,7 +396,7 @@
     <t>Merchant 商户基本信息表（mysql）</t>
   </si>
   <si>
-    <t>Goods商品基本信息表(mysql)</t>
+    <t>Commodity商品基本表(mongo)</t>
   </si>
   <si>
     <t>shopping_cart 购物车表(mongo)</t>
@@ -411,6 +411,15 @@
     <t>bigint(32) auto increasement</t>
   </si>
   <si>
+    <t>商品SPU</t>
+  </si>
+  <si>
+    <t>spuId</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>商户号</t>
   </si>
   <si>
@@ -420,673 +429,706 @@
     <t>varchar(16)</t>
   </si>
   <si>
+    <t>所属商户</t>
+  </si>
+  <si>
+    <t>merchantId</t>
+  </si>
+  <si>
+    <t>购物车编号</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>varchar（32）</t>
+  </si>
+  <si>
+    <t>注册时间</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>varchar(16) yyyy-MM-dd HH:mm:ss</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>bigint(16)</t>
+  </si>
+  <si>
+    <t>商户名称</t>
+  </si>
+  <si>
+    <t>商品简介</t>
+  </si>
+  <si>
     <t>商品编号</t>
   </si>
   <si>
     <t>goods_id</t>
   </si>
   <si>
-    <t>购物车编号</t>
-  </si>
-  <si>
-    <t>cart_id</t>
-  </si>
-  <si>
-    <t>varchar（32）</t>
-  </si>
-  <si>
-    <t>注册时间</t>
-  </si>
-  <si>
-    <t>register_date</t>
-  </si>
-  <si>
-    <t>varchar(16) yyyy-MM-dd HH:mm:ss</t>
-  </si>
-  <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>用户编号</t>
-  </si>
-  <si>
-    <t>bigint(16)</t>
-  </si>
-  <si>
-    <t>商户名称</t>
-  </si>
-  <si>
-    <t>商品类型</t>
+    <t>商户类型</t>
+  </si>
+  <si>
+    <t>varchar(8)</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>商户类型</t>
-  </si>
-  <si>
-    <t>varchar(8)</t>
-  </si>
-  <si>
     <t>商品价格</t>
   </si>
   <si>
+    <t>medias</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>商户编号</t>
+  </si>
+  <si>
+    <t>merchant_id</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>contacter</t>
+  </si>
+  <si>
+    <t>商品分类</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>应用领域</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>商户状态</t>
+  </si>
+  <si>
+    <t>商品详情</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>cdt</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>商品状态</t>
+  </si>
+  <si>
+    <t>mdt</t>
+  </si>
+  <si>
+    <t>货品连接</t>
+  </si>
+  <si>
+    <t>goodsItemLink</t>
+  </si>
+  <si>
+    <t>Merchant_Detail 商户详情信息（mongo）</t>
+  </si>
+  <si>
+    <t>收货地址信息(address)</t>
+  </si>
+  <si>
+    <t>id （id）bigint 64 primary key</t>
+  </si>
+  <si>
+    <t>用户id （user_account）bigint 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GoodsItem货品表(mongo)</t>
+  </si>
+  <si>
+    <t>地址编号 (addr_id) bigint 64</t>
+  </si>
+  <si>
+    <t>商户描述</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>省行政编号 (province_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>商户logo</t>
+  </si>
+  <si>
+    <t>logo_url</t>
+  </si>
+  <si>
+    <t>货品编号SKU</t>
+  </si>
+  <si>
+    <t>goodsId</t>
+  </si>
+  <si>
+    <t>省名 (province_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>商户广告</t>
+  </si>
+  <si>
+    <t>advertisements</t>
+  </si>
+  <si>
+    <t>advertisement 集合</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>市行政编号(city_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>所属产品</t>
+  </si>
+  <si>
+    <t>市名 (city_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>规格说明</t>
+  </si>
+  <si>
+    <t>itemOutline</t>
+  </si>
+  <si>
+    <t>区行政编号(distrc_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>货品库存</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>区名 (distrc_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>货品状态</t>
+  </si>
+  <si>
+    <t>goodsStatus</t>
+  </si>
+  <si>
+    <t>是否默认 (default)varchar 8</t>
+  </si>
+  <si>
+    <t>折扣价格</t>
+  </si>
+  <si>
+    <t>discountPrice</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>收货地址 (addr_detail) varchar 512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 数据字典表（mongo）</t>
+  </si>
+  <si>
+    <t>销售价格</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>商户编号</t>
-  </si>
-  <si>
-    <t>merchant_id</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>contacter</t>
+    <t>收货手机号码 (connector_mobile)varchar 64</t>
+  </si>
+  <si>
+    <t>收货人姓名 (connector_name)varchar 32</t>
+  </si>
+  <si>
+    <t>创建时间（cdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>数据组</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>修改时间（cdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>键名</t>
+  </si>
+  <si>
+    <t>key_name</t>
+  </si>
+  <si>
+    <t>Media 多媒体信息(mongo)</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>多媒体编号</t>
+  </si>
+  <si>
+    <t>media_id</t>
+  </si>
+  <si>
+    <t>作用域</t>
+  </si>
+  <si>
+    <t>scpoe</t>
+  </si>
+  <si>
+    <t>stirng</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>存储路径</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>SkuConfig SKU配置项(mongo)</t>
+  </si>
+  <si>
+    <t>skuConfigId</t>
+  </si>
+  <si>
+    <t>所属spu</t>
+  </si>
+  <si>
+    <t>配置名</t>
+  </si>
+  <si>
+    <t>配置值</t>
+  </si>
+  <si>
+    <t>现金支付</t>
+  </si>
+  <si>
+    <t>pay_order 支付订单表</t>
+  </si>
+  <si>
+    <t>fund_transfer 资金流水表</t>
+  </si>
+  <si>
+    <t>现金退款</t>
+  </si>
+  <si>
+    <t>支付订单编号</t>
+  </si>
+  <si>
+    <t>pay_order_id</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>内部流水号</t>
+  </si>
+  <si>
+    <t>inner_trans_no</t>
+  </si>
+  <si>
+    <t>商品订单编号</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>支付金额</t>
+  </si>
+  <si>
+    <t>varchat(32)</t>
+  </si>
+  <si>
+    <t>外部流水号</t>
+  </si>
+  <si>
+    <t>out_trans_no</t>
+  </si>
+  <si>
+    <t>支付渠道</t>
+  </si>
+  <si>
+    <t>varchat(16)</t>
+  </si>
+  <si>
+    <t>支付订单类型</t>
+  </si>
+  <si>
+    <t>pay_type</t>
+  </si>
+  <si>
+    <t>交易类型</t>
+  </si>
+  <si>
+    <t>收款机构</t>
+  </si>
+  <si>
+    <t>支付状态</t>
+  </si>
+  <si>
+    <t>pay_status</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>varchat(1024)</t>
+  </si>
+  <si>
+    <t>gmt_create</t>
+  </si>
+  <si>
+    <t>gmt_modify</t>
+  </si>
+  <si>
+    <t>refund 退款表（从哪个渠道申请退款就退到那里）</t>
+  </si>
+  <si>
+    <t>退单订单号</t>
+  </si>
+  <si>
+    <t>refund_order_id</t>
+  </si>
+  <si>
+    <t>退款金额</t>
+  </si>
+  <si>
+    <t>退款渠道</t>
+  </si>
+  <si>
+    <t>退款商户</t>
+  </si>
+  <si>
+    <t>merchent_id</t>
+  </si>
+  <si>
+    <t>退款状态</t>
+  </si>
+  <si>
+    <t>refund_status</t>
+  </si>
+  <si>
+    <t>管理端</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>课程管理</t>
+  </si>
+  <si>
+    <t>新增/编辑课程</t>
+  </si>
+  <si>
+    <t>查看课程</t>
+  </si>
+  <si>
+    <t>发布课程</t>
+  </si>
+  <si>
+    <t>购买课程</t>
+  </si>
+  <si>
+    <t>体征信息（customer_body_info）</t>
+  </si>
+  <si>
+    <t>修改课程发布计划</t>
+  </si>
+  <si>
+    <t>id (id)</t>
+  </si>
+  <si>
+    <t>用户id （customer_id）bigint 64</t>
+  </si>
+  <si>
+    <t>记录编号 (record_id) varchar(64)</t>
+  </si>
+  <si>
+    <t>登记日期 register_date (datetime)</t>
+  </si>
+  <si>
+    <t>课程预约</t>
+  </si>
+  <si>
+    <t>受理预约</t>
+  </si>
+  <si>
+    <t>预约课程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身高 cm  (height) varchar(8) </t>
+  </si>
+  <si>
+    <t>后台预约</t>
+  </si>
+  <si>
+    <t>取消预约</t>
+  </si>
+  <si>
+    <t>体重 kg (weight) varchar(8)</t>
+  </si>
+  <si>
+    <t>后台取消</t>
+  </si>
+  <si>
+    <t>课程评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胸围 cm (chest) varchar(8) </t>
+  </si>
+  <si>
+    <t>分享课程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰围 cm (waistline) varchar(8) </t>
+  </si>
+  <si>
+    <t>查看预约记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臀围 cm (hipline) varchar(8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰臀比 (waist_hip_ratio)  varchar(8) </t>
+  </si>
+  <si>
+    <t>视频管理</t>
+  </si>
+  <si>
+    <t>上传视频</t>
+  </si>
+  <si>
+    <t>查看视频</t>
+  </si>
+  <si>
+    <t>左大臂围  cm (left_arm_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>编辑视频说明</t>
+  </si>
+  <si>
+    <t>右大臂围  cm (right_arm_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>删除视频</t>
+  </si>
+  <si>
+    <t>左大腿围  cm (left_thigh_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>右大腿围   cm (right_thigh_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>打卡挑战</t>
+  </si>
+  <si>
+    <t>发起挑战</t>
+  </si>
+  <si>
+    <t xml:space="preserve">体脂率 % (fat percentage) varchar(8) </t>
+  </si>
+  <si>
+    <t>查询挑战计划</t>
+  </si>
+  <si>
+    <t>心率  次/分 (heart_rate) varchar(8)</t>
+  </si>
+  <si>
+    <t>管理挑战计划</t>
+  </si>
+  <si>
+    <t>参与挑战</t>
+  </si>
+  <si>
+    <t>血压(收缩压)  mm/Hg (sdp) varchar(8)</t>
+  </si>
+  <si>
+    <t>挑战统计</t>
+  </si>
+  <si>
+    <t>打卡记录</t>
+  </si>
+  <si>
+    <t>血压(舒张压) mm/Hg (dbp) varchar(8)</t>
+  </si>
+  <si>
+    <t>脂肪含量 kg (fat_content) varchar(8)</t>
+  </si>
+  <si>
+    <t>骨骼肌含量 kg (muscle_content) varchar(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 体质指数 (bmi) varchar(8)</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>新增体征信息</t>
+  </si>
+  <si>
+    <t>查询历史体征信息</t>
+  </si>
+  <si>
+    <t>修改时间（mdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>查询训练数据</t>
+  </si>
+  <si>
+    <t>管理个人训练计划</t>
+  </si>
+  <si>
+    <t>身高/体重的（二次幂）</t>
+  </si>
+  <si>
+    <t>订单操作日志 (order_operate_log)表</t>
+  </si>
+  <si>
+    <t>受理订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>Order 订单信息(mysql)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">订单包 (order_package)表 </t>
+  </si>
+  <si>
+    <t>生成订单包</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>关闭订单</t>
+  </si>
+  <si>
+    <t>操作者编号</t>
+  </si>
+  <si>
+    <t>operator_id</t>
+  </si>
+  <si>
+    <t>申请退货</t>
+  </si>
+  <si>
+    <t>订单退款（付款未发货）</t>
+  </si>
+  <si>
+    <t>订单包号</t>
+  </si>
+  <si>
+    <t>order_package_id</t>
+  </si>
+  <si>
+    <t>操作者类型</t>
+  </si>
+  <si>
+    <t>operator_role</t>
+  </si>
+  <si>
+    <t>varchar（16）</t>
+  </si>
+  <si>
+    <t>订单退货（付款已发货）</t>
+  </si>
+  <si>
+    <t>购物车号</t>
+  </si>
+  <si>
+    <t>执行动作</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>跟踪订单</t>
+  </si>
+  <si>
+    <t>跟踪发货信息</t>
+  </si>
+  <si>
+    <t>执行结果</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>跟踪退货信息</t>
   </si>
   <si>
     <t>商品数量</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>contact_phone</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>商品状态</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>商户状态</t>
-  </si>
-  <si>
-    <t>所属商户</t>
-  </si>
-  <si>
-    <t>cdt</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>虚拟产品</t>
-  </si>
-  <si>
-    <t>virtual</t>
-  </si>
-  <si>
-    <t>mdt</t>
-  </si>
-  <si>
-    <t>Merchant_Detail 商户详情信息（mongo）</t>
-  </si>
-  <si>
-    <t>收货地址信息(address)</t>
-  </si>
-  <si>
-    <t>id （id）bigint 64 primary key</t>
-  </si>
-  <si>
-    <t>Goods_Detail 商品详情(mongo)</t>
-  </si>
-  <si>
-    <t>用户id （user_account）bigint 64</t>
-  </si>
-  <si>
-    <t>地址编号 (addr_id) bigint 64</t>
-  </si>
-  <si>
-    <t>商户描述</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>省行政编号 (province_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>商户logo</t>
-  </si>
-  <si>
-    <t>logo_url</t>
-  </si>
-  <si>
-    <t>省名 (province_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>商户广告</t>
-  </si>
-  <si>
-    <t>advertisements</t>
-  </si>
-  <si>
-    <t>advertisement 集合</t>
-  </si>
-  <si>
-    <t>商品简介</t>
-  </si>
-  <si>
-    <t>市行政编号(city_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>主要成分</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>市名 (city_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>适用场景</t>
-  </si>
-  <si>
-    <t>scenes</t>
-  </si>
-  <si>
-    <t>区行政编号(distrc_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>商品详情</t>
-  </si>
-  <si>
-    <t>区名 (distrc_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>多媒体</t>
-  </si>
-  <si>
-    <t>medias</t>
-  </si>
-  <si>
-    <t>media[]</t>
-  </si>
-  <si>
-    <t>是否默认 (default)varchar 8</t>
-  </si>
-  <si>
-    <t>收货地址 (addr_detail) varchar 512</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 数据字典表（mongo）</t>
-  </si>
-  <si>
-    <t>收货手机号码 (connector_mobile)varchar 64</t>
-  </si>
-  <si>
-    <t>收货人姓名 (connector_name)varchar 32</t>
-  </si>
-  <si>
-    <t>创建时间（cdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>数据组</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>Media 多媒体信息(mongo)</t>
-  </si>
-  <si>
-    <t>修改时间（cdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>键</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>键名</t>
-  </si>
-  <si>
-    <t>key_name</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>多媒体编号</t>
-  </si>
-  <si>
-    <t>media_id</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>多媒体名</t>
-  </si>
-  <si>
-    <t>作用域</t>
-  </si>
-  <si>
-    <t>scpoe</t>
-  </si>
-  <si>
-    <t>stirng</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
-  </si>
-  <si>
-    <t>存储路径</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>现金支付</t>
-  </si>
-  <si>
-    <t>pay_order 支付订单表</t>
-  </si>
-  <si>
-    <t>fund_transfer 资金流水表</t>
-  </si>
-  <si>
-    <t>现金退款</t>
-  </si>
-  <si>
-    <t>支付订单编号</t>
-  </si>
-  <si>
-    <t>pay_order_id</t>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-  </si>
-  <si>
-    <t>内部流水号</t>
-  </si>
-  <si>
-    <t>inner_trans_no</t>
-  </si>
-  <si>
-    <t>商品订单编号</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>支付金额</t>
-  </si>
-  <si>
-    <t>varchat(32)</t>
-  </si>
-  <si>
-    <t>外部流水号</t>
-  </si>
-  <si>
-    <t>out_trans_no</t>
-  </si>
-  <si>
-    <t>支付渠道</t>
-  </si>
-  <si>
-    <t>varchat(16)</t>
-  </si>
-  <si>
-    <t>支付订单类型</t>
-  </si>
-  <si>
-    <t>pay_type</t>
-  </si>
-  <si>
-    <t>交易类型</t>
-  </si>
-  <si>
-    <t>收款机构</t>
-  </si>
-  <si>
-    <t>支付状态</t>
-  </si>
-  <si>
-    <t>pay_status</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>memo</t>
-  </si>
-  <si>
-    <t>varchat(1024)</t>
-  </si>
-  <si>
-    <t>gmt_create</t>
-  </si>
-  <si>
-    <t>gmt_modify</t>
-  </si>
-  <si>
-    <t>refund 退款表（从哪个渠道申请退款就退到那里）</t>
-  </si>
-  <si>
-    <t>退单订单号</t>
-  </si>
-  <si>
-    <t>refund_order_id</t>
-  </si>
-  <si>
-    <t>退款金额</t>
-  </si>
-  <si>
-    <t>退款渠道</t>
-  </si>
-  <si>
-    <t>退款商户</t>
-  </si>
-  <si>
-    <t>merchent_id</t>
-  </si>
-  <si>
-    <t>退款状态</t>
-  </si>
-  <si>
-    <t>refund_status</t>
-  </si>
-  <si>
-    <t>管理端</t>
-  </si>
-  <si>
-    <t>客户端</t>
-  </si>
-  <si>
-    <t>课程管理</t>
-  </si>
-  <si>
-    <t>新增/编辑课程</t>
-  </si>
-  <si>
-    <t>查看课程</t>
-  </si>
-  <si>
-    <t>发布课程</t>
-  </si>
-  <si>
-    <t>购买课程</t>
-  </si>
-  <si>
-    <t>体征信息（customer_body_info）</t>
-  </si>
-  <si>
-    <t>修改课程发布计划</t>
-  </si>
-  <si>
-    <t>id (id)</t>
-  </si>
-  <si>
-    <t>用户id （customer_id）bigint 64</t>
-  </si>
-  <si>
-    <t>记录编号 (record_id) varchar(64)</t>
-  </si>
-  <si>
-    <t>登记日期 register_date (datetime)</t>
-  </si>
-  <si>
-    <t>课程预约</t>
-  </si>
-  <si>
-    <t>受理预约</t>
-  </si>
-  <si>
-    <t>预约课程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">身高 cm  (height) varchar(8) </t>
-  </si>
-  <si>
-    <t>后台预约</t>
-  </si>
-  <si>
-    <t>取消预约</t>
-  </si>
-  <si>
-    <t>体重 kg (weight) varchar(8)</t>
-  </si>
-  <si>
-    <t>后台取消</t>
-  </si>
-  <si>
-    <t>课程评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胸围 cm (chest) varchar(8) </t>
-  </si>
-  <si>
-    <t>分享课程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腰围 cm (waistline) varchar(8) </t>
-  </si>
-  <si>
-    <t>查看预约记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">臀围 cm (hipline) varchar(8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">腰臀比 (waist_hip_ratio)  varchar(8) </t>
-  </si>
-  <si>
-    <t>视频管理</t>
-  </si>
-  <si>
-    <t>上传视频</t>
-  </si>
-  <si>
-    <t>查看视频</t>
-  </si>
-  <si>
-    <t>左大臂围  cm (left_arm_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>编辑视频说明</t>
-  </si>
-  <si>
-    <t>右大臂围  cm (right_arm_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>删除视频</t>
-  </si>
-  <si>
-    <t>左大腿围  cm (left_thigh_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>右大腿围   cm (right_thigh_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>打卡挑战</t>
-  </si>
-  <si>
-    <t>发起挑战</t>
-  </si>
-  <si>
-    <t xml:space="preserve">体脂率 % (fat percentage) varchar(8) </t>
-  </si>
-  <si>
-    <t>查询挑战计划</t>
-  </si>
-  <si>
-    <t>心率  次/分 (heart_rate) varchar(8)</t>
-  </si>
-  <si>
-    <t>管理挑战计划</t>
-  </si>
-  <si>
-    <t>参与挑战</t>
-  </si>
-  <si>
-    <t>血压(收缩压)  mm/Hg (sdp) varchar(8)</t>
-  </si>
-  <si>
-    <t>挑战统计</t>
-  </si>
-  <si>
-    <t>打卡记录</t>
-  </si>
-  <si>
-    <t>血压(舒张压) mm/Hg (dbp) varchar(8)</t>
-  </si>
-  <si>
-    <t>脂肪含量 kg (fat_content) varchar(8)</t>
-  </si>
-  <si>
-    <t>骨骼肌含量 kg (muscle_content) varchar(8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 体质指数 (bmi) varchar(8)</t>
-  </si>
-  <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>新增体征信息</t>
-  </si>
-  <si>
-    <t>查询历史体征信息</t>
-  </si>
-  <si>
-    <t>修改时间（mdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>查询训练数据</t>
-  </si>
-  <si>
-    <t>管理个人训练计划</t>
-  </si>
-  <si>
-    <t>身高/体重的（二次幂）</t>
-  </si>
-  <si>
-    <t>订单操作日志 (order_operate_log)表</t>
-  </si>
-  <si>
-    <t>受理订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>Order 订单信息(mysql)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">订单包 (order_package)表 </t>
-  </si>
-  <si>
-    <t>生成订单包</t>
-  </si>
-  <si>
-    <t>订单编号</t>
-  </si>
-  <si>
-    <t>关闭订单</t>
-  </si>
-  <si>
-    <t>操作者编号</t>
-  </si>
-  <si>
-    <t>operator_id</t>
-  </si>
-  <si>
-    <t>申请退货</t>
-  </si>
-  <si>
-    <t>订单退款（付款未发货）</t>
-  </si>
-  <si>
-    <t>订单包号</t>
-  </si>
-  <si>
-    <t>order_package_id</t>
-  </si>
-  <si>
-    <t>操作者类型</t>
-  </si>
-  <si>
-    <t>operator_role</t>
-  </si>
-  <si>
-    <t>varchar（16）</t>
-  </si>
-  <si>
-    <t>订单退货（付款已发货）</t>
-  </si>
-  <si>
-    <t>购物车号</t>
-  </si>
-  <si>
-    <t>执行动作</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>跟踪订单</t>
-  </si>
-  <si>
-    <t>跟踪发货信息</t>
-  </si>
-  <si>
-    <t>商品分类</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>执行结果</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>跟踪退货信息</t>
   </si>
   <si>
     <t>num</t>
@@ -1235,12 +1277,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,9 +1313,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体-简"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0000C0"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1285,7 +1339,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,13 +1360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1314,38 +1368,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1357,17 +1383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1381,15 +1399,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,15 +1416,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1427,9 +1438,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,31 +1534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,91 +1546,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,7 +1582,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,19 +1624,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,7 +1660,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,15 +1829,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1869,157 +1914,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2098,8 +2152,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2116,7 +2176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9958,11 +10018,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9974,13 +10034,13 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -9994,13 +10054,13 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="39"/>
       <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
@@ -10034,10 +10094,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -10051,10 +10111,10 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -10068,10 +10128,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="41" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -10085,13 +10145,13 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="44"/>
       <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
@@ -10104,10 +10164,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="44"/>
       <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
@@ -10119,17 +10179,17 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="42"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="42"/>
+      <c r="D13" s="44"/>
       <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
@@ -10151,10 +10211,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="15"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -10179,7 +10239,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="45" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -10995,10 +11055,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -11007,7 +11067,7 @@
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="35.6153846153846" customWidth="1"/>
     <col min="4" max="4" width="9" style="15"/>
-    <col min="5" max="5" width="11.6153846153846" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.6923076923077" style="15" customWidth="1"/>
     <col min="6" max="6" width="13.7692307692308" style="15" customWidth="1"/>
     <col min="7" max="7" width="28.9230769230769" style="15" customWidth="1"/>
     <col min="8" max="8" width="14.8365384615385" style="15" customWidth="1"/>
@@ -11098,13 +11158,13 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
+        <v>130</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="1" t="s">
@@ -11119,202 +11179,204 @@
     </row>
     <row r="6" customFormat="1" spans="1:11">
       <c r="A6" s="19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:11">
       <c r="A7" s="19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="H7" s="15"/>
       <c r="I7" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:11">
       <c r="A9" s="19" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>156</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:11">
       <c r="A10" s="19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:11">
       <c r="A11" s="19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:11">
       <c r="A12" s="19" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>131</v>
+        <v>174</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>132</v>
@@ -11324,10 +11386,10 @@
         <v>37</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:11">
@@ -11335,30 +11397,30 @@
         <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>150</v>
+      <c r="G13" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:11">
@@ -11366,20 +11428,20 @@
         <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -11388,14 +11450,14 @@
     </row>
     <row r="15" customFormat="1" spans="4:11">
       <c r="D15" s="15"/>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>174</v>
+      <c r="E15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>176</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -11404,14 +11466,23 @@
     </row>
     <row r="16" customFormat="1" spans="1:11">
       <c r="A16" s="20" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="15"/>
+      <c r="E16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="28" t="s">
-        <v>176</v>
+      <c r="I16" s="30" t="s">
+        <v>183</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
@@ -11428,8 +11499,8 @@
       </c>
       <c r="D17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="29" t="s">
-        <v>177</v>
+      <c r="I17" s="31" t="s">
+        <v>184</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -11445,120 +11516,113 @@
         <v>129</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="29" t="s">
-        <v>179</v>
+      <c r="I18" s="31" t="s">
+        <v>185</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
     <row r="19" customFormat="1" spans="1:11">
       <c r="A19" s="19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="30" t="s">
-        <v>180</v>
+      <c r="I19" s="32" t="s">
+        <v>187</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
     <row r="20" customFormat="1" spans="1:11">
       <c r="A20" s="19" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H20" s="15"/>
-      <c r="I20" s="30" t="s">
-        <v>183</v>
+      <c r="I20" s="32" t="s">
+        <v>190</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
     </row>
     <row r="21" customFormat="1" spans="1:11">
       <c r="A21" s="19" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>193</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>194</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="30" t="s">
-        <v>186</v>
+      <c r="I21" s="32" t="s">
+        <v>195</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
     </row>
     <row r="22" customFormat="1" spans="1:11">
       <c r="A22" s="19" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>144</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="30" t="s">
-        <v>191</v>
+      <c r="I22" s="32" t="s">
+        <v>200</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
@@ -11568,24 +11632,24 @@
         <v>37</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="E23" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>193</v>
+      <c r="E23" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="30" t="s">
-        <v>195</v>
+      <c r="I23" s="32" t="s">
+        <v>202</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
@@ -11595,24 +11659,24 @@
         <v>41</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="H24" s="15"/>
-      <c r="I24" s="30" t="s">
-        <v>198</v>
+      <c r="I24" s="32" t="s">
+        <v>205</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -11620,17 +11684,17 @@
     <row r="25" customFormat="1" spans="4:11">
       <c r="D25" s="15"/>
       <c r="E25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>182</v>
+        <v>206</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="I25" s="30" t="s">
-        <v>200</v>
+      <c r="I25" s="32" t="s">
+        <v>208</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -11638,17 +11702,17 @@
     <row r="26" customFormat="1" spans="4:11">
       <c r="D26" s="15"/>
       <c r="E26" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>210</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="29" t="s">
-        <v>204</v>
+      <c r="I26" s="31" t="s">
+        <v>211</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -11656,40 +11720,40 @@
     <row r="27" customFormat="1" spans="4:11">
       <c r="D27" s="15"/>
       <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>170</v>
+        <v>212</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="29" t="s">
-        <v>205</v>
+      <c r="I27" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
     </row>
     <row r="28" customFormat="1" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="15"/>
       <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>174</v>
+        <v>217</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>218</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="H28" s="13"/>
-      <c r="I28" s="29" t="s">
-        <v>207</v>
+      <c r="I28" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -11705,9 +11769,18 @@
         <v>4</v>
       </c>
       <c r="D29" s="15"/>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="H29" s="15"/>
-      <c r="I29" s="31" t="s">
-        <v>208</v>
+      <c r="I29" s="33" t="s">
+        <v>220</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -11723,59 +11796,52 @@
         <v>129</v>
       </c>
       <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="H30" s="15"/>
-      <c r="I30" s="29" t="s">
-        <v>209</v>
+      <c r="I30" s="31" t="s">
+        <v>221</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
     </row>
     <row r="31" customFormat="1" spans="1:11">
       <c r="A31" s="24" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="28"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="31" t="s">
-        <v>213</v>
+      <c r="I31" s="33" t="s">
+        <v>224</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
     </row>
     <row r="32" customFormat="1" spans="1:11">
       <c r="A32" s="24" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -11783,24 +11849,20 @@
     </row>
     <row r="33" customFormat="1" spans="1:11">
       <c r="A33" s="24" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>129</v>
-      </c>
+      <c r="E33" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
@@ -11808,23 +11870,23 @@
     </row>
     <row r="34" customFormat="1" spans="1:11">
       <c r="A34" s="24" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D34" s="15"/>
-      <c r="E34" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>148</v>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
@@ -11833,23 +11895,23 @@
     </row>
     <row r="35" customFormat="1" spans="1:11">
       <c r="A35" s="25" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>148</v>
+      <c r="E35" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -11858,23 +11920,23 @@
     </row>
     <row r="36" customFormat="1" spans="1:11">
       <c r="A36" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>228</v>
+      <c r="E36" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
@@ -11886,20 +11948,20 @@
         <v>37</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D37" s="15"/>
-      <c r="E37" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>230</v>
+      <c r="E37" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>240</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
@@ -11911,20 +11973,20 @@
         <v>41</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D38" s="15"/>
-      <c r="E38" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>148</v>
+      <c r="E38" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -11933,14 +11995,14 @@
     </row>
     <row r="39" customFormat="1" spans="4:11">
       <c r="D39" s="15"/>
-      <c r="E39" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>171</v>
+      <c r="E39" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>177</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -11949,14 +12011,14 @@
     </row>
     <row r="40" customFormat="1" spans="4:11">
       <c r="D40" s="15"/>
-      <c r="E40" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>171</v>
+      <c r="E40" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>177</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -11965,15 +12027,6 @@
     </row>
     <row r="41" customFormat="1" spans="4:11">
       <c r="D41" s="15"/>
-      <c r="E41" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>171</v>
-      </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -11981,6 +12034,11 @@
     </row>
     <row r="42" customFormat="1" spans="4:11">
       <c r="D42" s="15"/>
+      <c r="E42" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -11988,20 +12046,96 @@
     </row>
     <row r="43" customFormat="1" spans="4:11">
       <c r="D43" s="15"/>
+      <c r="E43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
     </row>
+    <row r="44" spans="5:7">
+      <c r="E44" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="E45" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7">
+      <c r="E46" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7">
+      <c r="E47" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7">
+      <c r="E48" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E42:G42"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12031,15 +12165,15 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -12066,7 +12200,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -12089,107 +12223,107 @@
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="4" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="4" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="4" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="4" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>14</v>
@@ -12198,18 +12332,18 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>58</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>74</v>
@@ -12218,7 +12352,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
@@ -12229,13 +12363,13 @@
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="4" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>67</v>
@@ -12244,21 +12378,21 @@
         <v>68</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>74</v>
@@ -12275,16 +12409,16 @@
         <v>107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="3:9">
@@ -12292,19 +12426,19 @@
         <v>37</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="3:9">
@@ -12312,24 +12446,24 @@
         <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -12358,40 +12492,40 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="4" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="4" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="4" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>14</v>
@@ -12402,10 +12536,10 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
@@ -12413,24 +12547,24 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="4" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="3:5">
@@ -12438,10 +12572,10 @@
         <v>37</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="3:5">
@@ -12449,10 +12583,10 @@
         <v>41</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -12487,244 +12621,244 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="17" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="17" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" s="17" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" s="17" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="17" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="17" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="17" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C25" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E27" s="17"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -12762,25 +12896,25 @@
   <sheetData>
     <row r="3" spans="12:14">
       <c r="L3" s="3" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="3" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -12796,7 +12930,7 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -12817,18 +12951,18 @@
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -12849,144 +12983,144 @@
         <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>158</v>
+        <v>369</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>39</v>
@@ -12994,25 +13128,25 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
@@ -13020,22 +13154,22 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" s="1" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
@@ -13043,36 +13177,36 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>106</v>
@@ -13081,50 +13215,50 @@
         <v>107</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>39</v>
@@ -13132,22 +13266,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>39</v>
@@ -13155,13 +13289,13 @@
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="1" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="4:6">
@@ -13169,7 +13303,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>39</v>
@@ -13180,13 +13314,13 @@
         <v>41</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -13215,29 +13349,29 @@
     </row>
     <row r="23" spans="8:10">
       <c r="H23" s="1" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="4:10">
       <c r="D24" s="3" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="H24" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="4:10">
@@ -13251,13 +13385,13 @@
         <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="4:10">
@@ -13271,70 +13405,70 @@
         <v>10</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="1" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="1" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" ht="17" spans="4:10">
       <c r="D29" s="1" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>39</v>
@@ -13342,19 +13476,19 @@
     </row>
     <row r="30" ht="17" spans="4:10">
       <c r="D30" s="1" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>39</v>
@@ -13362,19 +13496,19 @@
     </row>
     <row r="31" ht="17" spans="4:10">
       <c r="D31" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>39</v>
@@ -13382,19 +13516,19 @@
     </row>
     <row r="32" ht="17" spans="4:10">
       <c r="D32" s="5" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>39</v>
@@ -13405,7 +13539,7 @@
         <v>37</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>39</v>
@@ -13416,7 +13550,7 @@
         <v>41</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>39</v>
@@ -13424,7 +13558,7 @@
     </row>
     <row r="35" spans="8:10">
       <c r="H35" s="3" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -13453,57 +13587,57 @@
     </row>
     <row r="38" ht="17" spans="8:10">
       <c r="H38" s="1" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" ht="17" spans="8:10">
       <c r="H39" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" s="1" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="8:10">
       <c r="H41" s="1" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="8:10">
       <c r="H42" s="1" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" ht="17" spans="8:10">
@@ -13511,10 +13645,10 @@
         <v>37</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" ht="17" spans="8:10">
@@ -13522,10 +13656,10 @@
         <v>41</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="15460" activeTab="2"/>
+    <workbookView windowWidth="28060" windowHeight="11900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -480,10 +480,10 @@
     <t>商户类型</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>varchar(8)</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>商品价格</t>
@@ -1278,9 +1278,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1339,6 +1339,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1349,14 +1356,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1375,17 +1374,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,7 +1384,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1422,11 +1413,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1438,8 +1428,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1454,36 +1476,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,7 +1540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,13 +1552,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,37 +1588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,7 +1618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,7 +1630,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,31 +1672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,31 +1702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,8 +1829,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1840,6 +1840,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1874,21 +1889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1918,8 +1918,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1928,124 +1928,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2057,19 +2057,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2560,14 +2560,14 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-                <a:latin typeface="黑体" charset="0"/>
-                <a:ea typeface="黑体" charset="0"/>
+                <a:latin typeface="黑体" panose="02010600040101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010600040101010101" charset="-122"/>
               </a:rPr>
               <a:t>用户系统</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:latin typeface="黑体" charset="0"/>
-              <a:ea typeface="黑体" charset="0"/>
+              <a:latin typeface="黑体" panose="02010600040101010101" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010600040101010101" charset="-122"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2924,14 +2924,14 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-                <a:latin typeface="黑体" charset="0"/>
-                <a:ea typeface="黑体" charset="0"/>
+                <a:latin typeface="黑体" panose="02010600040101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010600040101010101" charset="-122"/>
               </a:rPr>
               <a:t>订单系统</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:latin typeface="黑体" charset="0"/>
-              <a:ea typeface="黑体" charset="0"/>
+              <a:latin typeface="黑体" panose="02010600040101010101" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010600040101010101" charset="-122"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -3385,14 +3385,14 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-                <a:latin typeface="黑体" charset="0"/>
-                <a:ea typeface="黑体" charset="0"/>
+                <a:latin typeface="黑体" panose="02010600040101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010600040101010101" charset="-122"/>
               </a:rPr>
               <a:t>支付系统</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:latin typeface="黑体" charset="0"/>
-              <a:ea typeface="黑体" charset="0"/>
+              <a:latin typeface="黑体" panose="02010600040101010101" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010600040101010101" charset="-122"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -3848,14 +3848,14 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-                <a:latin typeface="黑体" charset="0"/>
-                <a:ea typeface="黑体" charset="0"/>
+                <a:latin typeface="黑体" panose="02010600040101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010600040101010101" charset="-122"/>
               </a:rPr>
               <a:t>通知系统</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:latin typeface="黑体" charset="0"/>
-              <a:ea typeface="黑体" charset="0"/>
+              <a:latin typeface="黑体" panose="02010600040101010101" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010600040101010101" charset="-122"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -5469,14 +5469,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:latin typeface="黑体" charset="0"/>
-              <a:ea typeface="黑体" charset="0"/>
+              <a:latin typeface="黑体" panose="02010600040101010101" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010600040101010101" charset="-122"/>
             </a:rPr>
             <a:t>统一的请求网关系统</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-            <a:latin typeface="黑体" charset="0"/>
-            <a:ea typeface="黑体" charset="0"/>
+            <a:latin typeface="黑体" panose="02010600040101010101" charset="-122"/>
+            <a:ea typeface="黑体" panose="02010600040101010101" charset="-122"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -11057,8 +11057,8 @@
   <sheetPr/>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -11305,10 +11305,10 @@
         <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>162</v>
@@ -11369,7 +11369,7 @@
         <v>172</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="1" t="s">
@@ -11958,7 +11958,7 @@
         <v>239</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>240</v>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11900" activeTab="2"/>
+    <workbookView windowWidth="28060" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -19,15 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
   <si>
     <t>公网地址：</t>
   </si>
   <si>
-    <t>色块说明</t>
-  </si>
-  <si>
-    <t>用户凭证(credential)</t>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>用户积分变化</t>
+  </si>
+  <si>
+    <t>机构信息（agent_info)</t>
   </si>
   <si>
     <t>字段</t>
@@ -36,13 +39,13 @@
     <t>数据类型</t>
   </si>
   <si>
-    <t>主模块</t>
-  </si>
-  <si>
-    <t>主要功能</t>
-  </si>
-  <si>
-    <t>次要功能</t>
+    <t>用户信息(user_info)</t>
+  </si>
+  <si>
+    <t>机构积分管理</t>
+  </si>
+  <si>
+    <t>积分配置管理</t>
   </si>
   <si>
     <t>pk  snowflake</t>
@@ -54,10 +57,16 @@
     <t xml:space="preserve">bigint </t>
   </si>
   <si>
-    <t>角色说明</t>
-  </si>
-  <si>
-    <t>mongo数据</t>
+    <t>机构积分变化</t>
+  </si>
+  <si>
+    <t>机构号</t>
+  </si>
+  <si>
+    <t>agent_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar 32 </t>
   </si>
   <si>
     <t xml:space="preserve">用户账号 </t>
@@ -66,10 +75,151 @@
     <t>user_account</t>
   </si>
   <si>
-    <t xml:space="preserve">varchar 32 </t>
-  </si>
-  <si>
-    <t>关联手机号</t>
+    <t>varchar(128)</t>
+  </si>
+  <si>
+    <t>机构名</t>
+  </si>
+  <si>
+    <t>agent_name</t>
+  </si>
+  <si>
+    <t>所属商户号</t>
+  </si>
+  <si>
+    <t>merchant_id</t>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+  </si>
+  <si>
+    <t>机构所属行业</t>
+  </si>
+  <si>
+    <t>territory</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>realname</t>
+  </si>
+  <si>
+    <t>varchar 32</t>
+  </si>
+  <si>
+    <t>机构用户对照表(agent_vs_user)</t>
+  </si>
+  <si>
+    <t>机构地址</t>
+  </si>
+  <si>
+    <t>agent_addr</t>
+  </si>
+  <si>
+    <t>varchar 1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出生日期 </t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>机构说明</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>接口列表：</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>机构logo</t>
+  </si>
+  <si>
+    <t>logo_img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性别 </t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>用户账号</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>机构证明文件夹目录</t>
+  </si>
+  <si>
+    <t>file_folder</t>
+  </si>
+  <si>
+    <t>用户昵称</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>varchar 64</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>绑定手机号</t>
+  </si>
+  <si>
+    <t>用户头像</t>
+  </si>
+  <si>
+    <t>headimg_url</t>
+  </si>
+  <si>
+    <t>用户信息编辑</t>
+  </si>
+  <si>
+    <t>前置条件：绑定手机号</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当前积分 </t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>int 11</t>
+  </si>
+  <si>
+    <t>机构积分变化表（agent_core_transfer）</t>
+  </si>
+  <si>
+    <t>USER_AGENT</t>
+  </si>
+  <si>
+    <t>用户手机号</t>
   </si>
   <si>
     <t>mobile</t>
@@ -78,741 +228,618 @@
     <t>varchar 11</t>
   </si>
   <si>
-    <t>微信凭证</t>
-  </si>
-  <si>
-    <t>wxopenid</t>
-  </si>
-  <si>
-    <t>用户</t>
-  </si>
-  <si>
-    <t>用户信息</t>
-  </si>
-  <si>
-    <t>支付宝凭证</t>
-  </si>
-  <si>
-    <t>aliopenid</t>
-  </si>
-  <si>
-    <t>平台</t>
-  </si>
-  <si>
-    <t>用户凭证</t>
-  </si>
-  <si>
-    <t>用户类型 : platform/agent/user</t>
-  </si>
-  <si>
-    <t>user_type</t>
+    <t>商户信息表（merchant_info)</t>
+  </si>
+  <si>
+    <t>是否删除(逻辑删除标识)</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>int(2)</t>
+  </si>
+  <si>
+    <t>交易发生机构</t>
+  </si>
+  <si>
+    <t>同users_core_transfer.trans_no</t>
+  </si>
+  <si>
+    <t>gmt_create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">积分变化流水号 </t>
+  </si>
+  <si>
+    <t>trans_no</t>
+  </si>
+  <si>
+    <t>商户号</t>
+  </si>
+  <si>
+    <t>gmt_modified</t>
+  </si>
+  <si>
+    <t>变更类型 ：派发/兑换</t>
+  </si>
+  <si>
+    <t>trans_type</t>
+  </si>
+  <si>
+    <t>varchar 16</t>
+  </si>
+  <si>
+    <t>商户名</t>
+  </si>
+  <si>
+    <t>merchant_name</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>用户三方凭证表(third_credentail)</t>
+  </si>
+  <si>
+    <t>变化数量</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>商户说明</t>
+  </si>
+  <si>
+    <t>交易状态</t>
+  </si>
+  <si>
+    <t>trans_status</t>
+  </si>
+  <si>
+    <t>商户类型</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>交易描述</t>
+  </si>
+  <si>
+    <t>trans_desc</t>
+  </si>
+  <si>
+    <t>varchar 256</t>
+  </si>
+  <si>
+    <t>营业范围</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>商户logo</t>
+  </si>
+  <si>
+    <t>logo_img_url</t>
+  </si>
+  <si>
+    <t>第三方标识</t>
+  </si>
+  <si>
+    <t>third_part</t>
+  </si>
+  <si>
+    <t>商户状态</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>认证方式</t>
+  </si>
+  <si>
+    <t>auth_type</t>
+  </si>
+  <si>
+    <t>三方凭证</t>
+  </si>
+  <si>
+    <t>open_id</t>
+  </si>
+  <si>
+    <t>商户三方配置信息（merchant_third_config)</t>
+  </si>
+  <si>
+    <t>三方标识</t>
+  </si>
+  <si>
+    <t>用户积分变化表（users_core_transfer）</t>
+  </si>
+  <si>
+    <t>三方应用id</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>秘钥</t>
+  </si>
+  <si>
+    <t>app_secretkey</t>
+  </si>
+  <si>
+    <t>公钥</t>
+  </si>
+  <si>
+    <t>public_key</t>
+  </si>
+  <si>
+    <t>私钥</t>
+  </si>
+  <si>
+    <t>private_key</t>
+  </si>
+  <si>
+    <t>变更类型 ：增加/扣减/冲正/冻结</t>
+  </si>
+  <si>
+    <t>证书路径</t>
+  </si>
+  <si>
+    <t>certificate_path</t>
+  </si>
+  <si>
+    <t>机构人员（agent_operator)</t>
+  </si>
+  <si>
+    <t>登录信息（login_info)</t>
+  </si>
+  <si>
+    <t>登录渠道</t>
+  </si>
+  <si>
+    <t>login_type</t>
+  </si>
+  <si>
+    <t>认证类型</t>
+  </si>
+  <si>
+    <t>访问商户号</t>
+  </si>
+  <si>
+    <t>事件类型 登录 登出</t>
+  </si>
+  <si>
+    <t>event</t>
   </si>
   <si>
     <t xml:space="preserve">varchar 16 </t>
   </si>
   <si>
-    <t>机构</t>
-  </si>
-  <si>
-    <t>用户登录登出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录密码 </t>
-  </si>
-  <si>
-    <t>login_pwd</t>
-  </si>
-  <si>
-    <t>varchar 64</t>
-  </si>
-  <si>
-    <t>普通用户</t>
-  </si>
-  <si>
-    <t>用户角色</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>用户权限</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>积分</t>
-  </si>
-  <si>
-    <t>用户积分变化</t>
-  </si>
-  <si>
-    <t>用户信息(user_info)</t>
-  </si>
-  <si>
-    <t>用户积分变化表（users_core_transfer）</t>
-  </si>
-  <si>
-    <t>机构积分管理</t>
-  </si>
-  <si>
-    <t>积分配置管理</t>
-  </si>
-  <si>
-    <t>机构积分变化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">积分变化流水号 </t>
-  </si>
-  <si>
-    <t>trans_no</t>
-  </si>
-  <si>
-    <t>varchar 32</t>
-  </si>
-  <si>
-    <t>真实姓名</t>
-  </si>
-  <si>
-    <t>realname</t>
-  </si>
-  <si>
-    <t>用户账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出生日期 </t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>变更类型 ：增加/扣减/冲正/冻结</t>
-  </si>
-  <si>
-    <t>trans_type</t>
-  </si>
-  <si>
-    <t>varchar 16</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>变化数量</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>int 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性别 </t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>交易状态</t>
-  </si>
-  <si>
-    <t>trans_status</t>
-  </si>
-  <si>
-    <t>接口列表：</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>用户昵称</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>交易发生机构</t>
-  </si>
-  <si>
-    <t>agent_id</t>
-  </si>
-  <si>
-    <t>用户注册</t>
-  </si>
-  <si>
-    <t>用户头像</t>
-  </si>
-  <si>
-    <t>headimg_url</t>
-  </si>
-  <si>
-    <t>varchar 1024</t>
-  </si>
-  <si>
-    <t>交易描述</t>
-  </si>
-  <si>
-    <t>trans_desc</t>
-  </si>
-  <si>
-    <t>varchar 256</t>
-  </si>
-  <si>
-    <t>绑定手机号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当前积分 </t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>用户信息编辑</t>
-  </si>
-  <si>
-    <t>前置条件：绑定手机号</t>
-  </si>
-  <si>
-    <t>用户手机号</t>
-  </si>
-  <si>
-    <t>USER_AGENT</t>
-  </si>
-  <si>
-    <t>登录信息（login_info)</t>
-  </si>
-  <si>
-    <t>机构用户对照表(agent_vs_user)</t>
-  </si>
-  <si>
-    <t>机构号</t>
-  </si>
-  <si>
-    <t>登陆者类型</t>
-  </si>
-  <si>
-    <t>login_type</t>
-  </si>
-  <si>
-    <t>登录渠道</t>
+    <t>登录令牌</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar 128 </t>
+  </si>
+  <si>
+    <t>过期时间</t>
+  </si>
+  <si>
+    <t>expire_time</t>
+  </si>
+  <si>
+    <t>机构权限（agent_authority)</t>
+  </si>
+  <si>
+    <t>Merchant 商户基本信息表（mysql）</t>
+  </si>
+  <si>
+    <t>Commodity商品基本表(mongo)</t>
+  </si>
+  <si>
+    <t>shopping_cart 购物车表(mongo)</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>bigint(32) auto increasement</t>
+  </si>
+  <si>
+    <t>商品SPU</t>
+  </si>
+  <si>
+    <t>spuId</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>merchant_no</t>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+  </si>
+  <si>
+    <t>所属商户</t>
+  </si>
+  <si>
+    <t>merchantId</t>
+  </si>
+  <si>
+    <t>购物车编号</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>varchar（32）</t>
+  </si>
+  <si>
+    <t>注册时间</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>varchar(16) yyyy-MM-dd HH:mm:ss</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>bigint(16)</t>
+  </si>
+  <si>
+    <t>商户名称</t>
+  </si>
+  <si>
+    <t>商品简介</t>
+  </si>
+  <si>
+    <t>商品编号</t>
+  </si>
+  <si>
+    <t>goods_id</t>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+  </si>
+  <si>
+    <t>商品价格</t>
+  </si>
+  <si>
+    <t>medias</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>商户编号</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>contacter</t>
+  </si>
+  <si>
+    <t>商品分类</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>应用领域</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>商品详情</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>cdt</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>商品状态</t>
+  </si>
+  <si>
+    <t>mdt</t>
+  </si>
+  <si>
+    <t>货品连接</t>
+  </si>
+  <si>
+    <t>goodsItemLink</t>
+  </si>
+  <si>
+    <t>Merchant_Detail 商户详情信息（mongo）</t>
+  </si>
+  <si>
+    <t>收货地址信息(address)</t>
+  </si>
+  <si>
+    <t>id （id）bigint 64 primary key</t>
+  </si>
+  <si>
+    <t>用户id （user_account）bigint 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GoodsItem货品表(mongo)</t>
+  </si>
+  <si>
+    <t>地址编号 (addr_id) bigint 64</t>
+  </si>
+  <si>
+    <t>商户描述</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>省行政编号 (province_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>logo_url</t>
+  </si>
+  <si>
+    <t>货品编号SKU</t>
+  </si>
+  <si>
+    <t>goodsId</t>
+  </si>
+  <si>
+    <t>省名 (province_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>商户广告</t>
+  </si>
+  <si>
+    <t>advertisements</t>
+  </si>
+  <si>
+    <t>advertisement 集合</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>市行政编号(city_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>所属产品</t>
+  </si>
+  <si>
+    <t>市名 (city_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>规格说明</t>
+  </si>
+  <si>
+    <t>itemOutline</t>
+  </si>
+  <si>
+    <t>区行政编号(distrc_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>货品库存</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>区名 (distrc_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>货品状态</t>
+  </si>
+  <si>
+    <t>goodsStatus</t>
+  </si>
+  <si>
+    <t>是否默认 (default)varchar 8</t>
+  </si>
+  <si>
+    <t>折扣价格</t>
+  </si>
+  <si>
+    <t>discountPrice</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>收货地址 (addr_detail) varchar 512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 数据字典表（mongo）</t>
+  </si>
+  <si>
+    <t>销售价格</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>收货手机号码 (connector_mobile)varchar 64</t>
+  </si>
+  <si>
+    <t>收货人姓名 (connector_name)varchar 32</t>
+  </si>
+  <si>
+    <t>创建时间（cdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>数据组</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>修改时间（cdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>键名</t>
+  </si>
+  <si>
+    <t>key_name</t>
+  </si>
+  <si>
+    <t>Media 多媒体信息(mongo)</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>多媒体编号</t>
+  </si>
+  <si>
+    <t>media_id</t>
+  </si>
+  <si>
+    <t>作用域</t>
+  </si>
+  <si>
+    <t>scpoe</t>
+  </si>
+  <si>
+    <t>stirng</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>存储路径</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>SkuConfig SKU配置项(mongo)</t>
+  </si>
+  <si>
+    <t>skuConfigId</t>
+  </si>
+  <si>
+    <t>所属spu</t>
+  </si>
+  <si>
+    <t>配置名</t>
+  </si>
+  <si>
+    <t>配置值</t>
+  </si>
+  <si>
+    <t>现金支付</t>
+  </si>
+  <si>
+    <t>pay_order 支付订单表</t>
+  </si>
+  <si>
+    <t>fund_transfer 资金流水表</t>
+  </si>
+  <si>
+    <t>现金退款</t>
+  </si>
+  <si>
+    <t>支付订单编号</t>
+  </si>
+  <si>
+    <t>pay_order_id</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>内部流水号</t>
+  </si>
+  <si>
+    <t>inner_trans_no</t>
+  </si>
+  <si>
+    <t>商品订单编号</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>支付金额</t>
+  </si>
+  <si>
+    <t>varchat(32)</t>
+  </si>
+  <si>
+    <t>外部流水号</t>
+  </si>
+  <si>
+    <t>out_trans_no</t>
+  </si>
+  <si>
+    <t>支付渠道</t>
   </si>
   <si>
     <t>channel</t>
   </si>
   <si>
-    <t>登录目标</t>
-  </si>
-  <si>
-    <t>事件类型 登录 登出</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>机构积分变化表（agent_core_transfer）</t>
-  </si>
-  <si>
-    <t>发生时间</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>登录令牌</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar 128 </t>
-  </si>
-  <si>
-    <t>同users_core_transfer.trans_no</t>
-  </si>
-  <si>
-    <t>过期时间</t>
-  </si>
-  <si>
-    <t>expire_time</t>
-  </si>
-  <si>
-    <t>变更类型 ：派发/兑换</t>
-  </si>
-  <si>
-    <t>机构信息（login_info)</t>
-  </si>
-  <si>
-    <t>机构名</t>
-  </si>
-  <si>
-    <t>agent_name</t>
-  </si>
-  <si>
-    <t>机构所属行业</t>
-  </si>
-  <si>
-    <t>territory</t>
-  </si>
-  <si>
-    <t>机构地址</t>
-  </si>
-  <si>
-    <t>agent_addr</t>
-  </si>
-  <si>
-    <t>机构说明</t>
-  </si>
-  <si>
-    <t>introduce</t>
-  </si>
-  <si>
-    <t>机构logo</t>
-  </si>
-  <si>
-    <t>logo_img</t>
-  </si>
-  <si>
-    <t>机构证明文件夹目录</t>
-  </si>
-  <si>
-    <t>file_folder</t>
-  </si>
-  <si>
-    <t>机构人员（agent_operator)</t>
-  </si>
-  <si>
-    <t>机构权限（agent_authority)</t>
-  </si>
-  <si>
-    <t>Merchant 商户基本信息表（mysql）</t>
-  </si>
-  <si>
-    <t>Commodity商品基本表(mongo)</t>
-  </si>
-  <si>
-    <t>shopping_cart 购物车表(mongo)</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>bigint(32) auto increasement</t>
-  </si>
-  <si>
-    <t>商品SPU</t>
-  </si>
-  <si>
-    <t>spuId</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>商户号</t>
-  </si>
-  <si>
-    <t>merchant_no</t>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-  </si>
-  <si>
-    <t>所属商户</t>
-  </si>
-  <si>
-    <t>merchantId</t>
-  </si>
-  <si>
-    <t>购物车编号</t>
-  </si>
-  <si>
-    <t>cart_id</t>
-  </si>
-  <si>
-    <t>varchar（32）</t>
-  </si>
-  <si>
-    <t>注册时间</t>
-  </si>
-  <si>
-    <t>register_date</t>
-  </si>
-  <si>
-    <t>varchar(16) yyyy-MM-dd HH:mm:ss</t>
-  </si>
-  <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>用户编号</t>
-  </si>
-  <si>
-    <t>bigint(16)</t>
-  </si>
-  <si>
-    <t>商户名称</t>
-  </si>
-  <si>
-    <t>商品简介</t>
-  </si>
-  <si>
-    <t>商品编号</t>
-  </si>
-  <si>
-    <t>goods_id</t>
-  </si>
-  <si>
-    <t>商户类型</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>varchar(8)</t>
-  </si>
-  <si>
-    <t>商品价格</t>
-  </si>
-  <si>
-    <t>medias</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>商户编号</t>
-  </si>
-  <si>
-    <t>merchant_id</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>contacter</t>
-  </si>
-  <si>
-    <t>商品分类</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>contact_phone</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>应用领域</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>商户状态</t>
-  </si>
-  <si>
-    <t>商品详情</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>cdt</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>商品状态</t>
-  </si>
-  <si>
-    <t>mdt</t>
-  </si>
-  <si>
-    <t>货品连接</t>
-  </si>
-  <si>
-    <t>goodsItemLink</t>
-  </si>
-  <si>
-    <t>Merchant_Detail 商户详情信息（mongo）</t>
-  </si>
-  <si>
-    <t>收货地址信息(address)</t>
-  </si>
-  <si>
-    <t>id （id）bigint 64 primary key</t>
-  </si>
-  <si>
-    <t>用户id （user_account）bigint 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GoodsItem货品表(mongo)</t>
-  </si>
-  <si>
-    <t>地址编号 (addr_id) bigint 64</t>
-  </si>
-  <si>
-    <t>商户描述</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>省行政编号 (province_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>商户logo</t>
-  </si>
-  <si>
-    <t>logo_url</t>
-  </si>
-  <si>
-    <t>货品编号SKU</t>
-  </si>
-  <si>
-    <t>goodsId</t>
-  </si>
-  <si>
-    <t>省名 (province_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>商户广告</t>
-  </si>
-  <si>
-    <t>advertisements</t>
-  </si>
-  <si>
-    <t>advertisement 集合</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-  </si>
-  <si>
-    <t>市行政编号(city_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>所属产品</t>
-  </si>
-  <si>
-    <t>市名 (city_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>规格说明</t>
-  </si>
-  <si>
-    <t>itemOutline</t>
-  </si>
-  <si>
-    <t>区行政编号(distrc_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>货品库存</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>区名 (distrc_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>货品状态</t>
-  </si>
-  <si>
-    <t>goodsStatus</t>
-  </si>
-  <si>
-    <t>是否默认 (default)varchar 8</t>
-  </si>
-  <si>
-    <t>折扣价格</t>
-  </si>
-  <si>
-    <t>discountPrice</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>收货地址 (addr_detail) varchar 512</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 数据字典表（mongo）</t>
-  </si>
-  <si>
-    <t>销售价格</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>收货手机号码 (connector_mobile)varchar 64</t>
-  </si>
-  <si>
-    <t>收货人姓名 (connector_name)varchar 32</t>
-  </si>
-  <si>
-    <t>创建时间（cdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>数据组</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>修改时间（cdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>键</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>键名</t>
-  </si>
-  <si>
-    <t>key_name</t>
-  </si>
-  <si>
-    <t>Media 多媒体信息(mongo)</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>多媒体编号</t>
-  </si>
-  <si>
-    <t>media_id</t>
-  </si>
-  <si>
-    <t>作用域</t>
-  </si>
-  <si>
-    <t>scpoe</t>
-  </si>
-  <si>
-    <t>stirng</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
-  </si>
-  <si>
-    <t>存储路径</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>SkuConfig SKU配置项(mongo)</t>
-  </si>
-  <si>
-    <t>skuConfigId</t>
-  </si>
-  <si>
-    <t>所属spu</t>
-  </si>
-  <si>
-    <t>配置名</t>
-  </si>
-  <si>
-    <t>配置值</t>
-  </si>
-  <si>
-    <t>现金支付</t>
-  </si>
-  <si>
-    <t>pay_order 支付订单表</t>
-  </si>
-  <si>
-    <t>fund_transfer 资金流水表</t>
-  </si>
-  <si>
-    <t>现金退款</t>
-  </si>
-  <si>
-    <t>支付订单编号</t>
-  </si>
-  <si>
-    <t>pay_order_id</t>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-  </si>
-  <si>
-    <t>内部流水号</t>
-  </si>
-  <si>
-    <t>inner_trans_no</t>
-  </si>
-  <si>
-    <t>商品订单编号</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>支付金额</t>
-  </si>
-  <si>
-    <t>varchat(32)</t>
-  </si>
-  <si>
-    <t>外部流水号</t>
-  </si>
-  <si>
-    <t>out_trans_no</t>
-  </si>
-  <si>
-    <t>支付渠道</t>
-  </si>
-  <si>
     <t>varchat(16)</t>
   </si>
   <si>
@@ -841,9 +868,6 @@
   </si>
   <si>
     <t>varchat(1024)</t>
-  </si>
-  <si>
-    <t>gmt_create</t>
   </si>
   <si>
     <t>gmt_modify</t>
@@ -1277,12 +1301,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,13 +1355,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="黑体-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1360,7 +1377,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1376,15 +1393,45 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1398,8 +1445,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1414,25 +1485,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1444,52 +1499,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1522,12 +1539,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1540,19 +1551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,19 +1569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,31 +1593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,7 +1617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,7 +1635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,19 +1647,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,19 +1677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,7 +1695,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,7 +1850,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1859,32 +1870,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,6 +1894,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1915,11 +1920,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1928,152 +1939,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2176,23 +2187,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2200,16 +2196,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9997,10 +9990,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:M75"/>
+  <dimension ref="A2:Q65"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="X15" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -10008,81 +10001,102 @@
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="3" width="15.1538461538462" customWidth="1"/>
     <col min="4" max="4" width="24.8461538461538" customWidth="1"/>
-    <col min="6" max="6" width="32.6923076923077" customWidth="1"/>
-    <col min="7" max="7" width="13.0769230769231" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
+    <col min="7" max="7" width="16.6923076923077" customWidth="1"/>
     <col min="8" max="8" width="12.3076923076923" customWidth="1"/>
     <col min="10" max="10" width="43.375" customWidth="1"/>
     <col min="11" max="11" width="13.7692307692308" customWidth="1"/>
     <col min="12" max="12" width="23.625" customWidth="1"/>
     <col min="13" max="13" width="31.5384615384615" customWidth="1"/>
+    <col min="14" max="14" width="42.1538461538462" customWidth="1"/>
+    <col min="15" max="15" width="13.7692307692308" customWidth="1"/>
+    <col min="16" max="16" width="12.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="4:4">
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="F2" s="1" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="34"/>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="35" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="15"/>
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="C4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="38" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="J4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="F4" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="6:8">
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="6:8">
+    <row r="6" spans="6:14">
       <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
@@ -10092,833 +10106,1046 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="40" t="s">
+      <c r="J6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="K6" s="39" t="s">
         <v>22</v>
       </c>
+      <c r="L6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="6:16">
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="41" t="s">
+      <c r="J7" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="6:16">
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="6:16">
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="N10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16">
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="F10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7"/>
-      <c r="B11" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="44"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="44"/>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="3:16">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="6:17">
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="15"/>
-      <c r="B14" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="6:16">
+      <c r="F16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="G16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="6:12">
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="6:12">
+      <c r="N16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="6:16">
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="6:12">
+        <v>79</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16">
       <c r="F18" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="N18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="6:16">
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="6:12">
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="4" t="s">
+    </row>
+    <row r="20" spans="6:16">
+      <c r="F20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16">
+      <c r="F21" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16">
+      <c r="F22" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16">
+      <c r="F23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12">
+      <c r="F24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12">
+      <c r="F25" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="26" spans="6:12">
+      <c r="F26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K26" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L26" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="4" t="s">
+    </row>
+    <row r="27" spans="6:12">
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="6:12">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14"/>
+      <c r="J28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8">
+      <c r="F29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8">
+      <c r="F30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="F31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="6:10">
-      <c r="F25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="10:10">
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="6:12">
-      <c r="F27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="6:12">
-      <c r="F28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="6:12">
-      <c r="F29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="6:12">
-      <c r="F30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="6:12">
-      <c r="F31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="32" spans="6:12">
       <c r="F32" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" t="s">
-        <v>74</v>
+        <v>110</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="6:12">
-      <c r="F33" s="7" t="s">
-        <v>97</v>
+      <c r="F33" s="39" t="s">
+        <v>112</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>4</v>
+        <v>85</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="6:12">
       <c r="F34" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="6:13">
-      <c r="F35" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12">
+      <c r="F35" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M35" t="s">
-        <v>105</v>
+        <v>17</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="6:12">
-      <c r="F36" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>39</v>
+      <c r="F36" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="6:12">
       <c r="F37" s="7" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="6:12">
       <c r="F38" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="10:12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12">
+      <c r="F39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="6:12">
-      <c r="F40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="10:12">
+      <c r="J40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="10:12">
+      <c r="J41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="6:12">
+      <c r="F42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="6:12">
-      <c r="F41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="H42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8">
+      <c r="F43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="G43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="6:12">
-      <c r="F42" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="6:12">
-      <c r="F43" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="6:12">
       <c r="F44" s="7" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="6:8">
-      <c r="F45" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="6:8">
-      <c r="F46" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="6:8">
-      <c r="F47" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="6:8">
-      <c r="F48" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="6:8">
-      <c r="F49" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="6:8">
-      <c r="F50" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="6:8">
-      <c r="F52" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="J44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="6:8">
-      <c r="F53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="L44" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="6:12">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="4"/>
+      <c r="J45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="K45" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="6:8">
-      <c r="F54" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" s="4" t="s">
+      <c r="L45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="4"/>
+      <c r="J46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="47" spans="6:12">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="4"/>
+      <c r="J47" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="6:12">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="4"/>
+      <c r="J48" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="4"/>
+      <c r="J49" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="4"/>
+      <c r="J50" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12">
+      <c r="F51" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12">
+      <c r="F52" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="10:12">
+      <c r="J53" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="10:12">
+      <c r="J54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="55" spans="6:8">
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="4"/>
+      <c r="F55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="6:8">
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="4"/>
+      <c r="F56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="57" spans="6:8">
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="4"/>
+      <c r="F57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="6:8">
       <c r="F58" s="7"/>
@@ -10936,116 +11163,43 @@
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="6:8">
-      <c r="F61" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="6:8">
-      <c r="F62" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>39</v>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="6:8">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="6:8">
+      <c r="F64" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="6:8">
-      <c r="F65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="6:8">
-      <c r="F66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="6:8">
-      <c r="F67" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="6:8">
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="6:8">
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="6:8">
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="6:8">
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="6:8">
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="6:8">
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="6:8">
-      <c r="F74" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="6:8">
-      <c r="F75" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>39</v>
+      <c r="F65" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -11057,7 +11211,7 @@
   <sheetPr/>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -11098,350 +11252,350 @@
     </row>
     <row r="3" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="15"/>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="15"/>
       <c r="I3" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" customFormat="1" spans="1:11">
       <c r="A4" s="19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:11">
       <c r="A5" s="19" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:11">
       <c r="A6" s="19" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:11">
       <c r="A7" s="19" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:11">
       <c r="A9" s="19" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:11">
       <c r="A10" s="19" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:11">
       <c r="A11" s="19" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:11">
       <c r="A12" s="19" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:11">
       <c r="A13" s="19" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:11">
       <c r="A14" s="19" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -11451,13 +11605,13 @@
     <row r="15" customFormat="1" spans="4:11">
       <c r="D15" s="15"/>
       <c r="E15" s="19" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -11466,217 +11620,217 @@
     </row>
     <row r="16" customFormat="1" spans="1:11">
       <c r="A16" s="20" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="15"/>
       <c r="E16" s="19" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="30" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
     </row>
     <row r="17" customFormat="1" spans="1:11">
       <c r="A17" s="19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="31" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
     <row r="18" customFormat="1" spans="1:11">
       <c r="A18" s="19" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="31" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
     <row r="19" customFormat="1" spans="1:11">
       <c r="A19" s="19" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="15"/>
       <c r="I19" s="32" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
     <row r="20" customFormat="1" spans="1:11">
       <c r="A20" s="19" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="32" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
     </row>
     <row r="21" customFormat="1" spans="1:11">
       <c r="A21" s="19" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="32" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
     </row>
     <row r="22" customFormat="1" spans="1:11">
       <c r="A22" s="19" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="32" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
     </row>
     <row r="23" customFormat="1" spans="1:11">
       <c r="A23" s="19" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="19" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="32" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
     </row>
     <row r="24" customFormat="1" spans="1:11">
       <c r="A24" s="19" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="32" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -11684,17 +11838,17 @@
     <row r="25" customFormat="1" spans="4:11">
       <c r="D25" s="15"/>
       <c r="E25" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="32" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -11702,17 +11856,17 @@
     <row r="26" customFormat="1" spans="4:11">
       <c r="D26" s="15"/>
       <c r="E26" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="31" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -11720,126 +11874,126 @@
     <row r="27" customFormat="1" spans="4:11">
       <c r="D27" s="15"/>
       <c r="E27" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="31" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
     </row>
     <row r="28" customFormat="1" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="15"/>
       <c r="E28" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="31" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
     </row>
     <row r="29" customFormat="1" spans="1:11">
       <c r="A29" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="33" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
     </row>
     <row r="30" customFormat="1" spans="1:11">
       <c r="A30" s="24" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="31" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
     </row>
     <row r="31" customFormat="1" spans="1:11">
       <c r="A31" s="24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D31" s="15"/>
       <c r="F31" s="28"/>
       <c r="H31" s="15"/>
       <c r="I31" s="33" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
     </row>
     <row r="32" customFormat="1" spans="1:11">
       <c r="A32" s="24" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D32" s="15"/>
       <c r="H32" s="15"/>
@@ -11849,17 +12003,17 @@
     </row>
     <row r="33" customFormat="1" spans="1:11">
       <c r="A33" s="24" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -11870,23 +12024,23 @@
     </row>
     <row r="34" customFormat="1" spans="1:11">
       <c r="A34" s="24" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
@@ -11895,23 +12049,23 @@
     </row>
     <row r="35" customFormat="1" spans="1:11">
       <c r="A35" s="25" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="29" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -11920,23 +12074,23 @@
     </row>
     <row r="36" customFormat="1" spans="1:11">
       <c r="A36" s="24" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="29" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
@@ -11945,23 +12099,23 @@
     </row>
     <row r="37" customFormat="1" spans="1:11">
       <c r="A37" s="25" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="29" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
@@ -11970,23 +12124,23 @@
     </row>
     <row r="38" customFormat="1" spans="1:11">
       <c r="A38" s="25" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="29" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -11996,13 +12150,13 @@
     <row r="39" customFormat="1" spans="4:11">
       <c r="D39" s="15"/>
       <c r="E39" s="29" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -12012,13 +12166,13 @@
     <row r="40" customFormat="1" spans="4:11">
       <c r="D40" s="15"/>
       <c r="E40" s="29" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -12035,7 +12189,7 @@
     <row r="42" customFormat="1" spans="4:11">
       <c r="D42" s="15"/>
       <c r="E42" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -12047,13 +12201,13 @@
     <row r="43" customFormat="1" spans="4:11">
       <c r="D43" s="15"/>
       <c r="E43" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
@@ -12062,68 +12216,68 @@
     </row>
     <row r="44" spans="5:7">
       <c r="E44" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" s="29" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" s="29" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" s="29" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" s="29" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -12165,197 +12319,197 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="3:9">
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="4" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>15</v>
@@ -12363,39 +12517,39 @@
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="4" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>15</v>
@@ -12403,132 +12557,132 @@
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="7" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="4" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
@@ -12536,10 +12690,10 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
@@ -12547,46 +12701,46 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="4" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -12621,244 +12775,244 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="17" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="17" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" s="17" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" s="17" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C18" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C21" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="17" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="17" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="17" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C25" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E27" s="17"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -12896,257 +13050,257 @@
   <sheetData>
     <row r="3" spans="12:14">
       <c r="L3" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="3" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="L4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="J6" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
@@ -13154,22 +13308,22 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" s="1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
@@ -13177,489 +13331,489 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="4:10">
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="8:10">
       <c r="H21" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="8:10">
       <c r="H22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="8:10">
       <c r="H23" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="4:10">
       <c r="D24" s="3" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="H24" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="4:10">
       <c r="D25" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="4:10">
       <c r="D26" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" ht="17" spans="4:10">
       <c r="D29" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="17" spans="4:10">
       <c r="D30" s="1" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" ht="17" spans="4:10">
       <c r="D31" s="5" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="17" spans="4:10">
       <c r="D32" s="5" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="4:6">
       <c r="D33" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="4:6">
       <c r="D34" s="6" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="8:10">
       <c r="H35" s="3" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="8:10">
       <c r="H36" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" ht="17" spans="8:10">
       <c r="H37" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="17" spans="8:10">
       <c r="H38" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" ht="17" spans="8:10">
       <c r="H39" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" s="1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="8:10">
       <c r="H41" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="8:10">
       <c r="H42" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" ht="17" spans="8:10">
       <c r="H43" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" ht="17" spans="8:10">
       <c r="H44" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="14100" activeTab="1"/>
+    <workbookView windowWidth="28060" windowHeight="14100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
   <si>
     <t>公网地址：</t>
   </si>
@@ -741,16 +741,22 @@
     <t>value</t>
   </si>
   <si>
+    <t>值名</t>
+  </si>
+  <si>
+    <t>value_name</t>
+  </si>
+  <si>
+    <t>多媒体编号</t>
+  </si>
+  <si>
+    <t>media_id</t>
+  </si>
+  <si>
     <t>排序</t>
   </si>
   <si>
     <t>sort</t>
-  </si>
-  <si>
-    <t>多媒体编号</t>
-  </si>
-  <si>
-    <t>media_id</t>
   </si>
   <si>
     <t>作用域</t>
@@ -1301,10 +1307,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1356,13 +1362,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1391,31 +1390,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1430,8 +1406,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,6 +1430,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1453,8 +1461,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1468,22 +1498,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1491,16 +1505,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1557,7 +1563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,7 +1587,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,145 +1719,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,8 +1846,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1850,7 +1856,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1870,11 +1876,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1894,6 +1906,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1908,179 +1940,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2163,6 +2169,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2200,9 +2209,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9969,7 +9975,7 @@
   <sheetPr/>
   <dimension ref="U49"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="H1" workbookViewId="0">
+    <sheetView zoomScale="59" zoomScaleNormal="59" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
@@ -9992,7 +9998,7 @@
   <sheetPr/>
   <dimension ref="A2:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="X15" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -10014,17 +10020,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:4">
-      <c r="D2" s="34"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="34"/>
+      <c r="D3" s="35"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
@@ -10046,10 +10052,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="15"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -10074,7 +10080,7 @@
     <row r="5" spans="1:12">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -10106,13 +10112,13 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N6" s="15"/>
@@ -10363,13 +10369,13 @@
       <c r="H15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="7" t="s">
         <v>72</v>
       </c>
       <c r="N15" s="7" t="s">
@@ -10522,13 +10528,13 @@
       </c>
     </row>
     <row r="21" spans="6:16">
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="7" t="s">
@@ -10551,22 +10557,22 @@
       </c>
     </row>
     <row r="22" spans="6:16">
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="7" t="s">
@@ -10595,7 +10601,7 @@
       <c r="K23" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N23" s="7" t="s">
@@ -10618,33 +10624,33 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="6:12">
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -10658,13 +10664,13 @@
       <c r="H26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10756,7 +10762,7 @@
       </c>
     </row>
     <row r="33" spans="6:12">
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -10796,13 +10802,13 @@
       </c>
     </row>
     <row r="35" spans="6:12">
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="7" t="s">
         <v>32</v>
       </c>
       <c r="J35" s="7" t="s">
@@ -10816,13 +10822,13 @@
       </c>
     </row>
     <row r="36" spans="6:12">
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="J36" s="7" t="s">
@@ -11034,7 +11040,7 @@
       <c r="K49" t="s">
         <v>22</v>
       </c>
-      <c r="L49" s="39" t="s">
+      <c r="L49" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11211,8 +11217,8 @@
   <sheetPr/>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -11314,7 +11320,7 @@
       <c r="E5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="27" t="s">
         <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -11345,7 +11351,7 @@
       <c r="E6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="28" t="s">
         <v>150</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -11376,7 +11382,7 @@
       <c r="E7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="28" t="s">
         <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -11407,7 +11413,7 @@
       <c r="E8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="27" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -11437,7 +11443,7 @@
       <c r="E9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="28" t="s">
         <v>167</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -11467,7 +11473,7 @@
       <c r="E10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="28" t="s">
         <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -11498,7 +11504,7 @@
       <c r="E11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="27" t="s">
         <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -11529,7 +11535,7 @@
       <c r="E12" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="27" t="s">
         <v>184</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -11560,7 +11566,7 @@
       <c r="E13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="27" t="s">
         <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -11591,7 +11597,7 @@
       <c r="E14" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -11607,7 +11613,7 @@
       <c r="E15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="28" t="s">
         <v>185</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -11628,14 +11634,14 @@
       <c r="E16" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="28" t="s">
         <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>186</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="31" t="s">
         <v>192</v>
       </c>
       <c r="J16" s="15"/>
@@ -11653,7 +11659,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="32" t="s">
         <v>193</v>
       </c>
       <c r="J17" s="15"/>
@@ -11671,7 +11677,7 @@
       </c>
       <c r="D18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="32" t="s">
         <v>194</v>
       </c>
       <c r="J18" s="15"/>
@@ -11694,7 +11700,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="33" t="s">
         <v>196</v>
       </c>
       <c r="J19" s="15"/>
@@ -11721,7 +11727,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="33" t="s">
         <v>199</v>
       </c>
       <c r="J20" s="15"/>
@@ -11741,14 +11747,14 @@
       <c r="E21" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="28" t="s">
         <v>202</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="33" t="s">
         <v>203</v>
       </c>
       <c r="J21" s="15"/>
@@ -11768,14 +11774,14 @@
       <c r="E22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="27" t="s">
         <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="33" t="s">
         <v>208</v>
       </c>
       <c r="J22" s="15"/>
@@ -11795,14 +11801,14 @@
       <c r="E23" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="28" t="s">
         <v>145</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="33" t="s">
         <v>210</v>
       </c>
       <c r="J23" s="15"/>
@@ -11822,14 +11828,14 @@
       <c r="E24" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="28" t="s">
         <v>212</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H24" s="15"/>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="33" t="s">
         <v>213</v>
       </c>
       <c r="J24" s="15"/>
@@ -11840,14 +11846,14 @@
       <c r="E25" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="27" t="s">
         <v>215</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="33" t="s">
         <v>216</v>
       </c>
       <c r="J25" s="15"/>
@@ -11858,14 +11864,14 @@
       <c r="E26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="27" t="s">
         <v>218</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="32" t="s">
         <v>219</v>
       </c>
       <c r="J26" s="15"/>
@@ -11876,14 +11882,14 @@
       <c r="E27" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="27" t="s">
         <v>221</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>222</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="32" t="s">
         <v>223</v>
       </c>
       <c r="J27" s="15"/>
@@ -11899,14 +11905,14 @@
       <c r="E28" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="28" t="s">
         <v>226</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>222</v>
       </c>
       <c r="H28" s="13"/>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="32" t="s">
         <v>227</v>
       </c>
       <c r="J28" s="15"/>
@@ -11933,7 +11939,7 @@
         <v>186</v>
       </c>
       <c r="H29" s="15"/>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="34" t="s">
         <v>228</v>
       </c>
       <c r="J29" s="15"/>
@@ -11960,7 +11966,7 @@
         <v>186</v>
       </c>
       <c r="H30" s="15"/>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="32" t="s">
         <v>229</v>
       </c>
       <c r="J30" s="15"/>
@@ -11977,9 +11983,9 @@
         <v>146</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="F31" s="28"/>
+      <c r="F31" s="29"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="34" t="s">
         <v>232</v>
       </c>
       <c r="J31" s="15"/>
@@ -12048,23 +12054,23 @@
       <c r="K34" s="15"/>
     </row>
     <row r="35" customFormat="1" spans="1:11">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>222</v>
+      <c r="C35" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="30" t="s">
         <v>146</v>
       </c>
       <c r="H35" s="15"/>
@@ -12073,24 +12079,24 @@
       <c r="K35" s="15"/>
     </row>
     <row r="36" customFormat="1" spans="1:11">
-      <c r="A36" s="24" t="s">
-        <v>181</v>
+      <c r="A36" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="29" t="s">
+      <c r="E36" s="30" t="s">
         <v>246</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>248</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
@@ -12098,24 +12104,24 @@
       <c r="K36" s="15"/>
     </row>
     <row r="37" customFormat="1" spans="1:11">
-      <c r="A37" s="25" t="s">
-        <v>52</v>
+      <c r="A37" s="24" t="s">
+        <v>181</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D37" s="15"/>
-      <c r="E37" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="F37" s="29" t="s">
+      <c r="E37" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="29" t="s">
-        <v>248</v>
+      <c r="G37" s="30" t="s">
+        <v>250</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
@@ -12124,22 +12130,22 @@
     </row>
     <row r="38" customFormat="1" spans="1:11">
       <c r="A38" s="25" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>186</v>
       </c>
       <c r="D38" s="15"/>
-      <c r="E38" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="29" t="s">
+      <c r="E38" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" s="30" t="s">
         <v>146</v>
       </c>
       <c r="H38" s="15"/>
@@ -12147,15 +12153,24 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" customFormat="1" spans="4:11">
+    <row r="39" customFormat="1" spans="1:11">
+      <c r="A39" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>186</v>
+      </c>
       <c r="D39" s="15"/>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="30" t="s">
         <v>186</v>
       </c>
       <c r="H39" s="15"/>
@@ -12165,13 +12180,13 @@
     </row>
     <row r="40" customFormat="1" spans="4:11">
       <c r="D40" s="15"/>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="30" t="s">
         <v>186</v>
       </c>
       <c r="H40" s="15"/>
@@ -12189,7 +12204,7 @@
     <row r="42" customFormat="1" spans="4:11">
       <c r="D42" s="15"/>
       <c r="E42" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -12215,68 +12230,68 @@
       <c r="K43" s="15"/>
     </row>
     <row r="44" spans="5:7">
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="G44" s="29" t="s">
+      <c r="F44" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G44" s="30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="45" spans="5:7">
-      <c r="E45" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F45" s="29" t="s">
+      <c r="E45" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G45" s="29" t="s">
-        <v>246</v>
+      <c r="G45" s="30" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="5:7">
-      <c r="E46" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="F46" s="29" t="s">
+      <c r="E46" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="G46" s="29" t="s">
-        <v>248</v>
+      <c r="G46" s="30" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="5:7">
-      <c r="E47" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="F47" s="29" t="s">
+      <c r="E47" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="48" spans="5:7">
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="30" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="49" spans="5:7">
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="30" t="s">
         <v>186</v>
       </c>
     </row>
@@ -12319,15 +12334,15 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -12354,7 +12369,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -12377,99 +12392,99 @@
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>148</v>
@@ -12486,7 +12501,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>81</v>
@@ -12497,7 +12512,7 @@
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -12517,13 +12532,13 @@
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>90</v>
@@ -12532,21 +12547,21 @@
         <v>91</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>14</v>
@@ -12566,13 +12581,13 @@
         <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="3:9">
@@ -12600,7 +12615,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>186</v>
@@ -12609,7 +12624,7 @@
         <v>60</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>186</v>
@@ -12617,7 +12632,7 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -12646,35 +12661,35 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="3:5">
@@ -12690,10 +12705,10 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
@@ -12701,24 +12716,24 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="3:5">
@@ -12737,7 +12752,7 @@
         <v>60</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>186</v>
@@ -12775,217 +12790,217 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" s="17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C20" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="17" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C25" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>229</v>
@@ -12993,26 +13008,26 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E27" s="17"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -13050,25 +13065,25 @@
   <sheetData>
     <row r="3" spans="12:14">
       <c r="L3" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -13084,7 +13099,7 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -13105,10 +13120,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>153</v>
@@ -13116,7 +13131,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -13137,10 +13152,10 @@
         <v>11</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>153</v>
@@ -13148,42 +13163,42 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>153</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>163</v>
@@ -13195,7 +13210,7 @@
         <v>153</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>152</v>
@@ -13204,21 +13219,21 @@
         <v>153</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>172</v>
@@ -13227,36 +13242,36 @@
         <v>173</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>153</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>222</v>
@@ -13271,10 +13286,10 @@
         <v>153</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>54</v>
@@ -13282,10 +13297,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>226</v>
@@ -13308,10 +13323,10 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>153</v>
@@ -13331,22 +13346,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>153</v>
@@ -13374,7 +13389,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>78</v>
@@ -13386,10 +13401,10 @@
         <v>153</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>186</v>
@@ -13397,10 +13412,10 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>182</v>
@@ -13420,13 +13435,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>186</v>
@@ -13443,10 +13458,10 @@
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>186</v>
@@ -13474,7 +13489,7 @@
         <v>54</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -13503,10 +13518,10 @@
     </row>
     <row r="23" spans="8:10">
       <c r="H23" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>153</v>
@@ -13514,7 +13529,7 @@
     </row>
     <row r="24" spans="4:10">
       <c r="D24" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -13559,10 +13574,10 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>153</v>
@@ -13570,19 +13585,19 @@
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>153</v>
@@ -13590,19 +13605,19 @@
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>153</v>
@@ -13610,19 +13625,19 @@
     </row>
     <row r="29" ht="17" spans="4:10">
       <c r="D29" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>54</v>
@@ -13630,19 +13645,19 @@
     </row>
     <row r="30" ht="17" spans="4:10">
       <c r="D30" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>54</v>
@@ -13653,7 +13668,7 @@
         <v>157</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>153</v>
@@ -13670,10 +13685,10 @@
     </row>
     <row r="32" ht="17" spans="4:10">
       <c r="D32" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>153</v>
@@ -13712,7 +13727,7 @@
     </row>
     <row r="35" spans="8:10">
       <c r="H35" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -13741,10 +13756,10 @@
     </row>
     <row r="38" ht="17" spans="8:10">
       <c r="H38" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>153</v>
@@ -13763,10 +13778,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>153</v>
@@ -13774,10 +13789,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>153</v>
@@ -13785,13 +13800,13 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" ht="17" spans="8:10">

--- a/document/数据库设计/数据库设计.xlsx
+++ b/document/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="14100" activeTab="2"/>
+    <workbookView windowWidth="28060" windowHeight="12080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统架构图" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409">
   <si>
     <t>公网地址：</t>
   </si>
@@ -435,7 +435,7 @@
     <t>机构权限（agent_authority)</t>
   </si>
   <si>
-    <t>Merchant 商户基本信息表（mysql）</t>
+    <t xml:space="preserve"> 数据字典表（mongo）</t>
   </si>
   <si>
     <t>Commodity商品基本表(mongo)</t>
@@ -462,772 +462,718 @@
     <t>string</t>
   </si>
   <si>
+    <t>数据组</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>所属商户</t>
+  </si>
+  <si>
+    <t>merchantId</t>
+  </si>
+  <si>
+    <t>购物车编号</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>varchar（32）</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>bigint(16)</t>
+  </si>
+  <si>
+    <t>键名</t>
+  </si>
+  <si>
+    <t>key_name</t>
+  </si>
+  <si>
+    <t>商品简介</t>
+  </si>
+  <si>
+    <t>商品编号</t>
+  </si>
+  <si>
+    <t>goods_id</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>商品价格</t>
+  </si>
+  <si>
+    <t>medias</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>商户编号</t>
+  </si>
+  <si>
+    <t>值名</t>
+  </si>
+  <si>
+    <t>value_name</t>
+  </si>
+  <si>
+    <t>商品分类</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>应用领域</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>商品详情</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>cdt</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>商品状态</t>
+  </si>
+  <si>
+    <t>mdt</t>
+  </si>
+  <si>
+    <t>货品连接</t>
+  </si>
+  <si>
+    <t>goodsItemLink</t>
+  </si>
+  <si>
+    <t>收货地址信息(address)</t>
+  </si>
+  <si>
+    <t>id （id）bigint 64 primary key</t>
+  </si>
+  <si>
+    <t>用户id （user_account）bigint 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GoodsItem货品表(mongo)</t>
+  </si>
+  <si>
+    <t>地址编号 (addr_id) bigint 64</t>
+  </si>
+  <si>
+    <t>省行政编号 (province_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>货品编号SKU</t>
+  </si>
+  <si>
+    <t>goodsId</t>
+  </si>
+  <si>
+    <t>省名 (province_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>市行政编号(city_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>所属产品</t>
+  </si>
+  <si>
+    <t>市名 (city_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>规格说明</t>
+  </si>
+  <si>
+    <t>itemOutline</t>
+  </si>
+  <si>
+    <t>区行政编号(distrc_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>货品库存</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>区名 (distrc_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>货品状态</t>
+  </si>
+  <si>
+    <t>goodsStatus</t>
+  </si>
+  <si>
+    <t>是否默认 (default)varchar 8</t>
+  </si>
+  <si>
+    <t>折扣价格</t>
+  </si>
+  <si>
+    <t>discountPrice</t>
+  </si>
+  <si>
+    <t>收货地址 (addr_detail) varchar 512</t>
+  </si>
+  <si>
+    <t>销售价格</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>收货手机号码 (connector_mobile)varchar 64</t>
+  </si>
+  <si>
+    <t>收货人姓名 (connector_name)varchar 32</t>
+  </si>
+  <si>
+    <t>创建时间（cdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>修改时间（cdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>Media 多媒体信息(mongo)</t>
+  </si>
+  <si>
+    <t>多媒体编号</t>
+  </si>
+  <si>
+    <t>media_id</t>
+  </si>
+  <si>
+    <t>作用域</t>
+  </si>
+  <si>
+    <t>scpoe</t>
+  </si>
+  <si>
+    <t>stirng</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>存储路径</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>SkuConfig SKU配置项(mongo)</t>
+  </si>
+  <si>
+    <t>skuConfigId</t>
+  </si>
+  <si>
+    <t>所属spu</t>
+  </si>
+  <si>
+    <t>配置名</t>
+  </si>
+  <si>
+    <t>配置值</t>
+  </si>
+  <si>
+    <t>现金支付</t>
+  </si>
+  <si>
+    <t>pay_order 支付订单表</t>
+  </si>
+  <si>
+    <t>fund_transfer 资金流水表</t>
+  </si>
+  <si>
+    <t>现金退款</t>
+  </si>
+  <si>
+    <t>支付订单编号</t>
+  </si>
+  <si>
+    <t>pay_order_id</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>内部流水号</t>
+  </si>
+  <si>
+    <t>inner_trans_no</t>
+  </si>
+  <si>
+    <t>商品订单编号</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>支付金额</t>
+  </si>
+  <si>
+    <t>varchat(32)</t>
+  </si>
+  <si>
+    <t>外部流水号</t>
+  </si>
+  <si>
+    <t>out_trans_no</t>
+  </si>
+  <si>
+    <t>支付渠道</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>varchat(16)</t>
+  </si>
+  <si>
+    <t>支付订单类型</t>
+  </si>
+  <si>
+    <t>pay_type</t>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+  </si>
+  <si>
+    <t>交易类型</t>
+  </si>
+  <si>
+    <t>收款机构</t>
+  </si>
+  <si>
+    <t>支付状态</t>
+  </si>
+  <si>
+    <t>pay_status</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>varchat(1024)</t>
+  </si>
+  <si>
+    <t>gmt_modify</t>
+  </si>
+  <si>
+    <t>refund 退款表（从哪个渠道申请退款就退到那里）</t>
+  </si>
+  <si>
+    <t>退单订单号</t>
+  </si>
+  <si>
+    <t>refund_order_id</t>
+  </si>
+  <si>
+    <t>退款金额</t>
+  </si>
+  <si>
+    <t>退款渠道</t>
+  </si>
+  <si>
+    <t>退款商户</t>
+  </si>
+  <si>
+    <t>merchent_id</t>
+  </si>
+  <si>
+    <t>退款状态</t>
+  </si>
+  <si>
+    <t>refund_status</t>
+  </si>
+  <si>
+    <t>管理端</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>课程管理</t>
+  </si>
+  <si>
+    <t>新增/编辑课程</t>
+  </si>
+  <si>
+    <t>查看课程</t>
+  </si>
+  <si>
+    <t>发布课程</t>
+  </si>
+  <si>
+    <t>购买课程</t>
+  </si>
+  <si>
+    <t>体征信息（customer_body_info）</t>
+  </si>
+  <si>
+    <t>修改课程发布计划</t>
+  </si>
+  <si>
+    <t>id (id)</t>
+  </si>
+  <si>
+    <t>用户id （customer_id）bigint 64</t>
+  </si>
+  <si>
+    <t>记录编号 (record_id) varchar(64)</t>
+  </si>
+  <si>
+    <t>登记日期 register_date (datetime)</t>
+  </si>
+  <si>
+    <t>课程预约</t>
+  </si>
+  <si>
+    <t>受理预约</t>
+  </si>
+  <si>
+    <t>预约课程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身高 cm  (height) varchar(8) </t>
+  </si>
+  <si>
+    <t>后台预约</t>
+  </si>
+  <si>
+    <t>取消预约</t>
+  </si>
+  <si>
+    <t>体重 kg (weight) varchar(8)</t>
+  </si>
+  <si>
+    <t>后台取消</t>
+  </si>
+  <si>
+    <t>课程评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胸围 cm (chest) varchar(8) </t>
+  </si>
+  <si>
+    <t>分享课程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰围 cm (waistline) varchar(8) </t>
+  </si>
+  <si>
+    <t>查看预约记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臀围 cm (hipline) varchar(8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰臀比 (waist_hip_ratio)  varchar(8) </t>
+  </si>
+  <si>
+    <t>视频管理</t>
+  </si>
+  <si>
+    <t>上传视频</t>
+  </si>
+  <si>
+    <t>查看视频</t>
+  </si>
+  <si>
+    <t>左大臂围  cm (left_arm_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>编辑视频说明</t>
+  </si>
+  <si>
+    <t>右大臂围  cm (right_arm_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>删除视频</t>
+  </si>
+  <si>
+    <t>左大腿围  cm (left_thigh_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>右大腿围   cm (right_thigh_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>打卡挑战</t>
+  </si>
+  <si>
+    <t>发起挑战</t>
+  </si>
+  <si>
+    <t xml:space="preserve">体脂率 % (fat percentage) varchar(8) </t>
+  </si>
+  <si>
+    <t>查询挑战计划</t>
+  </si>
+  <si>
+    <t>心率  次/分 (heart_rate) varchar(8)</t>
+  </si>
+  <si>
+    <t>管理挑战计划</t>
+  </si>
+  <si>
+    <t>参与挑战</t>
+  </si>
+  <si>
+    <t>血压(收缩压)  mm/Hg (sdp) varchar(8)</t>
+  </si>
+  <si>
+    <t>挑战统计</t>
+  </si>
+  <si>
+    <t>打卡记录</t>
+  </si>
+  <si>
+    <t>血压(舒张压) mm/Hg (dbp) varchar(8)</t>
+  </si>
+  <si>
+    <t>脂肪含量 kg (fat_content) varchar(8)</t>
+  </si>
+  <si>
+    <t>骨骼肌含量 kg (muscle_content) varchar(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 体质指数 (bmi) varchar(8)</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>新增体征信息</t>
+  </si>
+  <si>
+    <t>查询历史体征信息</t>
+  </si>
+  <si>
+    <t>修改时间（mdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>查询训练数据</t>
+  </si>
+  <si>
+    <t>管理个人训练计划</t>
+  </si>
+  <si>
+    <t>身高/体重的（二次幂）</t>
+  </si>
+  <si>
+    <t>订单操作日志 (order_operate_log)表</t>
+  </si>
+  <si>
+    <t>受理订单</t>
+  </si>
+  <si>
+    <t>生成订单</t>
+  </si>
+  <si>
+    <t>Order 订单信息(mysql)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">订单包 (order_package)表 </t>
+  </si>
+  <si>
+    <t>生成订单包</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>关闭订单</t>
+  </si>
+  <si>
+    <t>操作者编号</t>
+  </si>
+  <si>
+    <t>operator_id</t>
+  </si>
+  <si>
+    <t>申请退货</t>
+  </si>
+  <si>
+    <t>订单退款（付款未发货）</t>
+  </si>
+  <si>
+    <t>订单包号</t>
+  </si>
+  <si>
+    <t>order_package_id</t>
+  </si>
+  <si>
+    <t>操作者类型</t>
+  </si>
+  <si>
+    <t>operator_role</t>
+  </si>
+  <si>
+    <t>varchar（16）</t>
+  </si>
+  <si>
+    <t>订单退货（付款已发货）</t>
+  </si>
+  <si>
+    <t>购物车号</t>
+  </si>
+  <si>
+    <t>执行动作</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>跟踪订单</t>
+  </si>
+  <si>
+    <t>跟踪发货信息</t>
+  </si>
+  <si>
+    <t>执行结果</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>跟踪退货信息</t>
+  </si>
+  <si>
+    <t>商品数量</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>执行时间</t>
+  </si>
+  <si>
+    <t>execute_time</t>
+  </si>
+  <si>
+    <t>分类查询订单</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>优惠单价</t>
+  </si>
+  <si>
+    <t>discount_price</t>
+  </si>
+  <si>
+    <t>订单统计</t>
+  </si>
+  <si>
+    <t>结算价格</t>
+  </si>
+  <si>
+    <t>settlement_price</t>
+  </si>
+  <si>
+    <t>total_amount</t>
+  </si>
+  <si>
+    <t>记录订单的变化</t>
+  </si>
+  <si>
+    <t>支付时间</t>
+  </si>
+  <si>
+    <t>pay_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <t>mongo db</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>order_time</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>finish_time</t>
+  </si>
+  <si>
+    <t>Order_Logistics  订单物流信息表(mongo)</t>
+  </si>
+  <si>
+    <t>order_detail  订单详情(mongo)</t>
+  </si>
+  <si>
     <t>merchant_no</t>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-  </si>
-  <si>
-    <t>所属商户</t>
-  </si>
-  <si>
-    <t>merchantId</t>
-  </si>
-  <si>
-    <t>购物车编号</t>
-  </si>
-  <si>
-    <t>cart_id</t>
-  </si>
-  <si>
-    <t>varchar（32）</t>
-  </si>
-  <si>
-    <t>注册时间</t>
-  </si>
-  <si>
-    <t>register_date</t>
-  </si>
-  <si>
-    <t>varchar(16) yyyy-MM-dd HH:mm:ss</t>
-  </si>
-  <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>用户编号</t>
-  </si>
-  <si>
-    <t>bigint(16)</t>
-  </si>
-  <si>
-    <t>商户名称</t>
-  </si>
-  <si>
-    <t>商品简介</t>
-  </si>
-  <si>
-    <t>商品编号</t>
-  </si>
-  <si>
-    <t>goods_id</t>
-  </si>
-  <si>
-    <t>varchar(8)</t>
-  </si>
-  <si>
-    <t>商品价格</t>
-  </si>
-  <si>
-    <t>medias</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>商户编号</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>contacter</t>
-  </si>
-  <si>
-    <t>商品分类</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>contact_phone</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>应用领域</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>商品详情</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>cdt</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>商品状态</t>
-  </si>
-  <si>
-    <t>mdt</t>
-  </si>
-  <si>
-    <t>货品连接</t>
-  </si>
-  <si>
-    <t>goodsItemLink</t>
-  </si>
-  <si>
-    <t>Merchant_Detail 商户详情信息（mongo）</t>
-  </si>
-  <si>
-    <t>收货地址信息(address)</t>
-  </si>
-  <si>
-    <t>id （id）bigint 64 primary key</t>
-  </si>
-  <si>
-    <t>用户id （user_account）bigint 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GoodsItem货品表(mongo)</t>
-  </si>
-  <si>
-    <t>地址编号 (addr_id) bigint 64</t>
-  </si>
-  <si>
-    <t>商户描述</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>省行政编号 (province_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>logo_url</t>
-  </si>
-  <si>
-    <t>货品编号SKU</t>
-  </si>
-  <si>
-    <t>goodsId</t>
-  </si>
-  <si>
-    <t>省名 (province_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>商户广告</t>
-  </si>
-  <si>
-    <t>advertisements</t>
-  </si>
-  <si>
-    <t>advertisement 集合</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-  </si>
-  <si>
-    <t>市行政编号(city_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>所属产品</t>
-  </si>
-  <si>
-    <t>市名 (city_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>规格说明</t>
-  </si>
-  <si>
-    <t>itemOutline</t>
-  </si>
-  <si>
-    <t>区行政编号(distrc_no) varchar(16)</t>
-  </si>
-  <si>
-    <t>货品库存</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>区名 (distrc_name) varchar(512)</t>
-  </si>
-  <si>
-    <t>货品状态</t>
-  </si>
-  <si>
-    <t>goodsStatus</t>
-  </si>
-  <si>
-    <t>是否默认 (default)varchar 8</t>
-  </si>
-  <si>
-    <t>折扣价格</t>
-  </si>
-  <si>
-    <t>discountPrice</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>收货地址 (addr_detail) varchar 512</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 数据字典表（mongo）</t>
-  </si>
-  <si>
-    <t>销售价格</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>收货手机号码 (connector_mobile)varchar 64</t>
-  </si>
-  <si>
-    <t>收货人姓名 (connector_name)varchar 32</t>
-  </si>
-  <si>
-    <t>创建时间（cdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>数据组</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>修改时间（cdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>键</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>键名</t>
-  </si>
-  <si>
-    <t>key_name</t>
-  </si>
-  <si>
-    <t>Media 多媒体信息(mongo)</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>值名</t>
-  </si>
-  <si>
-    <t>value_name</t>
-  </si>
-  <si>
-    <t>多媒体编号</t>
-  </si>
-  <si>
-    <t>media_id</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>作用域</t>
-  </si>
-  <si>
-    <t>scpoe</t>
-  </si>
-  <si>
-    <t>stirng</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
-  </si>
-  <si>
-    <t>存储路径</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>SkuConfig SKU配置项(mongo)</t>
-  </si>
-  <si>
-    <t>skuConfigId</t>
-  </si>
-  <si>
-    <t>所属spu</t>
-  </si>
-  <si>
-    <t>配置名</t>
-  </si>
-  <si>
-    <t>配置值</t>
-  </si>
-  <si>
-    <t>现金支付</t>
-  </si>
-  <si>
-    <t>pay_order 支付订单表</t>
-  </si>
-  <si>
-    <t>fund_transfer 资金流水表</t>
-  </si>
-  <si>
-    <t>现金退款</t>
-  </si>
-  <si>
-    <t>支付订单编号</t>
-  </si>
-  <si>
-    <t>pay_order_id</t>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-  </si>
-  <si>
-    <t>内部流水号</t>
-  </si>
-  <si>
-    <t>inner_trans_no</t>
-  </si>
-  <si>
-    <t>商品订单编号</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>支付金额</t>
-  </si>
-  <si>
-    <t>varchat(32)</t>
-  </si>
-  <si>
-    <t>外部流水号</t>
-  </si>
-  <si>
-    <t>out_trans_no</t>
-  </si>
-  <si>
-    <t>支付渠道</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>varchat(16)</t>
-  </si>
-  <si>
-    <t>支付订单类型</t>
-  </si>
-  <si>
-    <t>pay_type</t>
-  </si>
-  <si>
-    <t>交易类型</t>
-  </si>
-  <si>
-    <t>收款机构</t>
-  </si>
-  <si>
-    <t>支付状态</t>
-  </si>
-  <si>
-    <t>pay_status</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>memo</t>
-  </si>
-  <si>
-    <t>varchat(1024)</t>
-  </si>
-  <si>
-    <t>gmt_modify</t>
-  </si>
-  <si>
-    <t>refund 退款表（从哪个渠道申请退款就退到那里）</t>
-  </si>
-  <si>
-    <t>退单订单号</t>
-  </si>
-  <si>
-    <t>refund_order_id</t>
-  </si>
-  <si>
-    <t>退款金额</t>
-  </si>
-  <si>
-    <t>退款渠道</t>
-  </si>
-  <si>
-    <t>退款商户</t>
-  </si>
-  <si>
-    <t>merchent_id</t>
-  </si>
-  <si>
-    <t>退款状态</t>
-  </si>
-  <si>
-    <t>refund_status</t>
-  </si>
-  <si>
-    <t>管理端</t>
-  </si>
-  <si>
-    <t>客户端</t>
-  </si>
-  <si>
-    <t>课程管理</t>
-  </si>
-  <si>
-    <t>新增/编辑课程</t>
-  </si>
-  <si>
-    <t>查看课程</t>
-  </si>
-  <si>
-    <t>发布课程</t>
-  </si>
-  <si>
-    <t>购买课程</t>
-  </si>
-  <si>
-    <t>体征信息（customer_body_info）</t>
-  </si>
-  <si>
-    <t>修改课程发布计划</t>
-  </si>
-  <si>
-    <t>id (id)</t>
-  </si>
-  <si>
-    <t>用户id （customer_id）bigint 64</t>
-  </si>
-  <si>
-    <t>记录编号 (record_id) varchar(64)</t>
-  </si>
-  <si>
-    <t>登记日期 register_date (datetime)</t>
-  </si>
-  <si>
-    <t>课程预约</t>
-  </si>
-  <si>
-    <t>受理预约</t>
-  </si>
-  <si>
-    <t>预约课程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">身高 cm  (height) varchar(8) </t>
-  </si>
-  <si>
-    <t>后台预约</t>
-  </si>
-  <si>
-    <t>取消预约</t>
-  </si>
-  <si>
-    <t>体重 kg (weight) varchar(8)</t>
-  </si>
-  <si>
-    <t>后台取消</t>
-  </si>
-  <si>
-    <t>课程评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胸围 cm (chest) varchar(8) </t>
-  </si>
-  <si>
-    <t>分享课程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腰围 cm (waistline) varchar(8) </t>
-  </si>
-  <si>
-    <t>查看预约记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">臀围 cm (hipline) varchar(8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">腰臀比 (waist_hip_ratio)  varchar(8) </t>
-  </si>
-  <si>
-    <t>视频管理</t>
-  </si>
-  <si>
-    <t>上传视频</t>
-  </si>
-  <si>
-    <t>查看视频</t>
-  </si>
-  <si>
-    <t>左大臂围  cm (left_arm_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>编辑视频说明</t>
-  </si>
-  <si>
-    <t>右大臂围  cm (right_arm_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>删除视频</t>
-  </si>
-  <si>
-    <t>左大腿围  cm (left_thigh_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>右大腿围   cm (right_thigh_circumference) varchar(8)</t>
-  </si>
-  <si>
-    <t>打卡挑战</t>
-  </si>
-  <si>
-    <t>发起挑战</t>
-  </si>
-  <si>
-    <t xml:space="preserve">体脂率 % (fat percentage) varchar(8) </t>
-  </si>
-  <si>
-    <t>查询挑战计划</t>
-  </si>
-  <si>
-    <t>心率  次/分 (heart_rate) varchar(8)</t>
-  </si>
-  <si>
-    <t>管理挑战计划</t>
-  </si>
-  <si>
-    <t>参与挑战</t>
-  </si>
-  <si>
-    <t>血压(收缩压)  mm/Hg (sdp) varchar(8)</t>
-  </si>
-  <si>
-    <t>挑战统计</t>
-  </si>
-  <si>
-    <t>打卡记录</t>
-  </si>
-  <si>
-    <t>血压(舒张压) mm/Hg (dbp) varchar(8)</t>
-  </si>
-  <si>
-    <t>脂肪含量 kg (fat_content) varchar(8)</t>
-  </si>
-  <si>
-    <t>骨骼肌含量 kg (muscle_content) varchar(8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 体质指数 (bmi) varchar(8)</t>
-  </si>
-  <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>新增体征信息</t>
-  </si>
-  <si>
-    <t>查询历史体征信息</t>
-  </si>
-  <si>
-    <t>修改时间（mdt）date sysdate()</t>
-  </si>
-  <si>
-    <t>查询训练数据</t>
-  </si>
-  <si>
-    <t>管理个人训练计划</t>
-  </si>
-  <si>
-    <t>身高/体重的（二次幂）</t>
-  </si>
-  <si>
-    <t>订单操作日志 (order_operate_log)表</t>
-  </si>
-  <si>
-    <t>受理订单</t>
-  </si>
-  <si>
-    <t>生成订单</t>
-  </si>
-  <si>
-    <t>Order 订单信息(mysql)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">订单包 (order_package)表 </t>
-  </si>
-  <si>
-    <t>生成订单包</t>
-  </si>
-  <si>
-    <t>订单编号</t>
-  </si>
-  <si>
-    <t>关闭订单</t>
-  </si>
-  <si>
-    <t>操作者编号</t>
-  </si>
-  <si>
-    <t>operator_id</t>
-  </si>
-  <si>
-    <t>申请退货</t>
-  </si>
-  <si>
-    <t>订单退款（付款未发货）</t>
-  </si>
-  <si>
-    <t>订单包号</t>
-  </si>
-  <si>
-    <t>order_package_id</t>
-  </si>
-  <si>
-    <t>操作者类型</t>
-  </si>
-  <si>
-    <t>operator_role</t>
-  </si>
-  <si>
-    <t>varchar（16）</t>
-  </si>
-  <si>
-    <t>订单退货（付款已发货）</t>
-  </si>
-  <si>
-    <t>购物车号</t>
-  </si>
-  <si>
-    <t>执行动作</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>跟踪订单</t>
-  </si>
-  <si>
-    <t>跟踪发货信息</t>
-  </si>
-  <si>
-    <t>执行结果</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>跟踪退货信息</t>
-  </si>
-  <si>
-    <t>商品数量</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>执行时间</t>
-  </si>
-  <si>
-    <t>execute_time</t>
-  </si>
-  <si>
-    <t>分类查询订单</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>优惠单价</t>
-  </si>
-  <si>
-    <t>discount_price</t>
-  </si>
-  <si>
-    <t>订单统计</t>
-  </si>
-  <si>
-    <t>结算价格</t>
-  </si>
-  <si>
-    <t>settlement_price</t>
-  </si>
-  <si>
-    <t>total_amount</t>
-  </si>
-  <si>
-    <t>记录订单的变化</t>
-  </si>
-  <si>
-    <t>支付时间</t>
-  </si>
-  <si>
-    <t>pay_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t>订单状态</t>
-  </si>
-  <si>
-    <t>mongo db</t>
-  </si>
-  <si>
-    <t>下单时间</t>
-  </si>
-  <si>
-    <t>order_time</t>
-  </si>
-  <si>
-    <t>完成时间</t>
-  </si>
-  <si>
-    <t>finish_time</t>
-  </si>
-  <si>
-    <t>Order_Logistics  订单物流信息表(mongo)</t>
-  </si>
-  <si>
-    <t>order_detail  订单详情(mongo)</t>
   </si>
   <si>
     <t>物流公司编号</t>
@@ -1307,10 +1253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1362,7 +1308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1375,11 +1321,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1391,10 +1344,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1406,32 +1366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1477,16 +1414,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1499,14 +1445,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,13 +1497,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,168 +1671,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1806,30 +1752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1846,17 +1768,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1872,6 +1785,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,15 +1839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1940,157 +1853,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2148,18 +2070,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2169,14 +2079,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2208,7 +2121,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9998,7 +9911,7 @@
   <sheetPr/>
   <dimension ref="A2:Q65"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -10020,17 +9933,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:4">
-      <c r="D2" s="35"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="35"/>
+      <c r="D3" s="32"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
@@ -10052,10 +9965,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="15"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -10080,7 +9993,7 @@
     <row r="5" spans="1:12">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="36" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -11217,8 +11130,8 @@
   <sheetPr/>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -11307,20 +11220,20 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:11">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="21" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="23" t="s">
         <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -11338,20 +11251,20 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:11">
-      <c r="A6" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="21" t="s">
         <v>148</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="24" t="s">
         <v>150</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -11369,51 +11282,51 @@
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:11">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>156</v>
+      <c r="C7" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:11">
+      <c r="A8" s="20" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:11">
-      <c r="A8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>148</v>
+      <c r="C8" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="23" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -11431,27 +11344,27 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:11">
-      <c r="A9" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="20" t="s">
         <v>165</v>
       </c>
+      <c r="B9" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="28" t="s">
         <v>167</v>
       </c>
+      <c r="F9" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="G9" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -11461,82 +11374,82 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:11">
-      <c r="A10" s="19" t="s">
-        <v>170</v>
+      <c r="A10" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="28" t="s">
         <v>173</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:11">
-      <c r="A11" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="21" t="s">
         <v>178</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="27" t="s">
         <v>180</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:11">
-      <c r="A12" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>165</v>
+      <c r="B12" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="27" t="s">
         <v>184</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>146</v>
@@ -11546,28 +11459,28 @@
         <v>52</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:11">
+      <c r="A13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:11">
-      <c r="A13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>186</v>
+      <c r="C13" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>182</v>
+        <v>188</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>146</v>
@@ -11577,28 +11490,28 @@
         <v>60</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:11">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>186</v>
+      <c r="B14" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="28" t="s">
         <v>190</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>146</v>
@@ -11610,89 +11523,57 @@
     </row>
     <row r="15" customFormat="1" spans="4:11">
       <c r="D15" s="15"/>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>185</v>
+      <c r="F15" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" customFormat="1" spans="1:11">
-      <c r="A16" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
+    <row r="16" customFormat="1" spans="4:11">
       <c r="D16" s="15"/>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>188</v>
+      <c r="F16" s="24" t="s">
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="28" t="s">
         <v>192</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" customFormat="1" spans="1:11">
-      <c r="A17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>5</v>
-      </c>
+    <row r="17" customFormat="1" spans="4:11">
       <c r="D17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="29" t="s">
         <v>193</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" customFormat="1" spans="1:11">
-      <c r="A18" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>143</v>
-      </c>
+    <row r="18" customFormat="1" spans="4:11">
       <c r="D18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="29" t="s">
         <v>194</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" customFormat="1" spans="1:11">
-      <c r="A19" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>146</v>
-      </c>
+    <row r="19" customFormat="1" spans="4:11">
       <c r="D19" s="15"/>
       <c r="E19" s="1" t="s">
         <v>195</v>
@@ -11700,22 +11581,16 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="30" t="s">
         <v>196</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
     <row r="20" customFormat="1" spans="1:11">
-      <c r="A20" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="A20" s="22"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="1" t="s">
         <v>4</v>
@@ -11727,116 +11602,92 @@
         <v>5</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="I20" s="33" t="s">
-        <v>199</v>
+      <c r="I20" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
     </row>
     <row r="21" customFormat="1" spans="1:11">
-      <c r="A21" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="A21" s="22"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="33" t="s">
-        <v>203</v>
+      <c r="I21" s="30" t="s">
+        <v>200</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
     </row>
     <row r="22" customFormat="1" spans="1:11">
-      <c r="A22" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>206</v>
-      </c>
+      <c r="A22" s="22"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>207</v>
+        <v>156</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="33" t="s">
-        <v>208</v>
+      <c r="I22" s="30" t="s">
+        <v>202</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
     </row>
     <row r="23" customFormat="1" spans="1:11">
-      <c r="A23" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>186</v>
-      </c>
+      <c r="A23" s="22"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="28" t="s">
+      <c r="E23" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>145</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="33" t="s">
-        <v>210</v>
+      <c r="I23" s="30" t="s">
+        <v>204</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
     </row>
     <row r="24" customFormat="1" spans="1:11">
-      <c r="A24" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>186</v>
-      </c>
+      <c r="A24" s="22"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>212</v>
+        <v>205</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H24" s="15"/>
-      <c r="I24" s="33" t="s">
-        <v>213</v>
+      <c r="I24" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -11844,17 +11695,17 @@
     <row r="25" customFormat="1" spans="4:11">
       <c r="D25" s="15"/>
       <c r="E25" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="I25" s="33" t="s">
-        <v>216</v>
+      <c r="I25" s="30" t="s">
+        <v>210</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -11862,17 +11713,17 @@
     <row r="26" customFormat="1" spans="4:11">
       <c r="D26" s="15"/>
       <c r="E26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>212</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="32" t="s">
-        <v>219</v>
+      <c r="I26" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -11880,146 +11731,96 @@
     <row r="27" customFormat="1" spans="4:11">
       <c r="D27" s="15"/>
       <c r="E27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>221</v>
+        <v>214</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="32" t="s">
-        <v>223</v>
+      <c r="I27" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" customFormat="1" spans="1:11">
-      <c r="A28" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+    <row r="28" customFormat="1" spans="4:11">
       <c r="D28" s="15"/>
       <c r="E28" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>226</v>
+        <v>217</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="H28" s="13"/>
-      <c r="I28" s="32" t="s">
-        <v>227</v>
+      <c r="I28" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" customFormat="1" spans="1:11">
-      <c r="A29" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>5</v>
-      </c>
+    <row r="29" customFormat="1" spans="4:11">
       <c r="D29" s="15"/>
       <c r="E29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H29" s="15"/>
-      <c r="I29" s="34" t="s">
-        <v>228</v>
+      <c r="I29" s="31" t="s">
+        <v>220</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" customFormat="1" spans="1:11">
-      <c r="A30" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>143</v>
-      </c>
+    <row r="30" customFormat="1" spans="4:11">
       <c r="D30" s="15"/>
       <c r="E30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H30" s="15"/>
-      <c r="I30" s="32" t="s">
-        <v>229</v>
+      <c r="I30" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" customFormat="1" spans="1:11">
-      <c r="A31" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>146</v>
-      </c>
+    <row r="31" customFormat="1" spans="4:11">
       <c r="D31" s="15"/>
-      <c r="F31" s="29"/>
+      <c r="F31" s="26"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="34" t="s">
-        <v>232</v>
+      <c r="I31" s="31" t="s">
+        <v>222</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" customFormat="1" spans="1:11">
-      <c r="A32" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>146</v>
-      </c>
+    <row r="32" customFormat="1" spans="4:11">
       <c r="D32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" customFormat="1" spans="1:11">
-      <c r="A33" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>146</v>
-      </c>
+    <row r="33" customFormat="1" spans="4:11">
       <c r="D33" s="15"/>
       <c r="E33" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -12028,16 +11829,7 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" customFormat="1" spans="1:11">
-      <c r="A34" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>146</v>
-      </c>
+    <row r="34" customFormat="1" spans="4:11">
       <c r="D34" s="15"/>
       <c r="E34" s="1" t="s">
         <v>4</v>
@@ -12053,24 +11845,15 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" customFormat="1" spans="1:11">
-      <c r="A35" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>146</v>
-      </c>
+    <row r="35" customFormat="1" spans="4:11">
       <c r="D35" s="15"/>
-      <c r="E35" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" s="30" t="s">
+      <c r="E35" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>146</v>
       </c>
       <c r="H35" s="15"/>
@@ -12078,74 +11861,47 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" customFormat="1" spans="1:11">
-      <c r="A36" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>222</v>
-      </c>
+    <row r="36" customFormat="1" spans="4:11">
       <c r="D36" s="15"/>
-      <c r="E36" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>248</v>
+      <c r="E36" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" customFormat="1" spans="1:11">
-      <c r="A37" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>146</v>
-      </c>
+    <row r="37" customFormat="1" spans="4:11">
       <c r="D37" s="15"/>
-      <c r="E37" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="F37" s="30" t="s">
+      <c r="E37" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="30" t="s">
-        <v>250</v>
+      <c r="G37" s="27" t="s">
+        <v>230</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" customFormat="1" spans="1:11">
-      <c r="A38" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>186</v>
-      </c>
+    <row r="38" customFormat="1" spans="4:11">
       <c r="D38" s="15"/>
-      <c r="E38" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="G38" s="30" t="s">
+      <c r="E38" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="27" t="s">
         <v>146</v>
       </c>
       <c r="H38" s="15"/>
@@ -12153,25 +11909,16 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" customFormat="1" spans="1:11">
-      <c r="A39" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C39" s="25" t="s">
+    <row r="39" customFormat="1" spans="4:11">
+      <c r="D39" s="15"/>
+      <c r="E39" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>186</v>
+      <c r="G39" s="27" t="s">
+        <v>187</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -12180,14 +11927,14 @@
     </row>
     <row r="40" customFormat="1" spans="4:11">
       <c r="D40" s="15"/>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>186</v>
+      <c r="F40" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>187</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -12204,7 +11951,7 @@
     <row r="42" customFormat="1" spans="4:11">
       <c r="D42" s="15"/>
       <c r="E42" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -12230,79 +11977,77 @@
       <c r="K43" s="15"/>
     </row>
     <row r="44" spans="5:7">
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="G44" s="30" t="s">
+      <c r="F44" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44" s="27" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="45" spans="5:7">
-      <c r="E45" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="F45" s="30" t="s">
+      <c r="E45" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F45" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="G45" s="30" t="s">
-        <v>248</v>
+      <c r="G45" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="5:7">
-      <c r="E46" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>250</v>
+      <c r="E46" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="5:7">
-      <c r="E47" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="G47" s="30" t="s">
+      <c r="E47" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="27" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="48" spans="5:7">
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="G48" s="30" t="s">
+      <c r="F48" s="27" t="s">
         <v>186</v>
       </c>
+      <c r="G48" s="27" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="49" spans="5:7">
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="G49" s="30" t="s">
-        <v>186</v>
+      <c r="F49" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A16:C16"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A28:C28"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E42:G42"/>
   </mergeCells>
@@ -12334,15 +12079,15 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -12369,7 +12114,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -12392,107 +12137,107 @@
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="4" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="4" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="4" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>17</v>
@@ -12501,18 +12246,18 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>81</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="7" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -12521,7 +12266,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>17</v>
@@ -12532,13 +12277,13 @@
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="4" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>90</v>
@@ -12547,21 +12292,21 @@
         <v>91</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="7" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>14</v>
@@ -12578,16 +12323,16 @@
         <v>136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="3:9">
@@ -12598,7 +12343,7 @@
         <v>75</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>52</v>
@@ -12607,7 +12352,7 @@
         <v>75</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="3:9">
@@ -12615,24 +12360,24 @@
         <v>60</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -12661,40 +12406,40 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="4" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="4" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="4" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>17</v>
@@ -12705,10 +12450,10 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="7" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
@@ -12716,24 +12461,24 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="4" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="7" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="3:5">
@@ -12744,7 +12489,7 @@
         <v>75</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="3:5">
@@ -12752,10 +12497,10 @@
         <v>60</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -12790,244 +12535,244 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="17" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="17" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" s="17" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" s="17" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C18" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C19" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="17" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="17" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="17" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C25" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="E27" s="17"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -13065,25 +12810,25 @@
   <sheetData>
     <row r="3" spans="12:14">
       <c r="L3" s="3" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="3" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -13099,7 +12844,7 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -13120,10 +12865,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>153</v>
@@ -13131,7 +12876,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -13152,10 +12897,10 @@
         <v>11</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>153</v>
@@ -13163,42 +12908,42 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>153</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>163</v>
@@ -13210,7 +12955,7 @@
         <v>153</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>152</v>
@@ -13219,62 +12964,62 @@
         <v>153</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>153</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>163</v>
@@ -13286,10 +13031,10 @@
         <v>153</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>54</v>
@@ -13297,13 +13042,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>153</v>
@@ -13323,16 +13068,16 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -13346,22 +13091,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>153</v>
@@ -13369,7 +13114,7 @@
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -13384,12 +13129,12 @@
         <v>136</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>78</v>
@@ -13401,24 +13146,24 @@
         <v>153</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>146</v>
@@ -13427,7 +13172,7 @@
         <v>52</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>54</v>
@@ -13435,22 +13180,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>54</v>
@@ -13458,13 +13203,13 @@
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="1" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="4:6">
@@ -13472,7 +13217,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>54</v>
@@ -13483,13 +13228,13 @@
         <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -13518,10 +13263,10 @@
     </row>
     <row r="23" spans="8:10">
       <c r="H23" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>153</v>
@@ -13529,7 +13274,7 @@
     </row>
     <row r="24" spans="4:10">
       <c r="D24" s="3" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -13554,10 +13299,10 @@
         <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>153</v>
@@ -13574,10 +13319,10 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>153</v>
@@ -13585,19 +13330,19 @@
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>153</v>
@@ -13605,19 +13350,19 @@
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="1" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>153</v>
@@ -13625,19 +13370,19 @@
     </row>
     <row r="29" ht="17" spans="4:10">
       <c r="D29" s="1" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>54</v>
@@ -13645,19 +13390,19 @@
     </row>
     <row r="30" ht="17" spans="4:10">
       <c r="D30" s="1" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>54</v>
@@ -13665,10 +13410,10 @@
     </row>
     <row r="31" ht="17" spans="4:10">
       <c r="D31" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>153</v>
@@ -13677,7 +13422,7 @@
         <v>52</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>54</v>
@@ -13685,10 +13430,10 @@
     </row>
     <row r="32" ht="17" spans="4:10">
       <c r="D32" s="5" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>153</v>
@@ -13697,7 +13442,7 @@
         <v>60</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>54</v>
@@ -13708,7 +13453,7 @@
         <v>52</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>54</v>
@@ -13719,7 +13464,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>54</v>
@@ -13727,7 +13472,7 @@
     </row>
     <row r="35" spans="8:10">
       <c r="H35" s="3" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -13756,10 +13501,10 @@
     </row>
     <row r="38" ht="17" spans="8:10">
       <c r="H38" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>153</v>
@@ -13778,10 +13523,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>153</v>
@@ -13789,10 +13534,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" s="1" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>153</v>
@@ -13800,13 +13545,13 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" s="1" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" ht="17" spans="8:10">
@@ -13814,7 +13559,7 @@
         <v>52</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>153</v>
@@ -13825,7 +13570,7 @@
         <v>60</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>153</v>
